--- a/outputs/fs_bus_monthly.xlsx
+++ b/outputs/fs_bus_monthly.xlsx
@@ -530,10 +530,10 @@
         <v>2969.693354930564</v>
       </c>
       <c r="D2" t="n">
-        <v>2867.665306080833</v>
+        <v>2860.215405083584</v>
       </c>
       <c r="E2" t="n">
-        <v>3432.530785428434</v>
+        <v>3447.646980112967</v>
       </c>
       <c r="F2" t="n">
         <v>2969.693354930564</v>
@@ -583,10 +583,10 @@
         <v>2965.641856075486</v>
       </c>
       <c r="D3" t="n">
-        <v>2516.722320010922</v>
+        <v>2531.410485811209</v>
       </c>
       <c r="E3" t="n">
-        <v>3094.644324921929</v>
+        <v>3090.767852602954</v>
       </c>
       <c r="F3" t="n">
         <v>2965.641856075486</v>
@@ -636,10 +636,10 @@
         <v>2961.98243775477</v>
       </c>
       <c r="D4" t="n">
-        <v>3046.579869742787</v>
+        <v>3038.157610594283</v>
       </c>
       <c r="E4" t="n">
-        <v>3620.958086874083</v>
+        <v>3592.380559965613</v>
       </c>
       <c r="F4" t="n">
         <v>2961.98243775477</v>
@@ -689,10 +689,10 @@
         <v>2957.930938859583</v>
       </c>
       <c r="D5" t="n">
-        <v>2464.290655585565</v>
+        <v>2432.508219575987</v>
       </c>
       <c r="E5" t="n">
-        <v>3027.835805013686</v>
+        <v>2992.132088615828</v>
       </c>
       <c r="F5" t="n">
         <v>2957.930938859583</v>
@@ -742,10 +742,10 @@
         <v>2954.010133477143</v>
       </c>
       <c r="D6" t="n">
-        <v>2461.725978055043</v>
+        <v>2462.285528633519</v>
       </c>
       <c r="E6" t="n">
-        <v>3039.858320463041</v>
+        <v>3002.761932206451</v>
       </c>
       <c r="F6" t="n">
         <v>2954.010133477143</v>
@@ -795,10 +795,10 @@
         <v>2949.958634451503</v>
       </c>
       <c r="D7" t="n">
-        <v>2669.764379108099</v>
+        <v>2652.385401765774</v>
       </c>
       <c r="E7" t="n">
-        <v>3232.45387162713</v>
+        <v>3260.348536874859</v>
       </c>
       <c r="F7" t="n">
         <v>2949.958634451503</v>
@@ -848,10 +848,10 @@
         <v>2946.037829078093</v>
       </c>
       <c r="D8" t="n">
-        <v>2588.310994691589</v>
+        <v>2572.482441255841</v>
       </c>
       <c r="E8" t="n">
-        <v>3159.851070691569</v>
+        <v>3163.825610524008</v>
       </c>
       <c r="F8" t="n">
         <v>2946.037829078093</v>
@@ -901,10 +901,10 @@
         <v>2941.986330192236</v>
       </c>
       <c r="D9" t="n">
-        <v>2851.200715914186</v>
+        <v>2855.162210182185</v>
       </c>
       <c r="E9" t="n">
-        <v>3399.175598453611</v>
+        <v>3407.763331617348</v>
       </c>
       <c r="F9" t="n">
         <v>2941.986330192236</v>
@@ -954,10 +954,10 @@
         <v>2937.93483146309</v>
       </c>
       <c r="D10" t="n">
-        <v>2595.47436729622</v>
+        <v>2595.528348911635</v>
       </c>
       <c r="E10" t="n">
-        <v>3178.984050018728</v>
+        <v>3132.940041772941</v>
       </c>
       <c r="F10" t="n">
         <v>2937.93483146309</v>
@@ -1007,10 +1007,10 @@
         <v>2934.014026241336</v>
       </c>
       <c r="D11" t="n">
-        <v>2730.848394936471</v>
+        <v>2735.193823286401</v>
       </c>
       <c r="E11" t="n">
-        <v>3283.901353978957</v>
+        <v>3308.974748151127</v>
       </c>
       <c r="F11" t="n">
         <v>2934.014026241336</v>
@@ -1060,10 +1060,10 @@
         <v>2929.962527663065</v>
       </c>
       <c r="D12" t="n">
-        <v>2804.856753066215</v>
+        <v>2810.908351483964</v>
       </c>
       <c r="E12" t="n">
-        <v>3364.236955791388</v>
+        <v>3373.63066314392</v>
       </c>
       <c r="F12" t="n">
         <v>2929.962527663065</v>
@@ -1113,10 +1113,10 @@
         <v>2926.041722587319</v>
       </c>
       <c r="D13" t="n">
-        <v>2755.895203053004</v>
+        <v>2751.702677169368</v>
       </c>
       <c r="E13" t="n">
-        <v>3298.28909174205</v>
+        <v>3305.463653984056</v>
       </c>
       <c r="F13" t="n">
         <v>2926.041722587319</v>
@@ -1166,10 +1166,10 @@
         <v>2921.990224043238</v>
       </c>
       <c r="D14" t="n">
-        <v>2929.71913150105</v>
+        <v>2920.624049942903</v>
       </c>
       <c r="E14" t="n">
-        <v>3481.660180773375</v>
+        <v>3487.916024458571</v>
       </c>
       <c r="F14" t="n">
         <v>2921.990224043238</v>
@@ -1219,10 +1219,10 @@
         <v>2917.938725519621</v>
       </c>
       <c r="D15" t="n">
-        <v>2469.25140428579</v>
+        <v>2470.982256927635</v>
       </c>
       <c r="E15" t="n">
-        <v>3038.994186148885</v>
+        <v>3041.29316777116</v>
       </c>
       <c r="F15" t="n">
         <v>2917.938725519621</v>
@@ -1272,10 +1272,10 @@
         <v>2914.279307498289</v>
       </c>
       <c r="D16" t="n">
-        <v>2862.94407450566</v>
+        <v>2845.198714194221</v>
       </c>
       <c r="E16" t="n">
-        <v>3438.260407685363</v>
+        <v>3420.056526949696</v>
       </c>
       <c r="F16" t="n">
         <v>2914.279307498289</v>
@@ -1325,10 +1325,10 @@
         <v>2910.227809121394</v>
       </c>
       <c r="D17" t="n">
-        <v>2549.60717069024</v>
+        <v>2570.864001522659</v>
       </c>
       <c r="E17" t="n">
-        <v>3101.536358477857</v>
+        <v>3139.755444585917</v>
       </c>
       <c r="F17" t="n">
         <v>2910.227809121394</v>
@@ -1378,10 +1378,10 @@
         <v>2906.307004240528</v>
       </c>
       <c r="D18" t="n">
-        <v>2459.849726112247</v>
+        <v>2468.831664632788</v>
       </c>
       <c r="E18" t="n">
-        <v>3035.019060748411</v>
+        <v>3040.792343588778</v>
       </c>
       <c r="F18" t="n">
         <v>2906.307004240528</v>
@@ -1431,10 +1431,10 @@
         <v>2902.255505726534</v>
       </c>
       <c r="D19" t="n">
-        <v>2399.418995941905</v>
+        <v>2395.306144246584</v>
       </c>
       <c r="E19" t="n">
-        <v>2979.758326363827</v>
+        <v>2965.487083540379</v>
       </c>
       <c r="F19" t="n">
         <v>2902.255505726534</v>
@@ -1484,10 +1484,10 @@
         <v>2898.334700712991</v>
       </c>
       <c r="D20" t="n">
-        <v>2756.744698471181</v>
+        <v>2729.041868958077</v>
       </c>
       <c r="E20" t="n">
-        <v>3319.848774746864</v>
+        <v>3299.289303387831</v>
       </c>
       <c r="F20" t="n">
         <v>2898.334700712991</v>
@@ -1537,10 +1537,10 @@
         <v>2894.283202231662</v>
       </c>
       <c r="D21" t="n">
-        <v>2657.594798946652</v>
+        <v>2658.696300994632</v>
       </c>
       <c r="E21" t="n">
-        <v>3217.70631349091</v>
+        <v>3229.303268697461</v>
       </c>
       <c r="F21" t="n">
         <v>2894.283202231662</v>
@@ -1590,10 +1590,10 @@
         <v>2890.231703719072</v>
       </c>
       <c r="D22" t="n">
-        <v>2495.235534431994</v>
+        <v>2496.854944191331</v>
       </c>
       <c r="E22" t="n">
-        <v>3045.272563405598</v>
+        <v>3051.735031895349</v>
       </c>
       <c r="F22" t="n">
         <v>2890.231703719072</v>
@@ -1643,10 +1643,10 @@
         <v>2886.310898706889</v>
       </c>
       <c r="D23" t="n">
-        <v>2866.423323324501</v>
+        <v>2882.355678149416</v>
       </c>
       <c r="E23" t="n">
-        <v>3448.836758605234</v>
+        <v>3462.788827709061</v>
       </c>
       <c r="F23" t="n">
         <v>2886.310898706889</v>
@@ -1696,10 +1696,10 @@
         <v>2882.24741925849</v>
       </c>
       <c r="D24" t="n">
-        <v>2647.800565315303</v>
+        <v>2643.977798764719</v>
       </c>
       <c r="E24" t="n">
-        <v>3206.228772032283</v>
+        <v>3209.291016306576</v>
       </c>
       <c r="F24" t="n">
         <v>2882.24741925849</v>
@@ -1749,10 +1749,10 @@
         <v>2878.315019792297</v>
       </c>
       <c r="D25" t="n">
-        <v>2644.007186524787</v>
+        <v>2656.047931855952</v>
       </c>
       <c r="E25" t="n">
-        <v>3187.7309386433</v>
+        <v>3204.007157428984</v>
       </c>
       <c r="F25" t="n">
         <v>2878.315019792297</v>
@@ -1802,10 +1802,10 @@
         <v>2874.251540095401</v>
       </c>
       <c r="D26" t="n">
-        <v>2990.447871885314</v>
+        <v>2974.106405433567</v>
       </c>
       <c r="E26" t="n">
-        <v>3536.31699878581</v>
+        <v>3542.79508259872</v>
       </c>
       <c r="F26" t="n">
         <v>2874.251540095401</v>
@@ -1855,10 +1855,10 @@
         <v>2870.188060398506</v>
       </c>
       <c r="D27" t="n">
-        <v>2410.413082334419</v>
+        <v>2425.310872534445</v>
       </c>
       <c r="E27" t="n">
-        <v>2965.038157990451</v>
+        <v>2982.322059342962</v>
       </c>
       <c r="F27" t="n">
         <v>2870.188060398506</v>
@@ -1908,10 +1908,10 @@
         <v>2866.517820446164</v>
       </c>
       <c r="D28" t="n">
-        <v>2678.469954650334</v>
+        <v>2682.14569765239</v>
       </c>
       <c r="E28" t="n">
-        <v>3230.640942068775</v>
+        <v>3265.460169364045</v>
       </c>
       <c r="F28" t="n">
         <v>2866.517820446164</v>
@@ -1961,10 +1961,10 @@
         <v>2862.454340268677</v>
       </c>
       <c r="D29" t="n">
-        <v>2679.849235790758</v>
+        <v>2690.291694704738</v>
       </c>
       <c r="E29" t="n">
-        <v>3264.369065150871</v>
+        <v>3233.052279346571</v>
       </c>
       <c r="F29" t="n">
         <v>2862.454340268677</v>
@@ -2014,10 +2014,10 @@
         <v>2858.521940096914</v>
       </c>
       <c r="D30" t="n">
-        <v>2454.761601222701</v>
+        <v>2444.432083345344</v>
       </c>
       <c r="E30" t="n">
-        <v>3011.678002895056</v>
+        <v>3010.554489961217</v>
       </c>
       <c r="F30" t="n">
         <v>2858.521940096914</v>
@@ -2067,10 +2067,10 @@
         <v>2854.458459880556</v>
       </c>
       <c r="D31" t="n">
-        <v>2147.769837521794</v>
+        <v>2124.7249790844</v>
       </c>
       <c r="E31" t="n">
-        <v>2711.772287335402</v>
+        <v>2710.216071651855</v>
       </c>
       <c r="F31" t="n">
         <v>2854.458459880556</v>
@@ -2120,10 +2120,10 @@
         <v>2850.526059671176</v>
       </c>
       <c r="D32" t="n">
-        <v>2897.588525840707</v>
+        <v>2914.000413369417</v>
       </c>
       <c r="E32" t="n">
-        <v>3479.904631467091</v>
+        <v>3476.416338608828</v>
       </c>
       <c r="F32" t="n">
         <v>2850.526059671176</v>
@@ -2173,10 +2173,10 @@
         <v>2846.453073979019</v>
       </c>
       <c r="D33" t="n">
-        <v>2486.13013128481</v>
+        <v>2506.089183508537</v>
       </c>
       <c r="E33" t="n">
-        <v>3059.089638944073</v>
+        <v>3036.144777107093</v>
       </c>
       <c r="F33" t="n">
         <v>2846.453073979019</v>
@@ -2226,10 +2226,10 @@
         <v>2842.380088286863</v>
       </c>
       <c r="D34" t="n">
-        <v>2366.712714208863</v>
+        <v>2366.105160862349</v>
       </c>
       <c r="E34" t="n">
-        <v>2938.616088937468</v>
+        <v>2915.912400741848</v>
       </c>
       <c r="F34" t="n">
         <v>2842.380088286863</v>
@@ -2279,10 +2279,10 @@
         <v>2838.426804986083</v>
       </c>
       <c r="D35" t="n">
-        <v>3022.29576300405</v>
+        <v>3035.146792213177</v>
       </c>
       <c r="E35" t="n">
-        <v>3602.834635833241</v>
+        <v>3594.175305772436</v>
       </c>
       <c r="F35" t="n">
         <v>2838.426804986083</v>
@@ -2332,10 +2332,10 @@
         <v>2834.336457373356</v>
       </c>
       <c r="D36" t="n">
-        <v>2484.5694357465</v>
+        <v>2457.859945134402</v>
       </c>
       <c r="E36" t="n">
-        <v>3023.270235764146</v>
+        <v>3022.586206061842</v>
       </c>
       <c r="F36" t="n">
         <v>2834.336457373356</v>
@@ -2385,10 +2385,10 @@
         <v>2830.378056457813</v>
       </c>
       <c r="D37" t="n">
-        <v>2526.745176599402</v>
+        <v>2543.935269358471</v>
       </c>
       <c r="E37" t="n">
-        <v>3114.159867762548</v>
+        <v>3114.922394964526</v>
       </c>
       <c r="F37" t="n">
         <v>2830.378056457813</v>
@@ -2438,10 +2438,10 @@
         <v>2826.287708789474</v>
       </c>
       <c r="D38" t="n">
-        <v>3037.831210908757</v>
+        <v>3011.500921115484</v>
       </c>
       <c r="E38" t="n">
-        <v>3611.104907421387</v>
+        <v>3568.618165761165</v>
       </c>
       <c r="F38" t="n">
         <v>2826.287708789474</v>
@@ -2491,10 +2491,10 @@
         <v>2822.197361121135</v>
       </c>
       <c r="D39" t="n">
-        <v>2362.143740077886</v>
+        <v>2350.192138652422</v>
       </c>
       <c r="E39" t="n">
-        <v>2940.084812487306</v>
+        <v>2910.396431603609</v>
       </c>
       <c r="F39" t="n">
         <v>2822.197361121135</v>
@@ -2544,10 +2544,10 @@
         <v>2818.370906773474</v>
       </c>
       <c r="D40" t="n">
-        <v>3023.402387472615</v>
+        <v>3027.830132433049</v>
       </c>
       <c r="E40" t="n">
-        <v>3603.218192509984</v>
+        <v>3590.43740053851</v>
       </c>
       <c r="F40" t="n">
         <v>2818.370906773474</v>
@@ -2597,10 +2597,10 @@
         <v>2814.280559022526</v>
       </c>
       <c r="D41" t="n">
-        <v>2143.889113792301</v>
+        <v>2133.50528499102</v>
       </c>
       <c r="E41" t="n">
-        <v>2678.188932126142</v>
+        <v>2705.036501133745</v>
       </c>
       <c r="F41" t="n">
         <v>2814.280559022526</v>
@@ -2650,10 +2650,10 @@
         <v>2810.322157973222</v>
       </c>
       <c r="D42" t="n">
-        <v>2256.714624379052</v>
+        <v>2261.059879940581</v>
       </c>
       <c r="E42" t="n">
-        <v>2831.055914085278</v>
+        <v>2848.44661882518</v>
       </c>
       <c r="F42" t="n">
         <v>2810.322157973222</v>
@@ -2703,10 +2703,10 @@
         <v>2806.231810222273</v>
       </c>
       <c r="D43" t="n">
-        <v>2727.358585159156</v>
+        <v>2724.188645952363</v>
       </c>
       <c r="E43" t="n">
-        <v>3306.230183316385</v>
+        <v>3328.259575029682</v>
       </c>
       <c r="F43" t="n">
         <v>2806.231810222273</v>
@@ -2756,10 +2756,10 @@
         <v>2802.273409172969</v>
       </c>
       <c r="D44" t="n">
-        <v>2242.14888862572</v>
+        <v>2239.906086204379</v>
       </c>
       <c r="E44" t="n">
-        <v>2821.87447661829</v>
+        <v>2803.06810802995</v>
       </c>
       <c r="F44" t="n">
         <v>2802.273409172969</v>
@@ -2809,10 +2809,10 @@
         <v>2798.183061422021</v>
       </c>
       <c r="D45" t="n">
-        <v>2813.156074432848</v>
+        <v>2798.836267555681</v>
       </c>
       <c r="E45" t="n">
-        <v>3382.550225773852</v>
+        <v>3359.739017896902</v>
       </c>
       <c r="F45" t="n">
         <v>2798.183061422021</v>
@@ -2862,10 +2862,10 @@
         <v>2794.092713671073</v>
       </c>
       <c r="D46" t="n">
-        <v>2505.587341757983</v>
+        <v>2487.278121610461</v>
       </c>
       <c r="E46" t="n">
-        <v>3087.465787310142</v>
+        <v>3060.318393931734</v>
       </c>
       <c r="F46" t="n">
         <v>2794.092713671073</v>
@@ -2915,10 +2915,10 @@
         <v>2790.134312621769</v>
       </c>
       <c r="D47" t="n">
-        <v>2369.153938904707</v>
+        <v>2366.011057685964</v>
       </c>
       <c r="E47" t="n">
-        <v>2955.57349270618</v>
+        <v>2915.383601684071</v>
       </c>
       <c r="F47" t="n">
         <v>2790.134312621769</v>
@@ -2968,10 +2968,10 @@
         <v>2786.043964870821</v>
       </c>
       <c r="D48" t="n">
-        <v>2746.208500241634</v>
+        <v>2768.798183435028</v>
       </c>
       <c r="E48" t="n">
-        <v>3315.953074433595</v>
+        <v>3328.03297976354</v>
       </c>
       <c r="F48" t="n">
         <v>2786.043964870821</v>
@@ -3021,10 +3021,10 @@
         <v>2782.085563775444</v>
       </c>
       <c r="D49" t="n">
-        <v>2634.11135744517</v>
+        <v>2636.465532773478</v>
       </c>
       <c r="E49" t="n">
-        <v>3236.83465860349</v>
+        <v>3215.739017887095</v>
       </c>
       <c r="F49" t="n">
         <v>2782.085563775444</v>
@@ -3074,10 +3074,10 @@
         <v>2777.995215815352</v>
       </c>
       <c r="D50" t="n">
-        <v>2683.774226163259</v>
+        <v>2700.193459032908</v>
       </c>
       <c r="E50" t="n">
-        <v>3233.575182595695</v>
+        <v>3260.45834173408</v>
       </c>
       <c r="F50" t="n">
         <v>2777.995215815352</v>
@@ -3127,10 +3127,10 @@
         <v>2773.90486785526</v>
       </c>
       <c r="D51" t="n">
-        <v>2332.903216574283</v>
+        <v>2325.418152452987</v>
       </c>
       <c r="E51" t="n">
-        <v>2884.25670075417</v>
+        <v>2893.542238142017</v>
       </c>
       <c r="F51" t="n">
         <v>2773.90486785526</v>
@@ -3180,10 +3180,10 @@
         <v>2770.210360039426</v>
       </c>
       <c r="D52" t="n">
-        <v>2838.39780910117</v>
+        <v>2818.836090820058</v>
       </c>
       <c r="E52" t="n">
-        <v>3422.876100377149</v>
+        <v>3402.868626607757</v>
       </c>
       <c r="F52" t="n">
         <v>2770.210360039426</v>
@@ -3233,10 +3233,10 @@
         <v>2766.120012100466</v>
       </c>
       <c r="D53" t="n">
-        <v>2257.156573418206</v>
+        <v>2243.064075478609</v>
       </c>
       <c r="E53" t="n">
-        <v>2807.878615743879</v>
+        <v>2789.835957553074</v>
       </c>
       <c r="F53" t="n">
         <v>2766.120012100466</v>
@@ -3286,10 +3286,10 @@
         <v>2762.161610713341</v>
       </c>
       <c r="D54" t="n">
-        <v>2256.107321776271</v>
+        <v>2270.696876103496</v>
       </c>
       <c r="E54" t="n">
-        <v>2832.592311226978</v>
+        <v>2843.033940105567</v>
       </c>
       <c r="F54" t="n">
         <v>2762.161610713341</v>
@@ -3339,10 +3339,10 @@
         <v>2758.071262613312</v>
       </c>
       <c r="D55" t="n">
-        <v>2487.331860975089</v>
+        <v>2477.542478378482</v>
       </c>
       <c r="E55" t="n">
-        <v>3045.801396159708</v>
+        <v>3040.999747244371</v>
       </c>
       <c r="F55" t="n">
         <v>2758.071262613312</v>
@@ -3392,10 +3392,10 @@
         <v>2754.112861226188</v>
       </c>
       <c r="D56" t="n">
-        <v>2414.121651302212</v>
+        <v>2400.620623154474</v>
       </c>
       <c r="E56" t="n">
-        <v>2975.874160281369</v>
+        <v>2979.003708593337</v>
       </c>
       <c r="F56" t="n">
         <v>2754.112861226188</v>
@@ -3445,10 +3445,10 @@
         <v>2750.022513126159</v>
       </c>
       <c r="D57" t="n">
-        <v>2662.351678814903</v>
+        <v>2650.687542951029</v>
       </c>
       <c r="E57" t="n">
-        <v>3218.690578821357</v>
+        <v>3212.228031545083</v>
       </c>
       <c r="F57" t="n">
         <v>2750.022513126159</v>
@@ -3498,10 +3498,10 @@
         <v>2745.93216502613</v>
       </c>
       <c r="D58" t="n">
-        <v>2373.65278703212</v>
+        <v>2397.454591978308</v>
       </c>
       <c r="E58" t="n">
-        <v>2964.450332317112</v>
+        <v>2958.291980759157</v>
       </c>
       <c r="F58" t="n">
         <v>2745.93216502613</v>
@@ -3551,10 +3551,10 @@
         <v>2741.973763639005</v>
       </c>
       <c r="D59" t="n">
-        <v>2528.243136471831</v>
+        <v>2518.688192782893</v>
       </c>
       <c r="E59" t="n">
-        <v>3071.351373130149</v>
+        <v>3080.64354170158</v>
       </c>
       <c r="F59" t="n">
         <v>2741.973763639005</v>
@@ -3604,10 +3604,10 @@
         <v>2737.883415538976</v>
       </c>
       <c r="D60" t="n">
-        <v>2600.036345376905</v>
+        <v>2603.092148916046</v>
       </c>
       <c r="E60" t="n">
-        <v>3175.474895173675</v>
+        <v>3183.7474688573</v>
       </c>
       <c r="F60" t="n">
         <v>2737.883415538976</v>
@@ -3657,10 +3657,10 @@
         <v>2733.925014151851</v>
       </c>
       <c r="D61" t="n">
-        <v>2545.168778617439</v>
+        <v>2547.31629334454</v>
       </c>
       <c r="E61" t="n">
-        <v>3137.375780429996</v>
+        <v>3101.844544606129</v>
       </c>
       <c r="F61" t="n">
         <v>2733.925014151851</v>
@@ -3710,10 +3710,10 @@
         <v>2729.834666051822</v>
       </c>
       <c r="D62" t="n">
-        <v>2727.187605152884</v>
+        <v>2726.141127757225</v>
       </c>
       <c r="E62" t="n">
-        <v>3301.016555702752</v>
+        <v>3294.763595109679</v>
       </c>
       <c r="F62" t="n">
         <v>2729.834666051822</v>
@@ -3763,10 +3763,10 @@
         <v>2725.744317951794</v>
       </c>
       <c r="D63" t="n">
-        <v>2277.587226444448</v>
+        <v>2289.887159447135</v>
       </c>
       <c r="E63" t="n">
-        <v>2837.504339064913</v>
+        <v>2854.484065846092</v>
       </c>
       <c r="F63" t="n">
         <v>2725.744317951794</v>
@@ -3816,10 +3816,10 @@
         <v>2722.049809990478</v>
       </c>
       <c r="D64" t="n">
-        <v>2667.22732098575</v>
+        <v>2654.820006241687</v>
       </c>
       <c r="E64" t="n">
-        <v>3231.399335195062</v>
+        <v>3214.572484502537</v>
       </c>
       <c r="F64" t="n">
         <v>2722.049809990478</v>
@@ -3869,10 +3869,10 @@
         <v>2717.959461890448</v>
       </c>
       <c r="D65" t="n">
-        <v>2362.697505491293</v>
+        <v>2388.478557773025</v>
       </c>
       <c r="E65" t="n">
-        <v>2916.977903852624</v>
+        <v>2943.828437132016</v>
       </c>
       <c r="F65" t="n">
         <v>2717.959461890448</v>
@@ -3922,16 +3922,16 @@
         <v>2714.001060503324</v>
       </c>
       <c r="D66" t="n">
-        <v>2274.375595553156</v>
+        <v>2270.170832689364</v>
       </c>
       <c r="E66" t="n">
-        <v>2831.3175324526</v>
+        <v>2819.790569566744</v>
       </c>
       <c r="F66" t="n">
-        <v>2714.000860198401</v>
+        <v>2714.000770650304</v>
       </c>
       <c r="G66" t="n">
-        <v>2714.001384687504</v>
+        <v>2714.001267605877</v>
       </c>
       <c r="H66" t="n">
         <v>-159.5618155721391</v>
@@ -3975,16 +3975,16 @@
         <v>2709.910712403295</v>
       </c>
       <c r="D67" t="n">
-        <v>2211.352141554123</v>
+        <v>2220.430247032973</v>
       </c>
       <c r="E67" t="n">
-        <v>2787.435409181333</v>
+        <v>2769.338518291234</v>
       </c>
       <c r="F67" t="n">
-        <v>2709.909100207168</v>
+        <v>2709.909074344082</v>
       </c>
       <c r="G67" t="n">
-        <v>2709.912510589963</v>
+        <v>2709.912424105572</v>
       </c>
       <c r="H67" t="n">
         <v>-214.7945265457852</v>
@@ -4028,16 +4028,16 @@
         <v>2705.95231101617</v>
       </c>
       <c r="D68" t="n">
-        <v>2550.622568301281</v>
+        <v>2544.507358813976</v>
       </c>
       <c r="E68" t="n">
-        <v>3125.818692145141</v>
+        <v>3128.480335772562</v>
       </c>
       <c r="F68" t="n">
-        <v>2705.94862258382</v>
+        <v>2705.94830129945</v>
       </c>
       <c r="G68" t="n">
-        <v>2705.956179163855</v>
+        <v>2705.956090274555</v>
       </c>
       <c r="H68" t="n">
         <v>129.4243203361029</v>
@@ -4081,16 +4081,16 @@
         <v>2701.861962916142</v>
       </c>
       <c r="D69" t="n">
-        <v>2457.752339643538</v>
+        <v>2450.724663829962</v>
       </c>
       <c r="E69" t="n">
-        <v>3039.976918109622</v>
+        <v>3037.029736555491</v>
       </c>
       <c r="F69" t="n">
-        <v>2701.855744278365</v>
+        <v>2701.855414128324</v>
       </c>
       <c r="G69" t="n">
-        <v>2701.869054322698</v>
+        <v>2701.868127857974</v>
       </c>
       <c r="H69" t="n">
         <v>53.93606379549816</v>
@@ -4134,16 +4134,16 @@
         <v>2697.771614816113</v>
       </c>
       <c r="D70" t="n">
-        <v>2285.243622060706</v>
+        <v>2291.736119586001</v>
       </c>
       <c r="E70" t="n">
-        <v>2846.838980474883</v>
+        <v>2855.514102877631</v>
       </c>
       <c r="F70" t="n">
-        <v>2697.762404882501</v>
+        <v>2697.762232142071</v>
       </c>
       <c r="G70" t="n">
-        <v>2697.781758617126</v>
+        <v>2697.780411554348</v>
       </c>
       <c r="H70" t="n">
         <v>-129.2536414614835</v>
@@ -4187,16 +4187,16 @@
         <v>2693.813213428988</v>
       </c>
       <c r="D71" t="n">
-        <v>2686.913882362566</v>
+        <v>2697.522706773867</v>
       </c>
       <c r="E71" t="n">
-        <v>3241.38795031967</v>
+        <v>3251.397174302051</v>
       </c>
       <c r="F71" t="n">
-        <v>2693.800108363174</v>
+        <v>2693.800538075134</v>
       </c>
       <c r="G71" t="n">
-        <v>2693.826458831116</v>
+        <v>2693.825118262356</v>
       </c>
       <c r="H71" t="n">
         <v>271.6364670757778</v>
@@ -4240,16 +4240,16 @@
         <v>2689.722865328959</v>
       </c>
       <c r="D72" t="n">
-        <v>2428.289857303999</v>
+        <v>2434.813236911714</v>
       </c>
       <c r="E72" t="n">
-        <v>3016.543429401548</v>
+        <v>3007.739089144211</v>
       </c>
       <c r="F72" t="n">
-        <v>2689.705769532311</v>
+        <v>2689.706850224881</v>
       </c>
       <c r="G72" t="n">
-        <v>2689.739649351234</v>
+        <v>2689.7386519031</v>
       </c>
       <c r="H72" t="n">
         <v>29.52995797225773</v>
@@ -4293,16 +4293,16 @@
         <v>2685.764463941834</v>
       </c>
       <c r="D73" t="n">
-        <v>2437.973457351437</v>
+        <v>2454.481545094522</v>
       </c>
       <c r="E73" t="n">
-        <v>3016.678832975076</v>
+        <v>3028.381082306742</v>
       </c>
       <c r="F73" t="n">
-        <v>2685.742827872737</v>
+        <v>2685.744875035638</v>
       </c>
       <c r="G73" t="n">
-        <v>2685.784929596834</v>
+        <v>2685.784494457698</v>
       </c>
       <c r="H73" t="n">
         <v>48.9820793266674</v>
@@ -4346,16 +4346,16 @@
         <v>2681.674115841805</v>
       </c>
       <c r="D74" t="n">
-        <v>2781.414855700542</v>
+        <v>2785.394460414585</v>
       </c>
       <c r="E74" t="n">
-        <v>3353.184464883488</v>
+        <v>3339.994103594117</v>
       </c>
       <c r="F74" t="n">
-        <v>2681.64845540825</v>
+        <v>2681.651082596321</v>
       </c>
       <c r="G74" t="n">
-        <v>2681.699521082743</v>
+        <v>2681.698805065212</v>
       </c>
       <c r="H74" t="n">
         <v>386.7010935537908</v>
@@ -4399,16 +4399,16 @@
         <v>2677.583767741776</v>
       </c>
       <c r="D75" t="n">
-        <v>2225.604797926852</v>
+        <v>2229.144288491083</v>
       </c>
       <c r="E75" t="n">
-        <v>2760.026879296419</v>
+        <v>2779.734380543709</v>
       </c>
       <c r="F75" t="n">
-        <v>2677.55363226473</v>
+        <v>2677.55665646318</v>
       </c>
       <c r="G75" t="n">
-        <v>2677.612596566994</v>
+        <v>2677.613328353315</v>
       </c>
       <c r="H75" t="n">
         <v>-175.3897639682307</v>
@@ -4452,16 +4452,16 @@
         <v>2673.88925978046</v>
       </c>
       <c r="D76" t="n">
-        <v>2498.090199862501</v>
+        <v>2484.085913053408</v>
       </c>
       <c r="E76" t="n">
-        <v>3055.079839529383</v>
+        <v>3053.048489883477</v>
       </c>
       <c r="F76" t="n">
-        <v>2673.85523630702</v>
+        <v>2673.857642130031</v>
       </c>
       <c r="G76" t="n">
-        <v>2673.922757447596</v>
+        <v>2673.924215068971</v>
       </c>
       <c r="H76" t="n">
         <v>99.26549435834355</v>
@@ -4505,16 +4505,16 @@
         <v>2669.798911680431</v>
       </c>
       <c r="D77" t="n">
-        <v>2459.899081987312</v>
+        <v>2465.023683417989</v>
       </c>
       <c r="E77" t="n">
-        <v>3042.276106427493</v>
+        <v>3029.317074796015</v>
       </c>
       <c r="F77" t="n">
-        <v>2669.759979666841</v>
+        <v>2669.761952839405</v>
       </c>
       <c r="G77" t="n">
-        <v>2669.837829476809</v>
+        <v>2669.838524066085</v>
       </c>
       <c r="H77" t="n">
         <v>91.24298719174254</v>
@@ -4558,16 +4558,16 @@
         <v>2665.840510293307</v>
       </c>
       <c r="D78" t="n">
-        <v>2259.369642711694</v>
+        <v>2286.746839787169</v>
       </c>
       <c r="E78" t="n">
-        <v>2842.639442368873</v>
+        <v>2818.288003928684</v>
       </c>
       <c r="F78" t="n">
-        <v>2665.795875640333</v>
+        <v>2665.798702763369</v>
       </c>
       <c r="G78" t="n">
-        <v>2665.885340248119</v>
+        <v>2665.884164656378</v>
       </c>
       <c r="H78" t="n">
         <v>-112.6137248227309</v>
@@ -4611,16 +4611,16 @@
         <v>2661.750162193277</v>
       </c>
       <c r="D79" t="n">
-        <v>1945.470512110894</v>
+        <v>1957.783051297192</v>
       </c>
       <c r="E79" t="n">
-        <v>2510.59795277195</v>
+        <v>2499.456984336005</v>
       </c>
       <c r="F79" t="n">
-        <v>2661.701533970839</v>
+        <v>2661.702862126575</v>
       </c>
       <c r="G79" t="n">
-        <v>2661.800825361441</v>
+        <v>2661.800571441152</v>
       </c>
       <c r="H79" t="n">
         <v>-431.6580117073976</v>
@@ -4664,16 +4664,16 @@
         <v>2657.791760806153</v>
       </c>
       <c r="D80" t="n">
-        <v>2718.03372509468</v>
+        <v>2687.526702372692</v>
       </c>
       <c r="E80" t="n">
-        <v>3295.66257568991</v>
+        <v>3269.370429307749</v>
       </c>
       <c r="F80" t="n">
-        <v>2657.738834373657</v>
+        <v>2657.740058295945</v>
       </c>
       <c r="G80" t="n">
-        <v>2657.847818151553</v>
+        <v>2657.847940359707</v>
       </c>
       <c r="H80" t="n">
         <v>329.404653829049</v>
@@ -4717,16 +4717,16 @@
         <v>2653.701412706124</v>
       </c>
       <c r="D81" t="n">
-        <v>2287.522244773882</v>
+        <v>2298.090780645527</v>
       </c>
       <c r="E81" t="n">
-        <v>2871.732644054803</v>
+        <v>2897.368192236589</v>
       </c>
       <c r="F81" t="n">
-        <v>2653.643529646566</v>
+        <v>2653.644588929296</v>
       </c>
       <c r="G81" t="n">
-        <v>2653.761589956076</v>
+        <v>2653.763758953997</v>
       </c>
       <c r="H81" t="n">
         <v>-71.61925025666376</v>
@@ -4770,16 +4770,16 @@
         <v>2649.611064606095</v>
       </c>
       <c r="D82" t="n">
-        <v>2185.560425956405</v>
+        <v>2189.180907333881</v>
       </c>
       <c r="E82" t="n">
-        <v>2729.987634955719</v>
+        <v>2746.281035630696</v>
       </c>
       <c r="F82" t="n">
-        <v>2649.547219560094</v>
+        <v>2649.547998866223</v>
       </c>
       <c r="G82" t="n">
-        <v>2649.677042776816</v>
+        <v>2649.68058548303</v>
       </c>
       <c r="H82" t="n">
         <v>-184.7128909301155</v>

--- a/outputs/fs_bus_monthly.xlsx
+++ b/outputs/fs_bus_monthly.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q82"/>
+  <dimension ref="A1:Q83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -527,37 +527,37 @@
         <v>42736</v>
       </c>
       <c r="C2" t="n">
-        <v>2969.693354930564</v>
+        <v>3002.766831880756</v>
       </c>
       <c r="D2" t="n">
-        <v>2860.215405083584</v>
+        <v>3049.253184812477</v>
       </c>
       <c r="E2" t="n">
-        <v>3447.646980112967</v>
+        <v>3687.705232183688</v>
       </c>
       <c r="F2" t="n">
-        <v>2969.693354930564</v>
+        <v>3002.766831880756</v>
       </c>
       <c r="G2" t="n">
-        <v>2969.693354930564</v>
+        <v>3002.766831880756</v>
       </c>
       <c r="H2" t="n">
-        <v>190.7069648569037</v>
+        <v>370.1886899879732</v>
       </c>
       <c r="I2" t="n">
-        <v>190.7069648569037</v>
+        <v>370.1886899879732</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7069648569037</v>
+        <v>370.1886899879732</v>
       </c>
       <c r="K2" t="n">
-        <v>190.7069648569037</v>
+        <v>370.1886899879732</v>
       </c>
       <c r="L2" t="n">
-        <v>190.7069648569037</v>
+        <v>370.1886899879732</v>
       </c>
       <c r="M2" t="n">
-        <v>190.7069648569037</v>
+        <v>370.1886899879732</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -569,7 +569,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>3160.400319787467</v>
+        <v>3372.955521868729</v>
       </c>
     </row>
     <row r="3">
@@ -580,37 +580,37 @@
         <v>42767</v>
       </c>
       <c r="C3" t="n">
-        <v>2965.641856075486</v>
+        <v>2998.079278254243</v>
       </c>
       <c r="D3" t="n">
-        <v>2531.410485811209</v>
+        <v>2589.359668467968</v>
       </c>
       <c r="E3" t="n">
-        <v>3090.767852602954</v>
+        <v>3215.618272783615</v>
       </c>
       <c r="F3" t="n">
-        <v>2965.641856075486</v>
+        <v>2998.079278254243</v>
       </c>
       <c r="G3" t="n">
-        <v>2965.641856075486</v>
+        <v>2998.079278254243</v>
       </c>
       <c r="H3" t="n">
-        <v>-154.9684574291213</v>
+        <v>-90.49359400107153</v>
       </c>
       <c r="I3" t="n">
-        <v>-154.9684574291213</v>
+        <v>-90.49359400107153</v>
       </c>
       <c r="J3" t="n">
-        <v>-154.9684574291213</v>
+        <v>-90.49359400107153</v>
       </c>
       <c r="K3" t="n">
-        <v>-154.9684574291213</v>
+        <v>-90.49359400107153</v>
       </c>
       <c r="L3" t="n">
-        <v>-154.9684574291213</v>
+        <v>-90.49359400107153</v>
       </c>
       <c r="M3" t="n">
-        <v>-154.9684574291213</v>
+        <v>-90.49359400107153</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -622,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>2810.673398646365</v>
+        <v>2907.585684253172</v>
       </c>
     </row>
     <row r="4">
@@ -633,37 +633,37 @@
         <v>42795</v>
       </c>
       <c r="C4" t="n">
-        <v>2961.98243775477</v>
+        <v>2993.845358849651</v>
       </c>
       <c r="D4" t="n">
-        <v>3038.157610594283</v>
+        <v>2893.451487847012</v>
       </c>
       <c r="E4" t="n">
-        <v>3592.380559965613</v>
+        <v>3523.628698663123</v>
       </c>
       <c r="F4" t="n">
-        <v>2961.98243775477</v>
+        <v>2993.845358849651</v>
       </c>
       <c r="G4" t="n">
-        <v>2961.98243775477</v>
+        <v>2993.845358849651</v>
       </c>
       <c r="H4" t="n">
-        <v>359.7334197316973</v>
+        <v>217.2932060049534</v>
       </c>
       <c r="I4" t="n">
-        <v>359.7334197316973</v>
+        <v>217.2932060049534</v>
       </c>
       <c r="J4" t="n">
-        <v>359.7334197316973</v>
+        <v>217.2932060049534</v>
       </c>
       <c r="K4" t="n">
-        <v>359.7334197316973</v>
+        <v>217.2932060049534</v>
       </c>
       <c r="L4" t="n">
-        <v>359.7334197316973</v>
+        <v>217.2932060049534</v>
       </c>
       <c r="M4" t="n">
-        <v>359.7334197316973</v>
+        <v>217.2932060049534</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -675,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3321.715857486467</v>
+        <v>3211.138564854604</v>
       </c>
     </row>
     <row r="5">
@@ -686,37 +686,37 @@
         <v>42826</v>
       </c>
       <c r="C5" t="n">
-        <v>2957.930938859583</v>
+        <v>2989.157805224204</v>
       </c>
       <c r="D5" t="n">
-        <v>2432.508219575987</v>
+        <v>2300.48210070711</v>
       </c>
       <c r="E5" t="n">
-        <v>2992.132088615828</v>
+        <v>2928.550109313295</v>
       </c>
       <c r="F5" t="n">
-        <v>2957.930938859583</v>
+        <v>2989.157805224204</v>
       </c>
       <c r="G5" t="n">
-        <v>2957.930938859583</v>
+        <v>2989.157805224204</v>
       </c>
       <c r="H5" t="n">
-        <v>-236.2752416137848</v>
+        <v>-360.9846094206139</v>
       </c>
       <c r="I5" t="n">
-        <v>-236.2752416137848</v>
+        <v>-360.9846094206139</v>
       </c>
       <c r="J5" t="n">
-        <v>-236.2752416137848</v>
+        <v>-360.9846094206139</v>
       </c>
       <c r="K5" t="n">
-        <v>-236.2752416137848</v>
+        <v>-360.9846094206139</v>
       </c>
       <c r="L5" t="n">
-        <v>-236.2752416137848</v>
+        <v>-360.9846094206139</v>
       </c>
       <c r="M5" t="n">
-        <v>-236.2752416137848</v>
+        <v>-360.9846094206139</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -728,7 +728,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>2721.655697245798</v>
+        <v>2628.173195803591</v>
       </c>
     </row>
     <row r="6">
@@ -739,37 +739,37 @@
         <v>42856</v>
       </c>
       <c r="C6" t="n">
-        <v>2954.010133477143</v>
+        <v>2984.62146300603</v>
       </c>
       <c r="D6" t="n">
-        <v>2462.285528633519</v>
+        <v>2552.844618036914</v>
       </c>
       <c r="E6" t="n">
-        <v>3002.761932206451</v>
+        <v>3204.402397524923</v>
       </c>
       <c r="F6" t="n">
-        <v>2954.010133477143</v>
+        <v>2984.62146300603</v>
       </c>
       <c r="G6" t="n">
-        <v>2954.010133477143</v>
+        <v>2984.62146300603</v>
       </c>
       <c r="H6" t="n">
-        <v>-210.6485474147405</v>
+        <v>-118.2711079717398</v>
       </c>
       <c r="I6" t="n">
-        <v>-210.6485474147405</v>
+        <v>-118.2711079717398</v>
       </c>
       <c r="J6" t="n">
-        <v>-210.6485474147405</v>
+        <v>-118.2711079717398</v>
       </c>
       <c r="K6" t="n">
-        <v>-210.6485474147405</v>
+        <v>-118.2711079717398</v>
       </c>
       <c r="L6" t="n">
-        <v>-210.6485474147405</v>
+        <v>-118.2711079717398</v>
       </c>
       <c r="M6" t="n">
-        <v>-210.6485474147405</v>
+        <v>-118.2711079717398</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>2743.361586062402</v>
+        <v>2866.350355034291</v>
       </c>
     </row>
     <row r="7">
@@ -792,37 +792,37 @@
         <v>42887</v>
       </c>
       <c r="C7" t="n">
-        <v>2949.958634451503</v>
+        <v>2979.933909379943</v>
       </c>
       <c r="D7" t="n">
-        <v>2652.385401765774</v>
+        <v>2563.10330676526</v>
       </c>
       <c r="E7" t="n">
-        <v>3260.348536874859</v>
+        <v>3227.785310783166</v>
       </c>
       <c r="F7" t="n">
-        <v>2949.958634451503</v>
+        <v>2979.933909379943</v>
       </c>
       <c r="G7" t="n">
-        <v>2949.958634451503</v>
+        <v>2979.933909379943</v>
       </c>
       <c r="H7" t="n">
-        <v>2.893080698954639</v>
+        <v>-68.55542179188041</v>
       </c>
       <c r="I7" t="n">
-        <v>2.893080698954639</v>
+        <v>-68.55542179188041</v>
       </c>
       <c r="J7" t="n">
-        <v>2.893080698954639</v>
+        <v>-68.55542179188041</v>
       </c>
       <c r="K7" t="n">
-        <v>2.893080698954639</v>
+        <v>-68.55542179188041</v>
       </c>
       <c r="L7" t="n">
-        <v>2.893080698954639</v>
+        <v>-68.55542179188041</v>
       </c>
       <c r="M7" t="n">
-        <v>2.893080698954639</v>
+        <v>-68.55542179188041</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -834,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>2952.851715150457</v>
+        <v>2911.378487588062</v>
       </c>
     </row>
     <row r="8">
@@ -845,37 +845,37 @@
         <v>42917</v>
       </c>
       <c r="C8" t="n">
-        <v>2946.037829078093</v>
+        <v>2975.397567161147</v>
       </c>
       <c r="D8" t="n">
-        <v>2572.482441255841</v>
+        <v>2634.298988978767</v>
       </c>
       <c r="E8" t="n">
-        <v>3163.825610524008</v>
+        <v>3247.227694347878</v>
       </c>
       <c r="F8" t="n">
-        <v>2946.037829078093</v>
+        <v>2975.397567161147</v>
       </c>
       <c r="G8" t="n">
-        <v>2946.037829078093</v>
+        <v>2975.397567161147</v>
       </c>
       <c r="H8" t="n">
-        <v>-69.8736137362972</v>
+        <v>-32.70888285404025</v>
       </c>
       <c r="I8" t="n">
-        <v>-69.8736137362972</v>
+        <v>-32.70888285404025</v>
       </c>
       <c r="J8" t="n">
-        <v>-69.8736137362972</v>
+        <v>-32.70888285404025</v>
       </c>
       <c r="K8" t="n">
-        <v>-69.8736137362972</v>
+        <v>-32.70888285404025</v>
       </c>
       <c r="L8" t="n">
-        <v>-69.8736137362972</v>
+        <v>-32.70888285404025</v>
       </c>
       <c r="M8" t="n">
-        <v>-69.8736137362972</v>
+        <v>-32.70888285404025</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -887,7 +887,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>2876.164215341796</v>
+        <v>2942.688684307107</v>
       </c>
     </row>
     <row r="9">
@@ -898,37 +898,37 @@
         <v>42948</v>
       </c>
       <c r="C9" t="n">
-        <v>2941.986330192236</v>
+        <v>2970.71001352619</v>
       </c>
       <c r="D9" t="n">
-        <v>2855.162210182185</v>
+        <v>2900.818250550829</v>
       </c>
       <c r="E9" t="n">
-        <v>3407.763331617348</v>
+        <v>3539.370531576209</v>
       </c>
       <c r="F9" t="n">
-        <v>2941.986330192236</v>
+        <v>2970.71001352619</v>
       </c>
       <c r="G9" t="n">
-        <v>2941.986330192236</v>
+        <v>2970.71001352619</v>
       </c>
       <c r="H9" t="n">
-        <v>177.5433613050773</v>
+        <v>247.4410670104881</v>
       </c>
       <c r="I9" t="n">
-        <v>177.5433613050773</v>
+        <v>247.4410670104881</v>
       </c>
       <c r="J9" t="n">
-        <v>177.5433613050773</v>
+        <v>247.4410670104881</v>
       </c>
       <c r="K9" t="n">
-        <v>177.5433613050773</v>
+        <v>247.4410670104881</v>
       </c>
       <c r="L9" t="n">
-        <v>177.5433613050773</v>
+        <v>247.4410670104881</v>
       </c>
       <c r="M9" t="n">
-        <v>177.5433613050773</v>
+        <v>247.4410670104881</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -940,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>3119.529691497313</v>
+        <v>3218.151080536678</v>
       </c>
     </row>
     <row r="10">
@@ -951,37 +951,37 @@
         <v>42979</v>
       </c>
       <c r="C10" t="n">
-        <v>2937.93483146309</v>
+        <v>2966.022459891232</v>
       </c>
       <c r="D10" t="n">
-        <v>2595.528348911635</v>
+        <v>2673.228947528448</v>
       </c>
       <c r="E10" t="n">
-        <v>3132.940041772941</v>
+        <v>3307.377666576205</v>
       </c>
       <c r="F10" t="n">
-        <v>2937.93483146309</v>
+        <v>2966.022459891232</v>
       </c>
       <c r="G10" t="n">
-        <v>2937.93483146309</v>
+        <v>2966.022459891232</v>
       </c>
       <c r="H10" t="n">
-        <v>-70.21615565628197</v>
+        <v>34.35427786720975</v>
       </c>
       <c r="I10" t="n">
-        <v>-70.21615565628197</v>
+        <v>34.35427786720975</v>
       </c>
       <c r="J10" t="n">
-        <v>-70.21615565628197</v>
+        <v>34.35427786720975</v>
       </c>
       <c r="K10" t="n">
-        <v>-70.21615565628197</v>
+        <v>34.35427786720975</v>
       </c>
       <c r="L10" t="n">
-        <v>-70.21615565628197</v>
+        <v>34.35427786720975</v>
       </c>
       <c r="M10" t="n">
-        <v>-70.21615565628197</v>
+        <v>34.35427786720975</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>2867.718675806808</v>
+        <v>3000.376737758442</v>
       </c>
     </row>
     <row r="11">
@@ -1004,37 +1004,37 @@
         <v>43009</v>
       </c>
       <c r="C11" t="n">
-        <v>2934.014026241336</v>
+        <v>2961.48442196189</v>
       </c>
       <c r="D11" t="n">
-        <v>2735.193823286401</v>
+        <v>2790.830830856524</v>
       </c>
       <c r="E11" t="n">
-        <v>3308.974748151127</v>
+        <v>3425.999086423235</v>
       </c>
       <c r="F11" t="n">
-        <v>2934.014026241336</v>
+        <v>2961.48442196189</v>
       </c>
       <c r="G11" t="n">
-        <v>2934.014026241336</v>
+        <v>2961.48442196189</v>
       </c>
       <c r="H11" t="n">
-        <v>64.73607292819015</v>
+        <v>147.2222439272481</v>
       </c>
       <c r="I11" t="n">
-        <v>64.73607292819015</v>
+        <v>147.2222439272481</v>
       </c>
       <c r="J11" t="n">
-        <v>64.73607292819015</v>
+        <v>147.2222439272481</v>
       </c>
       <c r="K11" t="n">
-        <v>64.73607292819015</v>
+        <v>147.2222439272481</v>
       </c>
       <c r="L11" t="n">
-        <v>64.73607292819015</v>
+        <v>147.2222439272481</v>
       </c>
       <c r="M11" t="n">
-        <v>64.73607292819015</v>
+        <v>147.2222439272481</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -1046,7 +1046,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>2998.750099169526</v>
+        <v>3108.706665889138</v>
       </c>
     </row>
     <row r="12">
@@ -1057,37 +1057,37 @@
         <v>43040</v>
       </c>
       <c r="C12" t="n">
-        <v>2929.962527663065</v>
+        <v>2956.79511610157</v>
       </c>
       <c r="D12" t="n">
-        <v>2810.908351483964</v>
+        <v>2835.77742335491</v>
       </c>
       <c r="E12" t="n">
-        <v>3373.63066314392</v>
+        <v>3468.043657981537</v>
       </c>
       <c r="F12" t="n">
-        <v>2929.962527663065</v>
+        <v>2956.79511610157</v>
       </c>
       <c r="G12" t="n">
-        <v>2929.962527663065</v>
+        <v>2956.79511610157</v>
       </c>
       <c r="H12" t="n">
-        <v>147.1284490057132</v>
+        <v>201.598619412301</v>
       </c>
       <c r="I12" t="n">
-        <v>147.1284490057132</v>
+        <v>201.598619412301</v>
       </c>
       <c r="J12" t="n">
-        <v>147.1284490057132</v>
+        <v>201.598619412301</v>
       </c>
       <c r="K12" t="n">
-        <v>147.1284490057132</v>
+        <v>201.598619412301</v>
       </c>
       <c r="L12" t="n">
-        <v>147.1284490057132</v>
+        <v>201.598619412301</v>
       </c>
       <c r="M12" t="n">
-        <v>147.1284490057132</v>
+        <v>201.598619412301</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>3077.090976668778</v>
+        <v>3158.393735513871</v>
       </c>
     </row>
     <row r="13">
@@ -1110,37 +1110,37 @@
         <v>43070</v>
       </c>
       <c r="C13" t="n">
-        <v>2926.041722587319</v>
+        <v>2952.238136523686</v>
       </c>
       <c r="D13" t="n">
-        <v>2751.702677169368</v>
+        <v>2828.188526639899</v>
       </c>
       <c r="E13" t="n">
-        <v>3305.463653984056</v>
+        <v>3438.205388713474</v>
       </c>
       <c r="F13" t="n">
-        <v>2926.041722587319</v>
+        <v>2952.238136523686</v>
       </c>
       <c r="G13" t="n">
-        <v>2926.041722587319</v>
+        <v>2952.238136523686</v>
       </c>
       <c r="H13" t="n">
-        <v>97.08844967831884</v>
+        <v>191.0317219160831</v>
       </c>
       <c r="I13" t="n">
-        <v>97.08844967831884</v>
+        <v>191.0317219160831</v>
       </c>
       <c r="J13" t="n">
-        <v>97.08844967831884</v>
+        <v>191.0317219160831</v>
       </c>
       <c r="K13" t="n">
-        <v>97.08844967831884</v>
+        <v>191.0317219160831</v>
       </c>
       <c r="L13" t="n">
-        <v>97.08844967831884</v>
+        <v>191.0317219160831</v>
       </c>
       <c r="M13" t="n">
-        <v>97.08844967831884</v>
+        <v>191.0317219160831</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -1152,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>3023.130172265638</v>
+        <v>3143.269858439769</v>
       </c>
     </row>
     <row r="14">
@@ -1163,37 +1163,37 @@
         <v>43101</v>
       </c>
       <c r="C14" t="n">
-        <v>2921.990224043238</v>
+        <v>2947.529257626539</v>
       </c>
       <c r="D14" t="n">
-        <v>2920.624049942903</v>
+        <v>3025.195195160671</v>
       </c>
       <c r="E14" t="n">
-        <v>3487.916024458571</v>
+        <v>3656.466333105274</v>
       </c>
       <c r="F14" t="n">
-        <v>2921.990224043238</v>
+        <v>2947.529257626539</v>
       </c>
       <c r="G14" t="n">
-        <v>2921.990224043238</v>
+        <v>2947.529257626539</v>
       </c>
       <c r="H14" t="n">
-        <v>288.5659493515063</v>
+        <v>400.7142102533305</v>
       </c>
       <c r="I14" t="n">
-        <v>288.5659493515063</v>
+        <v>400.7142102533305</v>
       </c>
       <c r="J14" t="n">
-        <v>288.5659493515063</v>
+        <v>400.7142102533305</v>
       </c>
       <c r="K14" t="n">
-        <v>288.5659493515063</v>
+        <v>400.7142102533305</v>
       </c>
       <c r="L14" t="n">
-        <v>288.5659493515063</v>
+        <v>400.7142102533305</v>
       </c>
       <c r="M14" t="n">
-        <v>288.5659493515063</v>
+        <v>400.7142102533305</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -1205,7 +1205,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>3210.556173394745</v>
+        <v>3348.24346787987</v>
       </c>
     </row>
     <row r="15">
@@ -1216,37 +1216,37 @@
         <v>43132</v>
       </c>
       <c r="C15" t="n">
-        <v>2917.938725519621</v>
+        <v>2942.792981515172</v>
       </c>
       <c r="D15" t="n">
-        <v>2470.982256927635</v>
+        <v>2474.043330932516</v>
       </c>
       <c r="E15" t="n">
-        <v>3041.29316777116</v>
+        <v>3145.5801769055</v>
       </c>
       <c r="F15" t="n">
-        <v>2917.938725519621</v>
+        <v>2942.792981515172</v>
       </c>
       <c r="G15" t="n">
-        <v>2917.938725519621</v>
+        <v>2942.792981515172</v>
       </c>
       <c r="H15" t="n">
-        <v>-164.1279663089658</v>
+        <v>-144.7771254472756</v>
       </c>
       <c r="I15" t="n">
-        <v>-164.1279663089658</v>
+        <v>-144.7771254472756</v>
       </c>
       <c r="J15" t="n">
-        <v>-164.1279663089658</v>
+        <v>-144.7771254472756</v>
       </c>
       <c r="K15" t="n">
-        <v>-164.1279663089658</v>
+        <v>-144.7771254472756</v>
       </c>
       <c r="L15" t="n">
-        <v>-164.1279663089658</v>
+        <v>-144.7771254472756</v>
       </c>
       <c r="M15" t="n">
-        <v>-164.1279663089658</v>
+        <v>-144.7771254472756</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -1258,7 +1258,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>2753.810759210655</v>
+        <v>2798.015856067896</v>
       </c>
     </row>
     <row r="16">
@@ -1269,37 +1269,37 @@
         <v>43160</v>
       </c>
       <c r="C16" t="n">
-        <v>2914.279307498289</v>
+        <v>2938.515054704904</v>
       </c>
       <c r="D16" t="n">
-        <v>2845.198714194221</v>
+        <v>2760.796509403259</v>
       </c>
       <c r="E16" t="n">
-        <v>3420.056526949696</v>
+        <v>3416.199131636921</v>
       </c>
       <c r="F16" t="n">
-        <v>2914.279307498289</v>
+        <v>2938.515054704904</v>
       </c>
       <c r="G16" t="n">
-        <v>2914.279307498289</v>
+        <v>2938.515054704904</v>
       </c>
       <c r="H16" t="n">
-        <v>228.3071141392178</v>
+        <v>164.0450072901414</v>
       </c>
       <c r="I16" t="n">
-        <v>228.3071141392178</v>
+        <v>164.0450072901414</v>
       </c>
       <c r="J16" t="n">
-        <v>228.3071141392178</v>
+        <v>164.0450072901414</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3071141392178</v>
+        <v>164.0450072901414</v>
       </c>
       <c r="L16" t="n">
-        <v>228.3071141392178</v>
+        <v>164.0450072901414</v>
       </c>
       <c r="M16" t="n">
-        <v>228.3071141392178</v>
+        <v>164.0450072901414</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>3142.586421637507</v>
+        <v>3102.560061995045</v>
       </c>
     </row>
     <row r="17">
@@ -1322,37 +1322,37 @@
         <v>43191</v>
       </c>
       <c r="C17" t="n">
-        <v>2910.227809121394</v>
+        <v>2933.757295249867</v>
       </c>
       <c r="D17" t="n">
-        <v>2570.864001522659</v>
+        <v>2471.95341241853</v>
       </c>
       <c r="E17" t="n">
-        <v>3139.755444585917</v>
+        <v>3127.724122902731</v>
       </c>
       <c r="F17" t="n">
-        <v>2910.227809121394</v>
+        <v>2933.757295249867</v>
       </c>
       <c r="G17" t="n">
-        <v>2910.227809121394</v>
+        <v>2933.757295249867</v>
       </c>
       <c r="H17" t="n">
-        <v>-73.52842208771206</v>
+        <v>-135.6807821839752</v>
       </c>
       <c r="I17" t="n">
-        <v>-73.52842208771206</v>
+        <v>-135.6807821839752</v>
       </c>
       <c r="J17" t="n">
-        <v>-73.52842208771206</v>
+        <v>-135.6807821839752</v>
       </c>
       <c r="K17" t="n">
-        <v>-73.52842208771206</v>
+        <v>-135.6807821839752</v>
       </c>
       <c r="L17" t="n">
-        <v>-73.52842208771206</v>
+        <v>-135.6807821839752</v>
       </c>
       <c r="M17" t="n">
-        <v>-73.52842208771206</v>
+        <v>-135.6807821839752</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -1364,7 +1364,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>2836.699387033682</v>
+        <v>2798.076513065892</v>
       </c>
     </row>
     <row r="18">
@@ -1375,37 +1375,37 @@
         <v>43221</v>
       </c>
       <c r="C18" t="n">
-        <v>2906.307004240528</v>
+        <v>2929.153011906283</v>
       </c>
       <c r="D18" t="n">
-        <v>2468.831664632788</v>
+        <v>2494.797395344032</v>
       </c>
       <c r="E18" t="n">
-        <v>3040.792343588778</v>
+        <v>3158.997291213809</v>
       </c>
       <c r="F18" t="n">
-        <v>2906.307004240528</v>
+        <v>2929.153011906283</v>
       </c>
       <c r="G18" t="n">
-        <v>2906.307004240528</v>
+        <v>2929.153011906283</v>
       </c>
       <c r="H18" t="n">
-        <v>-159.5618155731304</v>
+        <v>-100.6165020036996</v>
       </c>
       <c r="I18" t="n">
-        <v>-159.5618155731304</v>
+        <v>-100.6165020036996</v>
       </c>
       <c r="J18" t="n">
-        <v>-159.5618155731304</v>
+        <v>-100.6165020036996</v>
       </c>
       <c r="K18" t="n">
-        <v>-159.5618155731304</v>
+        <v>-100.6165020036996</v>
       </c>
       <c r="L18" t="n">
-        <v>-159.5618155731304</v>
+        <v>-100.6165020036996</v>
       </c>
       <c r="M18" t="n">
-        <v>-159.5618155731304</v>
+        <v>-100.6165020036996</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>2746.745188667398</v>
+        <v>2828.536509902583</v>
       </c>
     </row>
     <row r="19">
@@ -1428,37 +1428,37 @@
         <v>43252</v>
       </c>
       <c r="C19" t="n">
-        <v>2902.255505726534</v>
+        <v>2924.361354752808</v>
       </c>
       <c r="D19" t="n">
-        <v>2395.306144246584</v>
+        <v>2320.325346887802</v>
       </c>
       <c r="E19" t="n">
-        <v>2965.487083540379</v>
+        <v>2944.192169586981</v>
       </c>
       <c r="F19" t="n">
-        <v>2902.255505726534</v>
+        <v>2924.361354752808</v>
       </c>
       <c r="G19" t="n">
-        <v>2902.255505726534</v>
+        <v>2924.361354752808</v>
       </c>
       <c r="H19" t="n">
-        <v>-214.7945265471749</v>
+        <v>-296.3781655460569</v>
       </c>
       <c r="I19" t="n">
-        <v>-214.7945265471749</v>
+        <v>-296.3781655460569</v>
       </c>
       <c r="J19" t="n">
-        <v>-214.7945265471749</v>
+        <v>-296.3781655460569</v>
       </c>
       <c r="K19" t="n">
-        <v>-214.7945265471749</v>
+        <v>-296.3781655460569</v>
       </c>
       <c r="L19" t="n">
-        <v>-214.7945265471749</v>
+        <v>-296.3781655460569</v>
       </c>
       <c r="M19" t="n">
-        <v>-214.7945265471749</v>
+        <v>-296.3781655460569</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>2687.460979179359</v>
+        <v>2627.983189206751</v>
       </c>
     </row>
     <row r="20">
@@ -1481,37 +1481,37 @@
         <v>43282</v>
       </c>
       <c r="C20" t="n">
-        <v>2898.334700712991</v>
+        <v>2919.72426718493</v>
       </c>
       <c r="D20" t="n">
-        <v>2729.041868958077</v>
+        <v>2660.413587489099</v>
       </c>
       <c r="E20" t="n">
-        <v>3299.289303387831</v>
+        <v>3292.680998396348</v>
       </c>
       <c r="F20" t="n">
-        <v>2898.334700712991</v>
+        <v>2919.72426718493</v>
       </c>
       <c r="G20" t="n">
-        <v>2898.334700712991</v>
+        <v>2919.72426718493</v>
       </c>
       <c r="H20" t="n">
-        <v>129.424320336818</v>
+        <v>65.38396280241871</v>
       </c>
       <c r="I20" t="n">
-        <v>129.424320336818</v>
+        <v>65.38396280241871</v>
       </c>
       <c r="J20" t="n">
-        <v>129.424320336818</v>
+        <v>65.38396280241871</v>
       </c>
       <c r="K20" t="n">
-        <v>129.424320336818</v>
+        <v>65.38396280241871</v>
       </c>
       <c r="L20" t="n">
-        <v>129.424320336818</v>
+        <v>65.38396280241871</v>
       </c>
       <c r="M20" t="n">
-        <v>129.424320336818</v>
+        <v>65.38396280241871</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -1523,7 +1523,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>3027.759021049808</v>
+        <v>2985.108229987349</v>
       </c>
     </row>
     <row r="21">
@@ -1534,37 +1534,37 @@
         <v>43313</v>
       </c>
       <c r="C21" t="n">
-        <v>2894.283202231662</v>
+        <v>2914.93115681177</v>
       </c>
       <c r="D21" t="n">
-        <v>2658.696300994632</v>
+        <v>2796.431507875739</v>
       </c>
       <c r="E21" t="n">
-        <v>3229.303268697461</v>
+        <v>3415.445316252906</v>
       </c>
       <c r="F21" t="n">
-        <v>2894.283202231662</v>
+        <v>2914.93115681177</v>
       </c>
       <c r="G21" t="n">
-        <v>2894.283202231662</v>
+        <v>2914.93115681177</v>
       </c>
       <c r="H21" t="n">
-        <v>53.93606379513359</v>
+        <v>169.6887539732253</v>
       </c>
       <c r="I21" t="n">
-        <v>53.93606379513359</v>
+        <v>169.6887539732253</v>
       </c>
       <c r="J21" t="n">
-        <v>53.93606379513359</v>
+        <v>169.6887539732253</v>
       </c>
       <c r="K21" t="n">
-        <v>53.93606379513359</v>
+        <v>169.6887539732253</v>
       </c>
       <c r="L21" t="n">
-        <v>53.93606379513359</v>
+        <v>169.6887539732253</v>
       </c>
       <c r="M21" t="n">
-        <v>53.93606379513359</v>
+        <v>169.6887539732253</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>2948.219266026795</v>
+        <v>3084.619910784995</v>
       </c>
     </row>
     <row r="22">
@@ -1587,37 +1587,37 @@
         <v>43344</v>
       </c>
       <c r="C22" t="n">
-        <v>2890.231703719072</v>
+        <v>2910.138046438608</v>
       </c>
       <c r="D22" t="n">
-        <v>2496.854944191331</v>
+        <v>2587.672260831554</v>
       </c>
       <c r="E22" t="n">
-        <v>3051.735031895349</v>
+        <v>3227.1443892077</v>
       </c>
       <c r="F22" t="n">
-        <v>2890.231703719072</v>
+        <v>2910.138046438608</v>
       </c>
       <c r="G22" t="n">
-        <v>2890.231703719072</v>
+        <v>2910.138046438608</v>
       </c>
       <c r="H22" t="n">
-        <v>-129.2536414606584</v>
+        <v>-6.31287301389471</v>
       </c>
       <c r="I22" t="n">
-        <v>-129.2536414606584</v>
+        <v>-6.31287301389471</v>
       </c>
       <c r="J22" t="n">
-        <v>-129.2536414606584</v>
+        <v>-6.31287301389471</v>
       </c>
       <c r="K22" t="n">
-        <v>-129.2536414606584</v>
+        <v>-6.31287301389471</v>
       </c>
       <c r="L22" t="n">
-        <v>-129.2536414606584</v>
+        <v>-6.31287301389471</v>
       </c>
       <c r="M22" t="n">
-        <v>-129.2536414606584</v>
+        <v>-6.31287301389471</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -1629,7 +1629,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>2760.978062258414</v>
+        <v>2903.825173424714</v>
       </c>
     </row>
     <row r="23">
@@ -1640,37 +1640,37 @@
         <v>43374</v>
       </c>
       <c r="C23" t="n">
-        <v>2886.310898706889</v>
+        <v>2905.481823425189</v>
       </c>
       <c r="D23" t="n">
-        <v>2882.355678149416</v>
+        <v>2977.050205017786</v>
       </c>
       <c r="E23" t="n">
-        <v>3462.788827709061</v>
+        <v>3618.092958527528</v>
       </c>
       <c r="F23" t="n">
-        <v>2886.310898706889</v>
+        <v>2905.481823425189</v>
       </c>
       <c r="G23" t="n">
-        <v>2886.310898706889</v>
+        <v>2905.481823425189</v>
       </c>
       <c r="H23" t="n">
-        <v>271.636467076816</v>
+        <v>402.325367067229</v>
       </c>
       <c r="I23" t="n">
-        <v>271.636467076816</v>
+        <v>402.325367067229</v>
       </c>
       <c r="J23" t="n">
-        <v>271.636467076816</v>
+        <v>402.325367067229</v>
       </c>
       <c r="K23" t="n">
-        <v>271.636467076816</v>
+        <v>402.325367067229</v>
       </c>
       <c r="L23" t="n">
-        <v>271.636467076816</v>
+        <v>402.325367067229</v>
       </c>
       <c r="M23" t="n">
-        <v>271.636467076816</v>
+        <v>402.325367067229</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -1682,7 +1682,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>3157.947365783705</v>
+        <v>3307.807190492418</v>
       </c>
     </row>
     <row r="24">
@@ -1693,37 +1693,37 @@
         <v>43405</v>
       </c>
       <c r="C24" t="n">
-        <v>2882.24741925849</v>
+        <v>2900.670392977989</v>
       </c>
       <c r="D24" t="n">
-        <v>2643.977798764719</v>
+        <v>2703.28191163408</v>
       </c>
       <c r="E24" t="n">
-        <v>3209.291016306576</v>
+        <v>3325.991966264317</v>
       </c>
       <c r="F24" t="n">
-        <v>2882.24741925849</v>
+        <v>2900.670392977989</v>
       </c>
       <c r="G24" t="n">
-        <v>2882.24741925849</v>
+        <v>2900.670392977989</v>
       </c>
       <c r="H24" t="n">
-        <v>29.52995797296046</v>
+        <v>102.432243894892</v>
       </c>
       <c r="I24" t="n">
-        <v>29.52995797296046</v>
+        <v>102.432243894892</v>
       </c>
       <c r="J24" t="n">
-        <v>29.52995797296046</v>
+        <v>102.432243894892</v>
       </c>
       <c r="K24" t="n">
-        <v>29.52995797296046</v>
+        <v>102.432243894892</v>
       </c>
       <c r="L24" t="n">
-        <v>29.52995797296046</v>
+        <v>102.432243894892</v>
       </c>
       <c r="M24" t="n">
-        <v>29.52995797296046</v>
+        <v>102.432243894892</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -1735,7 +1735,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>2911.77737723145</v>
+        <v>3003.102636872881</v>
       </c>
     </row>
     <row r="25">
@@ -1746,37 +1746,37 @@
         <v>43435</v>
       </c>
       <c r="C25" t="n">
-        <v>2878.315019792297</v>
+        <v>2895.980953768953</v>
       </c>
       <c r="D25" t="n">
-        <v>2656.047931855952</v>
+        <v>2687.052874022015</v>
       </c>
       <c r="E25" t="n">
-        <v>3204.007157428984</v>
+        <v>3326.375828225145</v>
       </c>
       <c r="F25" t="n">
-        <v>2878.315019792297</v>
+        <v>2895.980953768953</v>
       </c>
       <c r="G25" t="n">
-        <v>2878.315019792297</v>
+        <v>2895.980953768953</v>
       </c>
       <c r="H25" t="n">
-        <v>48.98207932570351</v>
+        <v>117.6957684795023</v>
       </c>
       <c r="I25" t="n">
-        <v>48.98207932570351</v>
+        <v>117.6957684795023</v>
       </c>
       <c r="J25" t="n">
-        <v>48.98207932570351</v>
+        <v>117.6957684795023</v>
       </c>
       <c r="K25" t="n">
-        <v>48.98207932570351</v>
+        <v>117.6957684795023</v>
       </c>
       <c r="L25" t="n">
-        <v>48.98207932570351</v>
+        <v>117.6957684795023</v>
       </c>
       <c r="M25" t="n">
-        <v>48.98207932570351</v>
+        <v>117.6957684795023</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>2927.297099118</v>
+        <v>3013.676722248455</v>
       </c>
     </row>
     <row r="26">
@@ -1799,37 +1799,37 @@
         <v>43466</v>
       </c>
       <c r="C26" t="n">
-        <v>2874.251540095401</v>
+        <v>2891.135199919615</v>
       </c>
       <c r="D26" t="n">
-        <v>2974.106405433567</v>
+        <v>3014.86560898763</v>
       </c>
       <c r="E26" t="n">
-        <v>3542.79508259872</v>
+        <v>3633.86463216202</v>
       </c>
       <c r="F26" t="n">
-        <v>2874.251540095401</v>
+        <v>2891.135199919615</v>
       </c>
       <c r="G26" t="n">
-        <v>2874.251540095401</v>
+        <v>2891.135199919615</v>
       </c>
       <c r="H26" t="n">
-        <v>386.7010935524054</v>
+        <v>431.4474137761153</v>
       </c>
       <c r="I26" t="n">
-        <v>386.7010935524054</v>
+        <v>431.4474137761153</v>
       </c>
       <c r="J26" t="n">
-        <v>386.7010935524054</v>
+        <v>431.4474137761153</v>
       </c>
       <c r="K26" t="n">
-        <v>386.7010935524054</v>
+        <v>431.4474137761153</v>
       </c>
       <c r="L26" t="n">
-        <v>386.7010935524054</v>
+        <v>431.4474137761153</v>
       </c>
       <c r="M26" t="n">
-        <v>386.7010935524054</v>
+        <v>431.4474137761153</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -1841,7 +1841,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>3260.952633647807</v>
+        <v>3322.58261369573</v>
       </c>
     </row>
     <row r="27">
@@ -1852,37 +1852,37 @@
         <v>43497</v>
       </c>
       <c r="C27" t="n">
-        <v>2870.188060398506</v>
+        <v>2886.27596991365</v>
       </c>
       <c r="D27" t="n">
-        <v>2425.310872534445</v>
+        <v>2344.042673631991</v>
       </c>
       <c r="E27" t="n">
-        <v>2982.322059342962</v>
+        <v>3005.494326444737</v>
       </c>
       <c r="F27" t="n">
-        <v>2870.188060398506</v>
+        <v>2886.27596991365</v>
       </c>
       <c r="G27" t="n">
-        <v>2870.188060398506</v>
+        <v>2886.27596991365</v>
       </c>
       <c r="H27" t="n">
-        <v>-175.3897639683218</v>
+        <v>-198.9693132558232</v>
       </c>
       <c r="I27" t="n">
-        <v>-175.3897639683218</v>
+        <v>-198.9693132558232</v>
       </c>
       <c r="J27" t="n">
-        <v>-175.3897639683218</v>
+        <v>-198.9693132558232</v>
       </c>
       <c r="K27" t="n">
-        <v>-175.3897639683218</v>
+        <v>-198.9693132558232</v>
       </c>
       <c r="L27" t="n">
-        <v>-175.3897639683218</v>
+        <v>-198.9693132558232</v>
       </c>
       <c r="M27" t="n">
-        <v>-175.3897639683218</v>
+        <v>-198.9693132558232</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>2694.798296430184</v>
+        <v>2687.306656657827</v>
       </c>
     </row>
     <row r="28">
@@ -1905,37 +1905,37 @@
         <v>43525</v>
       </c>
       <c r="C28" t="n">
-        <v>2866.517820446164</v>
+        <v>2881.886987972779</v>
       </c>
       <c r="D28" t="n">
-        <v>2682.14569765239</v>
+        <v>2673.59814643842</v>
       </c>
       <c r="E28" t="n">
-        <v>3265.460169364045</v>
+        <v>3304.702166291002</v>
       </c>
       <c r="F28" t="n">
-        <v>2866.517820446164</v>
+        <v>2881.886987972779</v>
       </c>
       <c r="G28" t="n">
-        <v>2866.517820446164</v>
+        <v>2881.886987972779</v>
       </c>
       <c r="H28" t="n">
-        <v>99.26549435910195</v>
+        <v>114.4744018953851</v>
       </c>
       <c r="I28" t="n">
-        <v>99.26549435910195</v>
+        <v>114.4744018953851</v>
       </c>
       <c r="J28" t="n">
-        <v>99.26549435910195</v>
+        <v>114.4744018953851</v>
       </c>
       <c r="K28" t="n">
-        <v>99.26549435910195</v>
+        <v>114.4744018953851</v>
       </c>
       <c r="L28" t="n">
-        <v>99.26549435910195</v>
+        <v>114.4744018953851</v>
       </c>
       <c r="M28" t="n">
-        <v>99.26549435910195</v>
+        <v>114.4744018953851</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -1947,7 +1947,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>2965.783314805266</v>
+        <v>2996.361389868164</v>
       </c>
     </row>
     <row r="29">
@@ -1958,37 +1958,37 @@
         <v>43556</v>
       </c>
       <c r="C29" t="n">
-        <v>2862.454340268677</v>
+        <v>2877.027757966813</v>
       </c>
       <c r="D29" t="n">
-        <v>2690.291694704738</v>
+        <v>2638.192268688193</v>
       </c>
       <c r="E29" t="n">
-        <v>3233.052279346571</v>
+        <v>3258.821950067508</v>
       </c>
       <c r="F29" t="n">
-        <v>2862.454340268677</v>
+        <v>2877.027757966813</v>
       </c>
       <c r="G29" t="n">
-        <v>2862.454340268677</v>
+        <v>2877.027757966813</v>
       </c>
       <c r="H29" t="n">
-        <v>91.24298719043897</v>
+        <v>90.09951348375327</v>
       </c>
       <c r="I29" t="n">
-        <v>91.24298719043897</v>
+        <v>90.09951348375327</v>
       </c>
       <c r="J29" t="n">
-        <v>91.24298719043897</v>
+        <v>90.09951348375327</v>
       </c>
       <c r="K29" t="n">
-        <v>91.24298719043897</v>
+        <v>90.09951348375327</v>
       </c>
       <c r="L29" t="n">
-        <v>91.24298719043897</v>
+        <v>90.09951348375327</v>
       </c>
       <c r="M29" t="n">
-        <v>91.24298719043897</v>
+        <v>90.09951348375327</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -2000,7 +2000,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>2953.697327459116</v>
+        <v>2967.127271450566</v>
       </c>
     </row>
     <row r="30">
@@ -2011,37 +2011,37 @@
         <v>43586</v>
       </c>
       <c r="C30" t="n">
-        <v>2858.521940096914</v>
+        <v>2872.283670838925</v>
       </c>
       <c r="D30" t="n">
-        <v>2444.432083345344</v>
+        <v>2466.056050037193</v>
       </c>
       <c r="E30" t="n">
-        <v>3010.554489961217</v>
+        <v>3116.092307453082</v>
       </c>
       <c r="F30" t="n">
-        <v>2858.521940096914</v>
+        <v>2872.283670838925</v>
       </c>
       <c r="G30" t="n">
-        <v>2858.521940096914</v>
+        <v>2872.283670838925</v>
       </c>
       <c r="H30" t="n">
-        <v>-112.6137248216116</v>
+        <v>-89.0007925039541</v>
       </c>
       <c r="I30" t="n">
-        <v>-112.6137248216116</v>
+        <v>-89.0007925039541</v>
       </c>
       <c r="J30" t="n">
-        <v>-112.6137248216116</v>
+        <v>-89.0007925039541</v>
       </c>
       <c r="K30" t="n">
-        <v>-112.6137248216116</v>
+        <v>-89.0007925039541</v>
       </c>
       <c r="L30" t="n">
-        <v>-112.6137248216116</v>
+        <v>-89.0007925039541</v>
       </c>
       <c r="M30" t="n">
-        <v>-112.6137248216116</v>
+        <v>-89.0007925039541</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -2053,7 +2053,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>2745.908215275303</v>
+        <v>2783.282878334971</v>
       </c>
     </row>
     <row r="31">
@@ -2064,37 +2064,37 @@
         <v>43617</v>
       </c>
       <c r="C31" t="n">
-        <v>2854.458459880556</v>
+        <v>2867.38144747344</v>
       </c>
       <c r="D31" t="n">
-        <v>2124.7249790844</v>
+        <v>2017.702267136564</v>
       </c>
       <c r="E31" t="n">
-        <v>2710.216071651855</v>
+        <v>2648.887846672811</v>
       </c>
       <c r="F31" t="n">
-        <v>2854.458459880556</v>
+        <v>2867.38144747344</v>
       </c>
       <c r="G31" t="n">
-        <v>2854.458459880556</v>
+        <v>2867.38144747344</v>
       </c>
       <c r="H31" t="n">
-        <v>-431.6580117081967</v>
+        <v>-524.5385525921562</v>
       </c>
       <c r="I31" t="n">
-        <v>-431.6580117081967</v>
+        <v>-524.5385525921562</v>
       </c>
       <c r="J31" t="n">
-        <v>-431.6580117081967</v>
+        <v>-524.5385525921562</v>
       </c>
       <c r="K31" t="n">
-        <v>-431.6580117081967</v>
+        <v>-524.5385525921562</v>
       </c>
       <c r="L31" t="n">
-        <v>-431.6580117081967</v>
+        <v>-524.5385525921562</v>
       </c>
       <c r="M31" t="n">
-        <v>-431.6580117081967</v>
+        <v>-524.5385525921562</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>2422.800448172359</v>
+        <v>2342.842894881284</v>
       </c>
     </row>
     <row r="32">
@@ -2117,37 +2117,37 @@
         <v>43647</v>
       </c>
       <c r="C32" t="n">
-        <v>2850.526059671176</v>
+        <v>2862.618081893838</v>
       </c>
       <c r="D32" t="n">
-        <v>2914.000413369417</v>
+        <v>2720.88379783559</v>
       </c>
       <c r="E32" t="n">
-        <v>3476.416338608828</v>
+        <v>3343.148821126721</v>
       </c>
       <c r="F32" t="n">
-        <v>2850.526059671176</v>
+        <v>2862.618081893838</v>
       </c>
       <c r="G32" t="n">
-        <v>2850.526059671176</v>
+        <v>2862.618081893838</v>
       </c>
       <c r="H32" t="n">
-        <v>329.4046538286536</v>
+        <v>165.4213706446986</v>
       </c>
       <c r="I32" t="n">
-        <v>329.4046538286536</v>
+        <v>165.4213706446986</v>
       </c>
       <c r="J32" t="n">
-        <v>329.4046538286536</v>
+        <v>165.4213706446986</v>
       </c>
       <c r="K32" t="n">
-        <v>329.4046538286536</v>
+        <v>165.4213706446986</v>
       </c>
       <c r="L32" t="n">
-        <v>329.4046538286536</v>
+        <v>165.4213706446986</v>
       </c>
       <c r="M32" t="n">
-        <v>329.4046538286536</v>
+        <v>165.4213706446986</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -2159,7 +2159,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>3179.93071349983</v>
+        <v>3028.039452538537</v>
       </c>
     </row>
     <row r="33">
@@ -2170,37 +2170,37 @@
         <v>43678</v>
       </c>
       <c r="C33" t="n">
-        <v>2846.453073979019</v>
+        <v>2857.695937461584</v>
       </c>
       <c r="D33" t="n">
-        <v>2506.089183508537</v>
+        <v>2610.987147911867</v>
       </c>
       <c r="E33" t="n">
-        <v>3036.144777107093</v>
+        <v>3272.019713289384</v>
       </c>
       <c r="F33" t="n">
-        <v>2846.453073979019</v>
+        <v>2857.695937461584</v>
       </c>
       <c r="G33" t="n">
-        <v>2846.453073979019</v>
+        <v>2857.695937461584</v>
       </c>
       <c r="H33" t="n">
-        <v>-71.61925025706557</v>
+        <v>92.18623320692016</v>
       </c>
       <c r="I33" t="n">
-        <v>-71.61925025706557</v>
+        <v>92.18623320692016</v>
       </c>
       <c r="J33" t="n">
-        <v>-71.61925025706557</v>
+        <v>92.18623320692016</v>
       </c>
       <c r="K33" t="n">
-        <v>-71.61925025706557</v>
+        <v>92.18623320692016</v>
       </c>
       <c r="L33" t="n">
-        <v>-71.61925025706557</v>
+        <v>92.18623320692016</v>
       </c>
       <c r="M33" t="n">
-        <v>-71.61925025706557</v>
+        <v>92.18623320692016</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -2212,7 +2212,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>2774.833823721954</v>
+        <v>2949.882170668503</v>
       </c>
     </row>
     <row r="34">
@@ -2223,37 +2223,37 @@
         <v>43709</v>
       </c>
       <c r="C34" t="n">
-        <v>2842.380088286863</v>
+        <v>2852.737939148793</v>
       </c>
       <c r="D34" t="n">
-        <v>2366.105160862349</v>
+        <v>2475.728409137458</v>
       </c>
       <c r="E34" t="n">
-        <v>2915.912400741848</v>
+        <v>3104.851758380867</v>
       </c>
       <c r="F34" t="n">
-        <v>2842.380088286863</v>
+        <v>2852.737939148793</v>
       </c>
       <c r="G34" t="n">
-        <v>2842.380088286863</v>
+        <v>2852.737939148793</v>
       </c>
       <c r="H34" t="n">
-        <v>-184.7128909310298</v>
+        <v>-42.71307409731043</v>
       </c>
       <c r="I34" t="n">
-        <v>-184.7128909310298</v>
+        <v>-42.71307409731043</v>
       </c>
       <c r="J34" t="n">
-        <v>-184.7128909310298</v>
+        <v>-42.71307409731043</v>
       </c>
       <c r="K34" t="n">
-        <v>-184.7128909310298</v>
+        <v>-42.71307409731043</v>
       </c>
       <c r="L34" t="n">
-        <v>-184.7128909310298</v>
+        <v>-42.71307409731043</v>
       </c>
       <c r="M34" t="n">
-        <v>-184.7128909310298</v>
+        <v>-42.71307409731043</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -2265,7 +2265,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>2657.667197355833</v>
+        <v>2810.024865051483</v>
       </c>
     </row>
     <row r="35">
@@ -2276,37 +2276,37 @@
         <v>43739</v>
       </c>
       <c r="C35" t="n">
-        <v>2838.426804986083</v>
+        <v>2847.939876265449</v>
       </c>
       <c r="D35" t="n">
-        <v>3035.146792213177</v>
+        <v>3175.881109916618</v>
       </c>
       <c r="E35" t="n">
-        <v>3594.175305772436</v>
+        <v>3845.894671248339</v>
       </c>
       <c r="F35" t="n">
-        <v>2838.426804986083</v>
+        <v>2847.939876265449</v>
       </c>
       <c r="G35" t="n">
-        <v>2838.426804986083</v>
+        <v>2847.939876265449</v>
       </c>
       <c r="H35" t="n">
-        <v>477.5702168880538</v>
+        <v>656.0287705168172</v>
       </c>
       <c r="I35" t="n">
-        <v>477.5702168880538</v>
+        <v>656.0287705168172</v>
       </c>
       <c r="J35" t="n">
-        <v>477.5702168880538</v>
+        <v>656.0287705168172</v>
       </c>
       <c r="K35" t="n">
-        <v>477.5702168880538</v>
+        <v>656.0287705168172</v>
       </c>
       <c r="L35" t="n">
-        <v>477.5702168880538</v>
+        <v>656.0287705168172</v>
       </c>
       <c r="M35" t="n">
-        <v>477.5702168880538</v>
+        <v>656.0287705168172</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -2318,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>3315.997021874137</v>
+        <v>3503.968646782266</v>
       </c>
     </row>
     <row r="36">
@@ -2329,37 +2329,37 @@
         <v>43770</v>
       </c>
       <c r="C36" t="n">
-        <v>2834.336457373356</v>
+        <v>2842.95867150322</v>
       </c>
       <c r="D36" t="n">
-        <v>2457.859945134402</v>
+        <v>2531.978066068797</v>
       </c>
       <c r="E36" t="n">
-        <v>3022.586206061842</v>
+        <v>3160.974399001071</v>
       </c>
       <c r="F36" t="n">
-        <v>2834.336457373356</v>
+        <v>2842.95867150322</v>
       </c>
       <c r="G36" t="n">
-        <v>2834.336457373356</v>
+        <v>2842.95867150322</v>
       </c>
       <c r="H36" t="n">
-        <v>-91.03053523182503</v>
+        <v>-1.312984850012128</v>
       </c>
       <c r="I36" t="n">
-        <v>-91.03053523182503</v>
+        <v>-1.312984850012128</v>
       </c>
       <c r="J36" t="n">
-        <v>-91.03053523182503</v>
+        <v>-1.312984850012128</v>
       </c>
       <c r="K36" t="n">
-        <v>-91.03053523182503</v>
+        <v>-1.312984850012128</v>
       </c>
       <c r="L36" t="n">
-        <v>-91.03053523182503</v>
+        <v>-1.312984850012128</v>
       </c>
       <c r="M36" t="n">
-        <v>-91.03053523182503</v>
+        <v>-1.312984850012128</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>2743.305922141531</v>
+        <v>2841.645686653208</v>
       </c>
     </row>
     <row r="37">
@@ -2382,37 +2382,37 @@
         <v>43800</v>
       </c>
       <c r="C37" t="n">
-        <v>2830.378056457813</v>
+        <v>2838.138150765579</v>
       </c>
       <c r="D37" t="n">
-        <v>2543.935269358471</v>
+        <v>2570.838310299614</v>
       </c>
       <c r="E37" t="n">
-        <v>3114.922394964526</v>
+        <v>3217.238793254357</v>
       </c>
       <c r="F37" t="n">
-        <v>2830.378056457813</v>
+        <v>2838.138150765579</v>
       </c>
       <c r="G37" t="n">
-        <v>2830.378056457813</v>
+        <v>2838.138150765579</v>
       </c>
       <c r="H37" t="n">
-        <v>2.95672092558393</v>
+        <v>44.86610962591639</v>
       </c>
       <c r="I37" t="n">
-        <v>2.95672092558393</v>
+        <v>44.86610962591639</v>
       </c>
       <c r="J37" t="n">
-        <v>2.95672092558393</v>
+        <v>44.86610962591639</v>
       </c>
       <c r="K37" t="n">
-        <v>2.95672092558393</v>
+        <v>44.86610962591639</v>
       </c>
       <c r="L37" t="n">
-        <v>2.95672092558393</v>
+        <v>44.86610962591639</v>
       </c>
       <c r="M37" t="n">
-        <v>2.95672092558393</v>
+        <v>44.86610962591639</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -2424,7 +2424,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>2833.334777383397</v>
+        <v>2883.004260391496</v>
       </c>
     </row>
     <row r="38">
@@ -2435,37 +2435,37 @@
         <v>43831</v>
       </c>
       <c r="C38" t="n">
-        <v>2826.287708789474</v>
+        <v>2833.153419009707</v>
       </c>
       <c r="D38" t="n">
-        <v>3011.500921115484</v>
+        <v>2990.691587652983</v>
       </c>
       <c r="E38" t="n">
-        <v>3568.618165761165</v>
+        <v>3623.888709839382</v>
       </c>
       <c r="F38" t="n">
-        <v>2826.287708789474</v>
+        <v>2833.153419009707</v>
       </c>
       <c r="G38" t="n">
-        <v>2826.287708789474</v>
+        <v>2833.153419009707</v>
       </c>
       <c r="H38" t="n">
-        <v>485.0240457857536</v>
+        <v>462.402982014717</v>
       </c>
       <c r="I38" t="n">
-        <v>485.0240457857536</v>
+        <v>462.402982014717</v>
       </c>
       <c r="J38" t="n">
-        <v>485.0240457857536</v>
+        <v>462.402982014717</v>
       </c>
       <c r="K38" t="n">
-        <v>485.0240457857536</v>
+        <v>462.402982014717</v>
       </c>
       <c r="L38" t="n">
-        <v>485.0240457857536</v>
+        <v>462.402982014717</v>
       </c>
       <c r="M38" t="n">
-        <v>485.0240457857536</v>
+        <v>462.402982014717</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -2477,7 +2477,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>3311.311754575228</v>
+        <v>3295.556401024424</v>
       </c>
     </row>
     <row r="39">
@@ -2488,37 +2488,37 @@
         <v>43862</v>
       </c>
       <c r="C39" t="n">
-        <v>2822.197361121135</v>
+        <v>2828.168687253835</v>
       </c>
       <c r="D39" t="n">
-        <v>2350.192138652422</v>
+        <v>2255.951230609598</v>
       </c>
       <c r="E39" t="n">
-        <v>2910.396431603609</v>
+        <v>2901.602275975643</v>
       </c>
       <c r="F39" t="n">
-        <v>2822.197361121135</v>
+        <v>2828.168687253835</v>
       </c>
       <c r="G39" t="n">
-        <v>2822.197361121135</v>
+        <v>2828.168687253835</v>
       </c>
       <c r="H39" t="n">
-        <v>-188.734629551087</v>
+        <v>-252.9907645251102</v>
       </c>
       <c r="I39" t="n">
-        <v>-188.734629551087</v>
+        <v>-252.9907645251102</v>
       </c>
       <c r="J39" t="n">
-        <v>-188.734629551087</v>
+        <v>-252.9907645251102</v>
       </c>
       <c r="K39" t="n">
-        <v>-188.734629551087</v>
+        <v>-252.9907645251102</v>
       </c>
       <c r="L39" t="n">
-        <v>-188.734629551087</v>
+        <v>-252.9907645251102</v>
       </c>
       <c r="M39" t="n">
-        <v>-188.734629551087</v>
+        <v>-252.9907645251102</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>2633.462731570048</v>
+        <v>2575.177922728725</v>
       </c>
     </row>
     <row r="40">
@@ -2541,37 +2541,37 @@
         <v>43891</v>
       </c>
       <c r="C40" t="n">
-        <v>2818.370906773474</v>
+        <v>2823.50555109763</v>
       </c>
       <c r="D40" t="n">
-        <v>3027.830132433049</v>
+        <v>2784.129272851629</v>
       </c>
       <c r="E40" t="n">
-        <v>3590.43740053851</v>
+        <v>3400.457918892111</v>
       </c>
       <c r="F40" t="n">
-        <v>2818.370906773474</v>
+        <v>2823.50555109763</v>
       </c>
       <c r="G40" t="n">
-        <v>2818.370906773474</v>
+        <v>2823.50555109763</v>
       </c>
       <c r="H40" t="n">
-        <v>493.4340094876456</v>
+        <v>274.2179556848583</v>
       </c>
       <c r="I40" t="n">
-        <v>493.4340094876456</v>
+        <v>274.2179556848583</v>
       </c>
       <c r="J40" t="n">
-        <v>493.4340094876456</v>
+        <v>274.2179556848583</v>
       </c>
       <c r="K40" t="n">
-        <v>493.4340094876456</v>
+        <v>274.2179556848583</v>
       </c>
       <c r="L40" t="n">
-        <v>493.4340094876456</v>
+        <v>274.2179556848583</v>
       </c>
       <c r="M40" t="n">
-        <v>493.4340094876456</v>
+        <v>274.2179556848583</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -2583,7 +2583,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>3311.80491626112</v>
+        <v>3097.723506782489</v>
       </c>
     </row>
     <row r="41">
@@ -2594,37 +2594,37 @@
         <v>43922</v>
       </c>
       <c r="C41" t="n">
-        <v>2814.280559022526</v>
+        <v>2818.520819344445</v>
       </c>
       <c r="D41" t="n">
-        <v>2133.50528499102</v>
+        <v>1903.372796089237</v>
       </c>
       <c r="E41" t="n">
-        <v>2705.036501133745</v>
+        <v>2556.686635238739</v>
       </c>
       <c r="F41" t="n">
-        <v>2814.280559022526</v>
+        <v>2818.520819344445</v>
       </c>
       <c r="G41" t="n">
-        <v>2814.280559022526</v>
+        <v>2818.520819344445</v>
       </c>
       <c r="H41" t="n">
-        <v>-396.8337679205696</v>
+        <v>-585.5535082401137</v>
       </c>
       <c r="I41" t="n">
-        <v>-396.8337679205696</v>
+        <v>-585.5535082401137</v>
       </c>
       <c r="J41" t="n">
-        <v>-396.8337679205696</v>
+        <v>-585.5535082401137</v>
       </c>
       <c r="K41" t="n">
-        <v>-396.8337679205696</v>
+        <v>-585.5535082401137</v>
       </c>
       <c r="L41" t="n">
-        <v>-396.8337679205696</v>
+        <v>-585.5535082401137</v>
       </c>
       <c r="M41" t="n">
-        <v>-396.8337679205696</v>
+        <v>-585.5535082401137</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -2636,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>2417.446791101956</v>
+        <v>2232.967311104332</v>
       </c>
     </row>
     <row r="42">
@@ -2647,37 +2647,37 @@
         <v>43952</v>
       </c>
       <c r="C42" t="n">
-        <v>2810.322157973222</v>
+        <v>2813.696885395178</v>
       </c>
       <c r="D42" t="n">
-        <v>2261.059879940581</v>
+        <v>2358.896042323866</v>
       </c>
       <c r="E42" t="n">
-        <v>2848.44661882518</v>
+        <v>3000.565590776428</v>
       </c>
       <c r="F42" t="n">
-        <v>2810.322157973222</v>
+        <v>2813.696885395178</v>
       </c>
       <c r="G42" t="n">
-        <v>2810.322157973222</v>
+        <v>2813.696885395178</v>
       </c>
       <c r="H42" t="n">
-        <v>-265.8289056713824</v>
+        <v>-141.9473170486197</v>
       </c>
       <c r="I42" t="n">
-        <v>-265.8289056713824</v>
+        <v>-141.9473170486197</v>
       </c>
       <c r="J42" t="n">
-        <v>-265.8289056713824</v>
+        <v>-141.9473170486197</v>
       </c>
       <c r="K42" t="n">
-        <v>-265.8289056713824</v>
+        <v>-141.9473170486197</v>
       </c>
       <c r="L42" t="n">
-        <v>-265.8289056713824</v>
+        <v>-141.9473170486197</v>
       </c>
       <c r="M42" t="n">
-        <v>-265.8289056713824</v>
+        <v>-141.9473170486197</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -2689,7 +2689,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>2544.493252301839</v>
+        <v>2671.749568346558</v>
       </c>
     </row>
     <row r="43">
@@ -2700,37 +2700,37 @@
         <v>43983</v>
       </c>
       <c r="C43" t="n">
-        <v>2806.231810222273</v>
+        <v>2808.712153647602</v>
       </c>
       <c r="D43" t="n">
-        <v>2724.188645952363</v>
+        <v>2654.281078678348</v>
       </c>
       <c r="E43" t="n">
-        <v>3328.259575029682</v>
+        <v>3268.069319909237</v>
       </c>
       <c r="F43" t="n">
-        <v>2806.231810222273</v>
+        <v>2808.712153647602</v>
       </c>
       <c r="G43" t="n">
-        <v>2806.231810222273</v>
+        <v>2808.712153647602</v>
       </c>
       <c r="H43" t="n">
-        <v>221.2181971310499</v>
+        <v>158.6910282159252</v>
       </c>
       <c r="I43" t="n">
-        <v>221.2181971310499</v>
+        <v>158.6910282159252</v>
       </c>
       <c r="J43" t="n">
-        <v>221.2181971310499</v>
+        <v>158.6910282159252</v>
       </c>
       <c r="K43" t="n">
-        <v>221.2181971310499</v>
+        <v>158.6910282159252</v>
       </c>
       <c r="L43" t="n">
-        <v>221.2181971310499</v>
+        <v>158.6910282159252</v>
       </c>
       <c r="M43" t="n">
-        <v>221.2181971310499</v>
+        <v>158.6910282159252</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -2742,7 +2742,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>3027.450007353324</v>
+        <v>2967.403181863527</v>
       </c>
     </row>
     <row r="44">
@@ -2753,37 +2753,37 @@
         <v>44013</v>
       </c>
       <c r="C44" t="n">
-        <v>2802.273409172969</v>
+        <v>2803.888219688401</v>
       </c>
       <c r="D44" t="n">
-        <v>2239.906086204379</v>
+        <v>2349.782102605218</v>
       </c>
       <c r="E44" t="n">
-        <v>2803.06810802995</v>
+        <v>2967.934252709103</v>
       </c>
       <c r="F44" t="n">
-        <v>2802.273409172969</v>
+        <v>2803.888219688401</v>
       </c>
       <c r="G44" t="n">
-        <v>2802.273409172969</v>
+        <v>2803.888219688401</v>
       </c>
       <c r="H44" t="n">
-        <v>-268.3497282705186</v>
+        <v>-128.8308166258442</v>
       </c>
       <c r="I44" t="n">
-        <v>-268.3497282705186</v>
+        <v>-128.8308166258442</v>
       </c>
       <c r="J44" t="n">
-        <v>-268.3497282705186</v>
+        <v>-128.8308166258442</v>
       </c>
       <c r="K44" t="n">
-        <v>-268.3497282705186</v>
+        <v>-128.8308166258442</v>
       </c>
       <c r="L44" t="n">
-        <v>-268.3497282705186</v>
+        <v>-128.8308166258442</v>
       </c>
       <c r="M44" t="n">
-        <v>-268.3497282705186</v>
+        <v>-128.8308166258442</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -2795,7 +2795,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>2533.923680902451</v>
+        <v>2675.057403062557</v>
       </c>
     </row>
     <row r="45">
@@ -2806,37 +2806,37 @@
         <v>44044</v>
       </c>
       <c r="C45" t="n">
-        <v>2798.183061422021</v>
+        <v>2798.903487930561</v>
       </c>
       <c r="D45" t="n">
-        <v>2798.836267555681</v>
+        <v>2807.932184478912</v>
       </c>
       <c r="E45" t="n">
-        <v>3359.739017896902</v>
+        <v>3451.199443517516</v>
       </c>
       <c r="F45" t="n">
-        <v>2798.183061422021</v>
+        <v>2798.903487930561</v>
       </c>
       <c r="G45" t="n">
-        <v>2798.183061422021</v>
+        <v>2798.903487930561</v>
       </c>
       <c r="H45" t="n">
-        <v>299.0966903173245</v>
+        <v>325.3680059262517</v>
       </c>
       <c r="I45" t="n">
-        <v>299.0966903173245</v>
+        <v>325.3680059262517</v>
       </c>
       <c r="J45" t="n">
-        <v>299.0966903173245</v>
+        <v>325.3680059262517</v>
       </c>
       <c r="K45" t="n">
-        <v>299.0966903173245</v>
+        <v>325.3680059262517</v>
       </c>
       <c r="L45" t="n">
-        <v>299.0966903173245</v>
+        <v>325.3680059262517</v>
       </c>
       <c r="M45" t="n">
-        <v>299.0966903173245</v>
+        <v>325.3680059262517</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>3097.279751739346</v>
+        <v>3124.271493856812</v>
       </c>
     </row>
     <row r="46">
@@ -2859,37 +2859,37 @@
         <v>44075</v>
       </c>
       <c r="C46" t="n">
-        <v>2794.092713671073</v>
+        <v>2793.918756161909</v>
       </c>
       <c r="D46" t="n">
-        <v>2487.278121610461</v>
+        <v>2557.597632533591</v>
       </c>
       <c r="E46" t="n">
-        <v>3060.318393931734</v>
+        <v>3199.81262128452</v>
       </c>
       <c r="F46" t="n">
-        <v>2794.092713671073</v>
+        <v>2793.918756161909</v>
       </c>
       <c r="G46" t="n">
-        <v>2794.092713671073</v>
+        <v>2793.918756161909</v>
       </c>
       <c r="H46" t="n">
-        <v>-7.645953320065795</v>
+        <v>79.2925631059793</v>
       </c>
       <c r="I46" t="n">
-        <v>-7.645953320065795</v>
+        <v>79.2925631059793</v>
       </c>
       <c r="J46" t="n">
-        <v>-7.645953320065795</v>
+        <v>79.2925631059793</v>
       </c>
       <c r="K46" t="n">
-        <v>-7.645953320065795</v>
+        <v>79.2925631059793</v>
       </c>
       <c r="L46" t="n">
-        <v>-7.645953320065795</v>
+        <v>79.2925631059793</v>
       </c>
       <c r="M46" t="n">
-        <v>-7.645953320065795</v>
+        <v>79.2925631059793</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -2901,7 +2901,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>2786.446760351007</v>
+        <v>2873.211319267888</v>
       </c>
     </row>
     <row r="47">
@@ -2912,37 +2912,37 @@
         <v>44105</v>
       </c>
       <c r="C47" t="n">
-        <v>2790.134312621769</v>
+        <v>2789.094822192246</v>
       </c>
       <c r="D47" t="n">
-        <v>2366.011057685964</v>
+        <v>2353.340064921099</v>
       </c>
       <c r="E47" t="n">
-        <v>2915.383601684071</v>
+        <v>3014.73089545977</v>
       </c>
       <c r="F47" t="n">
-        <v>2790.134312621769</v>
+        <v>2789.094822192246</v>
       </c>
       <c r="G47" t="n">
-        <v>2790.134312621769</v>
+        <v>2789.094822192246</v>
       </c>
       <c r="H47" t="n">
-        <v>-142.9356736495217</v>
+        <v>-109.0126625934123</v>
       </c>
       <c r="I47" t="n">
-        <v>-142.9356736495217</v>
+        <v>-109.0126625934123</v>
       </c>
       <c r="J47" t="n">
-        <v>-142.9356736495217</v>
+        <v>-109.0126625934123</v>
       </c>
       <c r="K47" t="n">
-        <v>-142.9356736495217</v>
+        <v>-109.0126625934123</v>
       </c>
       <c r="L47" t="n">
-        <v>-142.9356736495217</v>
+        <v>-109.0126625934123</v>
       </c>
       <c r="M47" t="n">
-        <v>-142.9356736495217</v>
+        <v>-109.0126625934123</v>
       </c>
       <c r="N47" t="n">
         <v>0</v>
@@ -2954,7 +2954,7 @@
         <v>0</v>
       </c>
       <c r="Q47" t="n">
-        <v>2647.198638972247</v>
+        <v>2680.082159598834</v>
       </c>
     </row>
     <row r="48">
@@ -2965,37 +2965,37 @@
         <v>44136</v>
       </c>
       <c r="C48" t="n">
-        <v>2786.043964870821</v>
+        <v>2784.110090412608</v>
       </c>
       <c r="D48" t="n">
-        <v>2768.798183435028</v>
+        <v>2749.675595298283</v>
       </c>
       <c r="E48" t="n">
-        <v>3328.03297976354</v>
+        <v>3410.998704722498</v>
       </c>
       <c r="F48" t="n">
-        <v>2786.043964870821</v>
+        <v>2784.110090412608</v>
       </c>
       <c r="G48" t="n">
-        <v>2786.043964870821</v>
+        <v>2784.110090412608</v>
       </c>
       <c r="H48" t="n">
-        <v>261.6742232678012</v>
+        <v>296.1262970607257</v>
       </c>
       <c r="I48" t="n">
-        <v>261.6742232678012</v>
+        <v>296.1262970607257</v>
       </c>
       <c r="J48" t="n">
-        <v>261.6742232678012</v>
+        <v>296.1262970607257</v>
       </c>
       <c r="K48" t="n">
-        <v>261.6742232678012</v>
+        <v>296.1262970607257</v>
       </c>
       <c r="L48" t="n">
-        <v>261.6742232678012</v>
+        <v>296.1262970607257</v>
       </c>
       <c r="M48" t="n">
-        <v>261.6742232678012</v>
+        <v>296.1262970607257</v>
       </c>
       <c r="N48" t="n">
         <v>0</v>
@@ -3007,7 +3007,7 @@
         <v>0</v>
       </c>
       <c r="Q48" t="n">
-        <v>3047.718188138622</v>
+        <v>3080.236387473334</v>
       </c>
     </row>
     <row r="49">
@@ -3018,37 +3018,37 @@
         <v>44166</v>
       </c>
       <c r="C49" t="n">
-        <v>2782.085563775444</v>
+        <v>2779.286156432314</v>
       </c>
       <c r="D49" t="n">
-        <v>2636.465532773478</v>
+        <v>2749.023273183351</v>
       </c>
       <c r="E49" t="n">
-        <v>3215.739017887095</v>
+        <v>3352.548617256948</v>
       </c>
       <c r="F49" t="n">
-        <v>2782.085563775444</v>
+        <v>2779.286156432314</v>
       </c>
       <c r="G49" t="n">
-        <v>2782.085563775444</v>
+        <v>2779.286156432314</v>
       </c>
       <c r="H49" t="n">
-        <v>147.2187539456075</v>
+        <v>264.7669495557945</v>
       </c>
       <c r="I49" t="n">
-        <v>147.2187539456075</v>
+        <v>264.7669495557945</v>
       </c>
       <c r="J49" t="n">
-        <v>147.2187539456075</v>
+        <v>264.7669495557945</v>
       </c>
       <c r="K49" t="n">
-        <v>147.2187539456075</v>
+        <v>264.7669495557945</v>
       </c>
       <c r="L49" t="n">
-        <v>147.2187539456075</v>
+        <v>264.7669495557945</v>
       </c>
       <c r="M49" t="n">
-        <v>147.2187539456075</v>
+        <v>264.7669495557945</v>
       </c>
       <c r="N49" t="n">
         <v>0</v>
@@ -3060,7 +3060,7 @@
         <v>0</v>
       </c>
       <c r="Q49" t="n">
-        <v>2929.304317721052</v>
+        <v>3044.053105988109</v>
       </c>
     </row>
     <row r="50">
@@ -3071,37 +3071,37 @@
         <v>44197</v>
       </c>
       <c r="C50" t="n">
-        <v>2777.995215815352</v>
+        <v>2774.301424661817</v>
       </c>
       <c r="D50" t="n">
-        <v>2700.193459032908</v>
+        <v>2822.367366903858</v>
       </c>
       <c r="E50" t="n">
-        <v>3260.45834173408</v>
+        <v>3459.483175016831</v>
       </c>
       <c r="F50" t="n">
-        <v>2777.995215815352</v>
+        <v>2774.301424661817</v>
       </c>
       <c r="G50" t="n">
-        <v>2777.995215815352</v>
+        <v>2774.301424661817</v>
       </c>
       <c r="H50" t="n">
-        <v>190.7069648551676</v>
+        <v>370.188689986068</v>
       </c>
       <c r="I50" t="n">
-        <v>190.7069648551676</v>
+        <v>370.188689986068</v>
       </c>
       <c r="J50" t="n">
-        <v>190.7069648551676</v>
+        <v>370.188689986068</v>
       </c>
       <c r="K50" t="n">
-        <v>190.7069648551676</v>
+        <v>370.188689986068</v>
       </c>
       <c r="L50" t="n">
-        <v>190.7069648551676</v>
+        <v>370.188689986068</v>
       </c>
       <c r="M50" t="n">
-        <v>190.7069648551676</v>
+        <v>370.188689986068</v>
       </c>
       <c r="N50" t="n">
         <v>0</v>
@@ -3113,7 +3113,7 @@
         <v>0</v>
       </c>
       <c r="Q50" t="n">
-        <v>2968.70218067052</v>
+        <v>3144.490114647885</v>
       </c>
     </row>
     <row r="51">
@@ -3124,37 +3124,37 @@
         <v>44228</v>
       </c>
       <c r="C51" t="n">
-        <v>2773.90486785526</v>
+        <v>2769.316692891319</v>
       </c>
       <c r="D51" t="n">
-        <v>2325.418152452987</v>
+        <v>2384.245409516837</v>
       </c>
       <c r="E51" t="n">
-        <v>2893.542238142017</v>
+        <v>3029.609647254817</v>
       </c>
       <c r="F51" t="n">
-        <v>2773.90486785526</v>
+        <v>2769.316692891319</v>
       </c>
       <c r="G51" t="n">
-        <v>2773.90486785526</v>
+        <v>2769.316692891319</v>
       </c>
       <c r="H51" t="n">
-        <v>-154.968457429286</v>
+        <v>-90.49359400120289</v>
       </c>
       <c r="I51" t="n">
-        <v>-154.968457429286</v>
+        <v>-90.49359400120289</v>
       </c>
       <c r="J51" t="n">
-        <v>-154.968457429286</v>
+        <v>-90.49359400120289</v>
       </c>
       <c r="K51" t="n">
-        <v>-154.968457429286</v>
+        <v>-90.49359400120289</v>
       </c>
       <c r="L51" t="n">
-        <v>-154.968457429286</v>
+        <v>-90.49359400120289</v>
       </c>
       <c r="M51" t="n">
-        <v>-154.968457429286</v>
+        <v>-90.49359400120289</v>
       </c>
       <c r="N51" t="n">
         <v>0</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="Q51" t="n">
-        <v>2618.936410425974</v>
+        <v>2678.823098890116</v>
       </c>
     </row>
     <row r="52">
@@ -3177,37 +3177,37 @@
         <v>44256</v>
       </c>
       <c r="C52" t="n">
-        <v>2770.210360039426</v>
+        <v>2764.814354511041</v>
       </c>
       <c r="D52" t="n">
-        <v>2818.836090820058</v>
+        <v>2677.379842066931</v>
       </c>
       <c r="E52" t="n">
-        <v>3402.868626607757</v>
+        <v>3312.023359173268</v>
       </c>
       <c r="F52" t="n">
-        <v>2770.210360039426</v>
+        <v>2764.814354511041</v>
       </c>
       <c r="G52" t="n">
-        <v>2770.210360039426</v>
+        <v>2764.814354511041</v>
       </c>
       <c r="H52" t="n">
-        <v>359.7334197322894</v>
+        <v>217.2932060052911</v>
       </c>
       <c r="I52" t="n">
-        <v>359.7334197322894</v>
+        <v>217.2932060052911</v>
       </c>
       <c r="J52" t="n">
-        <v>359.7334197322894</v>
+        <v>217.2932060052911</v>
       </c>
       <c r="K52" t="n">
-        <v>359.7334197322894</v>
+        <v>217.2932060052911</v>
       </c>
       <c r="L52" t="n">
-        <v>359.7334197322894</v>
+        <v>217.2932060052911</v>
       </c>
       <c r="M52" t="n">
-        <v>359.7334197322894</v>
+        <v>217.2932060052911</v>
       </c>
       <c r="N52" t="n">
         <v>0</v>
@@ -3219,7 +3219,7 @@
         <v>0</v>
       </c>
       <c r="Q52" t="n">
-        <v>3129.943779771715</v>
+        <v>2982.107560516332</v>
       </c>
     </row>
     <row r="53">
@@ -3230,37 +3230,37 @@
         <v>44287</v>
       </c>
       <c r="C53" t="n">
-        <v>2766.120012100466</v>
+        <v>2759.829622732876</v>
       </c>
       <c r="D53" t="n">
-        <v>2243.064075478609</v>
+        <v>2071.319934305875</v>
       </c>
       <c r="E53" t="n">
-        <v>2789.835957553074</v>
+        <v>2716.664441293314</v>
       </c>
       <c r="F53" t="n">
-        <v>2766.120012100466</v>
+        <v>2759.829622732876</v>
       </c>
       <c r="G53" t="n">
-        <v>2766.120012100466</v>
+        <v>2759.829622732876</v>
       </c>
       <c r="H53" t="n">
-        <v>-236.2752416151448</v>
+        <v>-360.9846094224393</v>
       </c>
       <c r="I53" t="n">
-        <v>-236.2752416151448</v>
+        <v>-360.9846094224393</v>
       </c>
       <c r="J53" t="n">
-        <v>-236.2752416151448</v>
+        <v>-360.9846094224393</v>
       </c>
       <c r="K53" t="n">
-        <v>-236.2752416151448</v>
+        <v>-360.9846094224393</v>
       </c>
       <c r="L53" t="n">
-        <v>-236.2752416151448</v>
+        <v>-360.9846094224393</v>
       </c>
       <c r="M53" t="n">
-        <v>-236.2752416151448</v>
+        <v>-360.9846094224393</v>
       </c>
       <c r="N53" t="n">
         <v>0</v>
@@ -3272,7 +3272,7 @@
         <v>0</v>
       </c>
       <c r="Q53" t="n">
-        <v>2529.844770485321</v>
+        <v>2398.845013310436</v>
       </c>
     </row>
     <row r="54">
@@ -3283,37 +3283,37 @@
         <v>44317</v>
       </c>
       <c r="C54" t="n">
-        <v>2762.161610713341</v>
+        <v>2755.005688756801</v>
       </c>
       <c r="D54" t="n">
-        <v>2270.696876103496</v>
+        <v>2304.288061502257</v>
       </c>
       <c r="E54" t="n">
-        <v>2843.033940105567</v>
+        <v>2966.424864079333</v>
       </c>
       <c r="F54" t="n">
-        <v>2762.161610713341</v>
+        <v>2755.005688756801</v>
       </c>
       <c r="G54" t="n">
-        <v>2762.161610713341</v>
+        <v>2755.005688756801</v>
       </c>
       <c r="H54" t="n">
-        <v>-210.6485474136743</v>
+        <v>-118.2711079708448</v>
       </c>
       <c r="I54" t="n">
-        <v>-210.6485474136743</v>
+        <v>-118.2711079708448</v>
       </c>
       <c r="J54" t="n">
-        <v>-210.6485474136743</v>
+        <v>-118.2711079708448</v>
       </c>
       <c r="K54" t="n">
-        <v>-210.6485474136743</v>
+        <v>-118.2711079708448</v>
       </c>
       <c r="L54" t="n">
-        <v>-210.6485474136743</v>
+        <v>-118.2711079708448</v>
       </c>
       <c r="M54" t="n">
-        <v>-210.6485474136743</v>
+        <v>-118.2711079708448</v>
       </c>
       <c r="N54" t="n">
         <v>0</v>
@@ -3325,7 +3325,7 @@
         <v>0</v>
       </c>
       <c r="Q54" t="n">
-        <v>2551.513063299667</v>
+        <v>2636.734580785956</v>
       </c>
     </row>
     <row r="55">
@@ -3336,37 +3336,37 @@
         <v>44348</v>
       </c>
       <c r="C55" t="n">
-        <v>2758.071262613312</v>
+        <v>2750.020956981524</v>
       </c>
       <c r="D55" t="n">
-        <v>2477.542478378482</v>
+        <v>2354.945008970081</v>
       </c>
       <c r="E55" t="n">
-        <v>3040.999747244371</v>
+        <v>2985.365038406521</v>
       </c>
       <c r="F55" t="n">
-        <v>2758.071262613312</v>
+        <v>2750.020956981524</v>
       </c>
       <c r="G55" t="n">
-        <v>2758.071262613312</v>
+        <v>2750.020956981524</v>
       </c>
       <c r="H55" t="n">
-        <v>2.893080698342359</v>
+        <v>-68.55542179196283</v>
       </c>
       <c r="I55" t="n">
-        <v>2.893080698342359</v>
+        <v>-68.55542179196283</v>
       </c>
       <c r="J55" t="n">
-        <v>2.893080698342359</v>
+        <v>-68.55542179196283</v>
       </c>
       <c r="K55" t="n">
-        <v>2.893080698342359</v>
+        <v>-68.55542179196283</v>
       </c>
       <c r="L55" t="n">
-        <v>2.893080698342359</v>
+        <v>-68.55542179196283</v>
       </c>
       <c r="M55" t="n">
-        <v>2.893080698342359</v>
+        <v>-68.55542179196283</v>
       </c>
       <c r="N55" t="n">
         <v>0</v>
@@ -3378,7 +3378,7 @@
         <v>0</v>
       </c>
       <c r="Q55" t="n">
-        <v>2760.964343311654</v>
+        <v>2681.465535189561</v>
       </c>
     </row>
     <row r="56">
@@ -3389,37 +3389,37 @@
         <v>44378</v>
       </c>
       <c r="C56" t="n">
-        <v>2754.112861226188</v>
+        <v>2745.197023005449</v>
       </c>
       <c r="D56" t="n">
-        <v>2400.620623154474</v>
+        <v>2365.300328824561</v>
       </c>
       <c r="E56" t="n">
-        <v>2979.003708593337</v>
+        <v>3019.113637793411</v>
       </c>
       <c r="F56" t="n">
-        <v>2754.112861226188</v>
+        <v>2745.197023005449</v>
       </c>
       <c r="G56" t="n">
-        <v>2754.112861226188</v>
+        <v>2745.197023005449</v>
       </c>
       <c r="H56" t="n">
-        <v>-69.87361373665331</v>
+        <v>-32.70888285501551</v>
       </c>
       <c r="I56" t="n">
-        <v>-69.87361373665331</v>
+        <v>-32.70888285501551</v>
       </c>
       <c r="J56" t="n">
-        <v>-69.87361373665331</v>
+        <v>-32.70888285501551</v>
       </c>
       <c r="K56" t="n">
-        <v>-69.87361373665331</v>
+        <v>-32.70888285501551</v>
       </c>
       <c r="L56" t="n">
-        <v>-69.87361373665331</v>
+        <v>-32.70888285501551</v>
       </c>
       <c r="M56" t="n">
-        <v>-69.87361373665331</v>
+        <v>-32.70888285501551</v>
       </c>
       <c r="N56" t="n">
         <v>0</v>
@@ -3431,7 +3431,7 @@
         <v>0</v>
       </c>
       <c r="Q56" t="n">
-        <v>2684.239247489535</v>
+        <v>2712.488140150434</v>
       </c>
     </row>
     <row r="57">
@@ -3442,37 +3442,37 @@
         <v>44409</v>
       </c>
       <c r="C57" t="n">
-        <v>2750.022513126159</v>
+        <v>2740.212291230173</v>
       </c>
       <c r="D57" t="n">
-        <v>2650.687542951029</v>
+        <v>2670.901591464886</v>
       </c>
       <c r="E57" t="n">
-        <v>3212.228031545083</v>
+        <v>3287.728545530114</v>
       </c>
       <c r="F57" t="n">
-        <v>2750.022513126159</v>
+        <v>2740.212291230173</v>
       </c>
       <c r="G57" t="n">
-        <v>2750.022513126159</v>
+        <v>2740.212291230173</v>
       </c>
       <c r="H57" t="n">
-        <v>177.5433613045954</v>
+        <v>247.4410670101922</v>
       </c>
       <c r="I57" t="n">
-        <v>177.5433613045954</v>
+        <v>247.4410670101922</v>
       </c>
       <c r="J57" t="n">
-        <v>177.5433613045954</v>
+        <v>247.4410670101922</v>
       </c>
       <c r="K57" t="n">
-        <v>177.5433613045954</v>
+        <v>247.4410670101922</v>
       </c>
       <c r="L57" t="n">
-        <v>177.5433613045954</v>
+        <v>247.4410670101922</v>
       </c>
       <c r="M57" t="n">
-        <v>177.5433613045954</v>
+        <v>247.4410670101922</v>
       </c>
       <c r="N57" t="n">
         <v>0</v>
@@ -3484,7 +3484,7 @@
         <v>0</v>
       </c>
       <c r="Q57" t="n">
-        <v>2927.565874430754</v>
+        <v>2987.653358240365</v>
       </c>
     </row>
     <row r="58">
@@ -3495,37 +3495,37 @@
         <v>44440</v>
       </c>
       <c r="C58" t="n">
-        <v>2745.93216502613</v>
+        <v>2735.227559454896</v>
       </c>
       <c r="D58" t="n">
-        <v>2397.454591978308</v>
+        <v>2443.918125976485</v>
       </c>
       <c r="E58" t="n">
-        <v>2958.291980759157</v>
+        <v>3091.632972999367</v>
       </c>
       <c r="F58" t="n">
-        <v>2745.93216502613</v>
+        <v>2735.227559454896</v>
       </c>
       <c r="G58" t="n">
-        <v>2745.93216502613</v>
+        <v>2735.227559454896</v>
       </c>
       <c r="H58" t="n">
-        <v>-70.21615565681256</v>
+        <v>34.35427786711105</v>
       </c>
       <c r="I58" t="n">
-        <v>-70.21615565681256</v>
+        <v>34.35427786711105</v>
       </c>
       <c r="J58" t="n">
-        <v>-70.21615565681256</v>
+        <v>34.35427786711105</v>
       </c>
       <c r="K58" t="n">
-        <v>-70.21615565681256</v>
+        <v>34.35427786711105</v>
       </c>
       <c r="L58" t="n">
-        <v>-70.21615565681256</v>
+        <v>34.35427786711105</v>
       </c>
       <c r="M58" t="n">
-        <v>-70.21615565681256</v>
+        <v>34.35427786711105</v>
       </c>
       <c r="N58" t="n">
         <v>0</v>
@@ -3537,7 +3537,7 @@
         <v>0</v>
       </c>
       <c r="Q58" t="n">
-        <v>2675.716009369317</v>
+        <v>2769.581837322007</v>
       </c>
     </row>
     <row r="59">
@@ -3548,37 +3548,37 @@
         <v>44470</v>
       </c>
       <c r="C59" t="n">
-        <v>2741.973763639005</v>
+        <v>2730.403625478821</v>
       </c>
       <c r="D59" t="n">
-        <v>2518.688192782893</v>
+        <v>2576.552106617039</v>
       </c>
       <c r="E59" t="n">
-        <v>3080.64354170158</v>
+        <v>3183.942661920118</v>
       </c>
       <c r="F59" t="n">
-        <v>2741.973763639005</v>
+        <v>2730.403625478821</v>
       </c>
       <c r="G59" t="n">
-        <v>2741.973763639005</v>
+        <v>2730.403625478821</v>
       </c>
       <c r="H59" t="n">
-        <v>64.73607292684756</v>
+        <v>147.2222439259409</v>
       </c>
       <c r="I59" t="n">
-        <v>64.73607292684756</v>
+        <v>147.2222439259409</v>
       </c>
       <c r="J59" t="n">
-        <v>64.73607292684756</v>
+        <v>147.2222439259409</v>
       </c>
       <c r="K59" t="n">
-        <v>64.73607292684756</v>
+        <v>147.2222439259409</v>
       </c>
       <c r="L59" t="n">
-        <v>64.73607292684756</v>
+        <v>147.2222439259409</v>
       </c>
       <c r="M59" t="n">
-        <v>64.73607292684756</v>
+        <v>147.2222439259409</v>
       </c>
       <c r="N59" t="n">
         <v>0</v>
@@ -3590,7 +3590,7 @@
         <v>0</v>
       </c>
       <c r="Q59" t="n">
-        <v>2806.709836565853</v>
+        <v>2877.625869404762</v>
       </c>
     </row>
     <row r="60">
@@ -3601,37 +3601,37 @@
         <v>44501</v>
       </c>
       <c r="C60" t="n">
-        <v>2737.883415538976</v>
+        <v>2725.418893703545</v>
       </c>
       <c r="D60" t="n">
-        <v>2603.092148916046</v>
+        <v>2604.433386859994</v>
       </c>
       <c r="E60" t="n">
-        <v>3183.7474688573</v>
+        <v>3242.830015453294</v>
       </c>
       <c r="F60" t="n">
-        <v>2737.883415538976</v>
+        <v>2725.418893703545</v>
       </c>
       <c r="G60" t="n">
-        <v>2737.883415538976</v>
+        <v>2725.418893703545</v>
       </c>
       <c r="H60" t="n">
-        <v>147.128449005636</v>
+        <v>201.5986194123244</v>
       </c>
       <c r="I60" t="n">
-        <v>147.128449005636</v>
+        <v>201.5986194123244</v>
       </c>
       <c r="J60" t="n">
-        <v>147.128449005636</v>
+        <v>201.5986194123244</v>
       </c>
       <c r="K60" t="n">
-        <v>147.128449005636</v>
+        <v>201.5986194123244</v>
       </c>
       <c r="L60" t="n">
-        <v>147.128449005636</v>
+        <v>201.5986194123244</v>
       </c>
       <c r="M60" t="n">
-        <v>147.128449005636</v>
+        <v>201.5986194123244</v>
       </c>
       <c r="N60" t="n">
         <v>0</v>
@@ -3643,7 +3643,7 @@
         <v>0</v>
       </c>
       <c r="Q60" t="n">
-        <v>2885.011864544612</v>
+        <v>2927.017513115869</v>
       </c>
     </row>
     <row r="61">
@@ -3654,37 +3654,37 @@
         <v>44531</v>
       </c>
       <c r="C61" t="n">
-        <v>2733.925014151851</v>
+        <v>2720.59495972747</v>
       </c>
       <c r="D61" t="n">
-        <v>2547.31629334454</v>
+        <v>2599.788637928193</v>
       </c>
       <c r="E61" t="n">
-        <v>3101.844544606129</v>
+        <v>3254.049069090833</v>
       </c>
       <c r="F61" t="n">
-        <v>2733.925014151851</v>
+        <v>2720.59495972747</v>
       </c>
       <c r="G61" t="n">
-        <v>2733.925014151851</v>
+        <v>2720.59495972747</v>
       </c>
       <c r="H61" t="n">
-        <v>97.08844967960277</v>
+        <v>191.03172191678</v>
       </c>
       <c r="I61" t="n">
-        <v>97.08844967960277</v>
+        <v>191.03172191678</v>
       </c>
       <c r="J61" t="n">
-        <v>97.08844967960277</v>
+        <v>191.03172191678</v>
       </c>
       <c r="K61" t="n">
-        <v>97.08844967960277</v>
+        <v>191.03172191678</v>
       </c>
       <c r="L61" t="n">
-        <v>97.08844967960277</v>
+        <v>191.03172191678</v>
       </c>
       <c r="M61" t="n">
-        <v>97.08844967960277</v>
+        <v>191.03172191678</v>
       </c>
       <c r="N61" t="n">
         <v>0</v>
@@ -3696,7 +3696,7 @@
         <v>0</v>
       </c>
       <c r="Q61" t="n">
-        <v>2831.013463831454</v>
+        <v>2911.62668164425</v>
       </c>
     </row>
     <row r="62">
@@ -3707,37 +3707,37 @@
         <v>44562</v>
       </c>
       <c r="C62" t="n">
-        <v>2729.834666051822</v>
+        <v>2715.610227952193</v>
       </c>
       <c r="D62" t="n">
-        <v>2726.141127757225</v>
+        <v>2775.225817783676</v>
       </c>
       <c r="E62" t="n">
-        <v>3294.763595109679</v>
+        <v>3429.364430593671</v>
       </c>
       <c r="F62" t="n">
-        <v>2729.834666051822</v>
+        <v>2715.610227952193</v>
       </c>
       <c r="G62" t="n">
-        <v>2729.834666051822</v>
+        <v>2715.610227952193</v>
       </c>
       <c r="H62" t="n">
-        <v>288.5659493514485</v>
+        <v>400.7142102530472</v>
       </c>
       <c r="I62" t="n">
-        <v>288.5659493514485</v>
+        <v>400.7142102530472</v>
       </c>
       <c r="J62" t="n">
-        <v>288.5659493514485</v>
+        <v>400.7142102530472</v>
       </c>
       <c r="K62" t="n">
-        <v>288.5659493514485</v>
+        <v>400.7142102530472</v>
       </c>
       <c r="L62" t="n">
-        <v>288.5659493514485</v>
+        <v>400.7142102530472</v>
       </c>
       <c r="M62" t="n">
-        <v>288.5659493514485</v>
+        <v>400.7142102530472</v>
       </c>
       <c r="N62" t="n">
         <v>0</v>
@@ -3749,7 +3749,7 @@
         <v>0</v>
       </c>
       <c r="Q62" t="n">
-        <v>3018.400615403271</v>
+        <v>3116.32443820524</v>
       </c>
     </row>
     <row r="63">
@@ -3760,37 +3760,37 @@
         <v>44593</v>
       </c>
       <c r="C63" t="n">
-        <v>2725.744317951794</v>
+        <v>2710.625496176916</v>
       </c>
       <c r="D63" t="n">
-        <v>2289.887159447135</v>
+        <v>2247.214047445725</v>
       </c>
       <c r="E63" t="n">
-        <v>2854.484065846092</v>
+        <v>2880.267501178941</v>
       </c>
       <c r="F63" t="n">
-        <v>2725.744317951794</v>
+        <v>2710.625496176916</v>
       </c>
       <c r="G63" t="n">
-        <v>2725.744317951794</v>
+        <v>2710.625496176916</v>
       </c>
       <c r="H63" t="n">
-        <v>-164.1279663092145</v>
+        <v>-144.7771254472978</v>
       </c>
       <c r="I63" t="n">
-        <v>-164.1279663092145</v>
+        <v>-144.7771254472978</v>
       </c>
       <c r="J63" t="n">
-        <v>-164.1279663092145</v>
+        <v>-144.7771254472978</v>
       </c>
       <c r="K63" t="n">
-        <v>-164.1279663092145</v>
+        <v>-144.7771254472978</v>
       </c>
       <c r="L63" t="n">
-        <v>-164.1279663092145</v>
+        <v>-144.7771254472978</v>
       </c>
       <c r="M63" t="n">
-        <v>-164.1279663092145</v>
+        <v>-144.7771254472978</v>
       </c>
       <c r="N63" t="n">
         <v>0</v>
@@ -3802,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="Q63" t="n">
-        <v>2561.616351642579</v>
+        <v>2565.848370729619</v>
       </c>
     </row>
     <row r="64">
@@ -3813,37 +3813,37 @@
         <v>44621</v>
       </c>
       <c r="C64" t="n">
-        <v>2722.049809990478</v>
+        <v>2706.123157799247</v>
       </c>
       <c r="D64" t="n">
-        <v>2654.820006241687</v>
+        <v>2537.883918690713</v>
       </c>
       <c r="E64" t="n">
-        <v>3214.572484502537</v>
+        <v>3173.509694148571</v>
       </c>
       <c r="F64" t="n">
-        <v>2722.049809990478</v>
+        <v>2706.123157799247</v>
       </c>
       <c r="G64" t="n">
-        <v>2722.049809990478</v>
+        <v>2706.123157799247</v>
       </c>
       <c r="H64" t="n">
-        <v>228.3071141399321</v>
+        <v>164.0450072913175</v>
       </c>
       <c r="I64" t="n">
-        <v>228.3071141399321</v>
+        <v>164.0450072913175</v>
       </c>
       <c r="J64" t="n">
-        <v>228.3071141399321</v>
+        <v>164.0450072913175</v>
       </c>
       <c r="K64" t="n">
-        <v>228.3071141399321</v>
+        <v>164.0450072913175</v>
       </c>
       <c r="L64" t="n">
-        <v>228.3071141399321</v>
+        <v>164.0450072913175</v>
       </c>
       <c r="M64" t="n">
-        <v>228.3071141399321</v>
+        <v>164.0450072913175</v>
       </c>
       <c r="N64" t="n">
         <v>0</v>
@@ -3855,7 +3855,7 @@
         <v>0</v>
       </c>
       <c r="Q64" t="n">
-        <v>2950.35692413041</v>
+        <v>2870.168165090564</v>
       </c>
     </row>
     <row r="65">
@@ -3866,37 +3866,37 @@
         <v>44652</v>
       </c>
       <c r="C65" t="n">
-        <v>2717.959461890448</v>
+        <v>2701.13842602397</v>
       </c>
       <c r="D65" t="n">
-        <v>2388.478557773025</v>
+        <v>2275.44574691049</v>
       </c>
       <c r="E65" t="n">
-        <v>2943.828437132016</v>
+        <v>2885.481041922839</v>
       </c>
       <c r="F65" t="n">
-        <v>2717.959461890448</v>
+        <v>2701.13842602397</v>
       </c>
       <c r="G65" t="n">
-        <v>2717.959461890448</v>
+        <v>2701.13842602397</v>
       </c>
       <c r="H65" t="n">
-        <v>-73.5284220890118</v>
+        <v>-135.6807821856251</v>
       </c>
       <c r="I65" t="n">
-        <v>-73.5284220890118</v>
+        <v>-135.6807821856251</v>
       </c>
       <c r="J65" t="n">
-        <v>-73.5284220890118</v>
+        <v>-135.6807821856251</v>
       </c>
       <c r="K65" t="n">
-        <v>-73.5284220890118</v>
+        <v>-135.6807821856251</v>
       </c>
       <c r="L65" t="n">
-        <v>-73.5284220890118</v>
+        <v>-135.6807821856251</v>
       </c>
       <c r="M65" t="n">
-        <v>-73.5284220890118</v>
+        <v>-135.6807821856251</v>
       </c>
       <c r="N65" t="n">
         <v>0</v>
@@ -3908,7 +3908,7 @@
         <v>0</v>
       </c>
       <c r="Q65" t="n">
-        <v>2644.431039801437</v>
+        <v>2565.457643838345</v>
       </c>
     </row>
     <row r="66">
@@ -3919,37 +3919,37 @@
         <v>44682</v>
       </c>
       <c r="C66" t="n">
-        <v>2714.001060503324</v>
+        <v>2696.314492047895</v>
       </c>
       <c r="D66" t="n">
-        <v>2270.170832689364</v>
+        <v>2271.984684837048</v>
       </c>
       <c r="E66" t="n">
-        <v>2819.790569566744</v>
+        <v>2905.475807996665</v>
       </c>
       <c r="F66" t="n">
-        <v>2714.000770650304</v>
+        <v>2696.314492047895</v>
       </c>
       <c r="G66" t="n">
-        <v>2714.001267605877</v>
+        <v>2696.314492047895</v>
       </c>
       <c r="H66" t="n">
-        <v>-159.5618155721391</v>
+        <v>-100.616502002889</v>
       </c>
       <c r="I66" t="n">
-        <v>-159.5618155721391</v>
+        <v>-100.616502002889</v>
       </c>
       <c r="J66" t="n">
-        <v>-159.5618155721391</v>
+        <v>-100.616502002889</v>
       </c>
       <c r="K66" t="n">
-        <v>-159.5618155721391</v>
+        <v>-100.616502002889</v>
       </c>
       <c r="L66" t="n">
-        <v>-159.5618155721391</v>
+        <v>-100.616502002889</v>
       </c>
       <c r="M66" t="n">
-        <v>-159.5618155721391</v>
+        <v>-100.616502002889</v>
       </c>
       <c r="N66" t="n">
         <v>0</v>
@@ -3961,7 +3961,7 @@
         <v>0</v>
       </c>
       <c r="Q66" t="n">
-        <v>2554.439244931185</v>
+        <v>2595.697990045006</v>
       </c>
     </row>
     <row r="67">
@@ -3972,37 +3972,37 @@
         <v>44713</v>
       </c>
       <c r="C67" t="n">
-        <v>2709.910712403295</v>
+        <v>2691.329760272618</v>
       </c>
       <c r="D67" t="n">
-        <v>2220.430247032973</v>
+        <v>2061.304102247915</v>
       </c>
       <c r="E67" t="n">
-        <v>2769.338518291234</v>
+        <v>2717.677424958208</v>
       </c>
       <c r="F67" t="n">
-        <v>2709.909074344082</v>
+        <v>2691.326865301931</v>
       </c>
       <c r="G67" t="n">
-        <v>2709.912424105572</v>
+        <v>2691.331571833924</v>
       </c>
       <c r="H67" t="n">
-        <v>-214.7945265457852</v>
+        <v>-296.378165545065</v>
       </c>
       <c r="I67" t="n">
-        <v>-214.7945265457852</v>
+        <v>-296.378165545065</v>
       </c>
       <c r="J67" t="n">
-        <v>-214.7945265457852</v>
+        <v>-296.378165545065</v>
       </c>
       <c r="K67" t="n">
-        <v>-214.7945265457852</v>
+        <v>-296.378165545065</v>
       </c>
       <c r="L67" t="n">
-        <v>-214.7945265457852</v>
+        <v>-296.378165545065</v>
       </c>
       <c r="M67" t="n">
-        <v>-214.7945265457852</v>
+        <v>-296.378165545065</v>
       </c>
       <c r="N67" t="n">
         <v>0</v>
@@ -4014,7 +4014,7 @@
         <v>0</v>
       </c>
       <c r="Q67" t="n">
-        <v>2495.11618585751</v>
+        <v>2394.951594727554</v>
       </c>
     </row>
     <row r="68">
@@ -4025,37 +4025,37 @@
         <v>44743</v>
       </c>
       <c r="C68" t="n">
-        <v>2705.95231101617</v>
+        <v>2686.505826296544</v>
       </c>
       <c r="D68" t="n">
-        <v>2544.507358813976</v>
+        <v>2427.819108723452</v>
       </c>
       <c r="E68" t="n">
-        <v>3128.480335772562</v>
+        <v>3075.492975663655</v>
       </c>
       <c r="F68" t="n">
-        <v>2705.94830129945</v>
+        <v>2686.492481366114</v>
       </c>
       <c r="G68" t="n">
-        <v>2705.956090274555</v>
+        <v>2686.517670251121</v>
       </c>
       <c r="H68" t="n">
-        <v>129.4243203361029</v>
+        <v>65.38396280178239</v>
       </c>
       <c r="I68" t="n">
-        <v>129.4243203361029</v>
+        <v>65.38396280178239</v>
       </c>
       <c r="J68" t="n">
-        <v>129.4243203361029</v>
+        <v>65.38396280178239</v>
       </c>
       <c r="K68" t="n">
-        <v>129.4243203361029</v>
+        <v>65.38396280178239</v>
       </c>
       <c r="L68" t="n">
-        <v>129.4243203361029</v>
+        <v>65.38396280178239</v>
       </c>
       <c r="M68" t="n">
-        <v>129.4243203361029</v>
+        <v>65.38396280178239</v>
       </c>
       <c r="N68" t="n">
         <v>0</v>
@@ -4067,7 +4067,7 @@
         <v>0</v>
       </c>
       <c r="Q68" t="n">
-        <v>2835.376631352273</v>
+        <v>2751.889789098326</v>
       </c>
     </row>
     <row r="69">
@@ -4078,37 +4078,37 @@
         <v>44774</v>
       </c>
       <c r="C69" t="n">
-        <v>2701.861962916142</v>
+        <v>2681.521094521268</v>
       </c>
       <c r="D69" t="n">
-        <v>2450.724663829962</v>
+        <v>2569.211342024053</v>
       </c>
       <c r="E69" t="n">
-        <v>3037.029736555491</v>
+        <v>3155.649819263247</v>
       </c>
       <c r="F69" t="n">
-        <v>2701.855414128324</v>
+        <v>2681.48996349261</v>
       </c>
       <c r="G69" t="n">
-        <v>2701.868127857974</v>
+        <v>2681.546121932658</v>
       </c>
       <c r="H69" t="n">
-        <v>53.93606379549816</v>
+        <v>169.6887539735131</v>
       </c>
       <c r="I69" t="n">
-        <v>53.93606379549816</v>
+        <v>169.6887539735131</v>
       </c>
       <c r="J69" t="n">
-        <v>53.93606379549816</v>
+        <v>169.6887539735131</v>
       </c>
       <c r="K69" t="n">
-        <v>53.93606379549816</v>
+        <v>169.6887539735131</v>
       </c>
       <c r="L69" t="n">
-        <v>53.93606379549816</v>
+        <v>169.6887539735131</v>
       </c>
       <c r="M69" t="n">
-        <v>53.93606379549816</v>
+        <v>169.6887539735131</v>
       </c>
       <c r="N69" t="n">
         <v>0</v>
@@ -4120,7 +4120,7 @@
         <v>0</v>
       </c>
       <c r="Q69" t="n">
-        <v>2755.79802671164</v>
+        <v>2851.209848494781</v>
       </c>
     </row>
     <row r="70">
@@ -4131,37 +4131,37 @@
         <v>44805</v>
       </c>
       <c r="C70" t="n">
-        <v>2697.771614816113</v>
+        <v>2676.53636274599</v>
       </c>
       <c r="D70" t="n">
-        <v>2291.736119586001</v>
+        <v>2325.912922642246</v>
       </c>
       <c r="E70" t="n">
-        <v>2855.514102877631</v>
+        <v>2984.90379555124</v>
       </c>
       <c r="F70" t="n">
-        <v>2697.762232142071</v>
+        <v>2676.482611627642</v>
       </c>
       <c r="G70" t="n">
-        <v>2697.780411554348</v>
+        <v>2676.584556215259</v>
       </c>
       <c r="H70" t="n">
-        <v>-129.2536414614835</v>
+        <v>-6.312873014659284</v>
       </c>
       <c r="I70" t="n">
-        <v>-129.2536414614835</v>
+        <v>-6.312873014659284</v>
       </c>
       <c r="J70" t="n">
-        <v>-129.2536414614835</v>
+        <v>-6.312873014659284</v>
       </c>
       <c r="K70" t="n">
-        <v>-129.2536414614835</v>
+        <v>-6.312873014659284</v>
       </c>
       <c r="L70" t="n">
-        <v>-129.2536414614835</v>
+        <v>-6.312873014659284</v>
       </c>
       <c r="M70" t="n">
-        <v>-129.2536414614835</v>
+        <v>-6.312873014659284</v>
       </c>
       <c r="N70" t="n">
         <v>0</v>
@@ -4173,7 +4173,7 @@
         <v>0</v>
       </c>
       <c r="Q70" t="n">
-        <v>2568.517973354629</v>
+        <v>2670.223489731331</v>
       </c>
     </row>
     <row r="71">
@@ -4184,37 +4184,37 @@
         <v>44835</v>
       </c>
       <c r="C71" t="n">
-        <v>2693.813213428988</v>
+        <v>2671.712428769916</v>
       </c>
       <c r="D71" t="n">
-        <v>2697.522706773867</v>
+        <v>2749.068984147543</v>
       </c>
       <c r="E71" t="n">
-        <v>3251.397174302051</v>
+        <v>3386.003036584493</v>
       </c>
       <c r="F71" t="n">
-        <v>2693.800538075134</v>
+        <v>2671.636072400136</v>
       </c>
       <c r="G71" t="n">
-        <v>2693.825118262356</v>
+        <v>2671.780569034553</v>
       </c>
       <c r="H71" t="n">
-        <v>271.6364670757778</v>
+        <v>402.3253670667447</v>
       </c>
       <c r="I71" t="n">
-        <v>271.6364670757778</v>
+        <v>402.3253670667447</v>
       </c>
       <c r="J71" t="n">
-        <v>271.6364670757778</v>
+        <v>402.3253670667447</v>
       </c>
       <c r="K71" t="n">
-        <v>271.6364670757778</v>
+        <v>402.3253670667447</v>
       </c>
       <c r="L71" t="n">
-        <v>271.6364670757778</v>
+        <v>402.3253670667447</v>
       </c>
       <c r="M71" t="n">
-        <v>271.6364670757778</v>
+        <v>402.3253670667447</v>
       </c>
       <c r="N71" t="n">
         <v>0</v>
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="Q71" t="n">
-        <v>2965.449680504766</v>
+        <v>3074.03779583666</v>
       </c>
     </row>
     <row r="72">
@@ -4237,37 +4237,37 @@
         <v>44866</v>
       </c>
       <c r="C72" t="n">
-        <v>2689.722865328959</v>
+        <v>2666.727696994639</v>
       </c>
       <c r="D72" t="n">
-        <v>2434.813236911714</v>
+        <v>2444.134280096906</v>
       </c>
       <c r="E72" t="n">
-        <v>3007.739089144211</v>
+        <v>3091.675293245255</v>
       </c>
       <c r="F72" t="n">
-        <v>2689.706850224881</v>
+        <v>2666.626243627202</v>
       </c>
       <c r="G72" t="n">
-        <v>2689.7386519031</v>
+        <v>2666.819140105966</v>
       </c>
       <c r="H72" t="n">
-        <v>29.52995797225773</v>
+        <v>102.4322438942464</v>
       </c>
       <c r="I72" t="n">
-        <v>29.52995797225773</v>
+        <v>102.4322438942464</v>
       </c>
       <c r="J72" t="n">
-        <v>29.52995797225773</v>
+        <v>102.4322438942464</v>
       </c>
       <c r="K72" t="n">
-        <v>29.52995797225773</v>
+        <v>102.4322438942464</v>
       </c>
       <c r="L72" t="n">
-        <v>29.52995797225773</v>
+        <v>102.4322438942464</v>
       </c>
       <c r="M72" t="n">
-        <v>29.52995797225773</v>
+        <v>102.4322438942464</v>
       </c>
       <c r="N72" t="n">
         <v>0</v>
@@ -4279,7 +4279,7 @@
         <v>0</v>
       </c>
       <c r="Q72" t="n">
-        <v>2719.252823301216</v>
+        <v>2769.159940888886</v>
       </c>
     </row>
     <row r="73">
@@ -4290,37 +4290,37 @@
         <v>44896</v>
       </c>
       <c r="C73" t="n">
-        <v>2685.764463941834</v>
+        <v>2661.903763018564</v>
       </c>
       <c r="D73" t="n">
-        <v>2454.481545094522</v>
+        <v>2478.856856155623</v>
       </c>
       <c r="E73" t="n">
-        <v>3028.381082306742</v>
+        <v>3114.457999027936</v>
       </c>
       <c r="F73" t="n">
-        <v>2685.744875035638</v>
+        <v>2661.775574160824</v>
       </c>
       <c r="G73" t="n">
-        <v>2685.784494457698</v>
+        <v>2662.018855671091</v>
       </c>
       <c r="H73" t="n">
-        <v>48.9820793266674</v>
+        <v>117.6957684804164</v>
       </c>
       <c r="I73" t="n">
-        <v>48.9820793266674</v>
+        <v>117.6957684804164</v>
       </c>
       <c r="J73" t="n">
-        <v>48.9820793266674</v>
+        <v>117.6957684804164</v>
       </c>
       <c r="K73" t="n">
-        <v>48.9820793266674</v>
+        <v>117.6957684804164</v>
       </c>
       <c r="L73" t="n">
-        <v>48.9820793266674</v>
+        <v>117.6957684804164</v>
       </c>
       <c r="M73" t="n">
-        <v>48.9820793266674</v>
+        <v>117.6957684804164</v>
       </c>
       <c r="N73" t="n">
         <v>0</v>
@@ -4332,7 +4332,7 @@
         <v>0</v>
       </c>
       <c r="Q73" t="n">
-        <v>2734.746543268501</v>
+        <v>2779.599531498981</v>
       </c>
     </row>
     <row r="74">
@@ -4343,37 +4343,37 @@
         <v>44927</v>
       </c>
       <c r="C74" t="n">
-        <v>2681.674115841805</v>
+        <v>2656.919031243287</v>
       </c>
       <c r="D74" t="n">
-        <v>2785.394460414585</v>
+        <v>2764.410614837074</v>
       </c>
       <c r="E74" t="n">
-        <v>3339.994103594117</v>
+        <v>3401.601158442381</v>
       </c>
       <c r="F74" t="n">
-        <v>2681.651082596321</v>
+        <v>2656.757265668044</v>
       </c>
       <c r="G74" t="n">
-        <v>2681.698805065212</v>
+        <v>2657.059922195098</v>
       </c>
       <c r="H74" t="n">
-        <v>386.7010935537908</v>
+        <v>431.4474137778412</v>
       </c>
       <c r="I74" t="n">
-        <v>386.7010935537908</v>
+        <v>431.4474137778412</v>
       </c>
       <c r="J74" t="n">
-        <v>386.7010935537908</v>
+        <v>431.4474137778412</v>
       </c>
       <c r="K74" t="n">
-        <v>386.7010935537908</v>
+        <v>431.4474137778412</v>
       </c>
       <c r="L74" t="n">
-        <v>386.7010935537908</v>
+        <v>431.4474137778412</v>
       </c>
       <c r="M74" t="n">
-        <v>386.7010935537908</v>
+        <v>431.4474137778412</v>
       </c>
       <c r="N74" t="n">
         <v>0</v>
@@ -4385,7 +4385,7 @@
         <v>0</v>
       </c>
       <c r="Q74" t="n">
-        <v>3068.375209395596</v>
+        <v>3088.366445021129</v>
       </c>
     </row>
     <row r="75">
@@ -4396,37 +4396,37 @@
         <v>44958</v>
       </c>
       <c r="C75" t="n">
-        <v>2677.583767741776</v>
+        <v>2651.934299468011</v>
       </c>
       <c r="D75" t="n">
-        <v>2229.144288491083</v>
+        <v>2135.376320331795</v>
       </c>
       <c r="E75" t="n">
-        <v>2779.734380543709</v>
+        <v>2782.120092796243</v>
       </c>
       <c r="F75" t="n">
-        <v>2677.55665646318</v>
+        <v>2651.741590725104</v>
       </c>
       <c r="G75" t="n">
-        <v>2677.613328353315</v>
+        <v>2652.107576197543</v>
       </c>
       <c r="H75" t="n">
-        <v>-175.3897639682307</v>
+        <v>-198.9693132560557</v>
       </c>
       <c r="I75" t="n">
-        <v>-175.3897639682307</v>
+        <v>-198.9693132560557</v>
       </c>
       <c r="J75" t="n">
-        <v>-175.3897639682307</v>
+        <v>-198.9693132560557</v>
       </c>
       <c r="K75" t="n">
-        <v>-175.3897639682307</v>
+        <v>-198.9693132560557</v>
       </c>
       <c r="L75" t="n">
-        <v>-175.3897639682307</v>
+        <v>-198.9693132560557</v>
       </c>
       <c r="M75" t="n">
-        <v>-175.3897639682307</v>
+        <v>-198.9693132560557</v>
       </c>
       <c r="N75" t="n">
         <v>0</v>
@@ -4438,7 +4438,7 @@
         <v>0</v>
       </c>
       <c r="Q75" t="n">
-        <v>2502.194003773546</v>
+        <v>2452.964986211955</v>
       </c>
     </row>
     <row r="76">
@@ -4449,37 +4449,37 @@
         <v>44986</v>
       </c>
       <c r="C76" t="n">
-        <v>2673.88925978046</v>
+        <v>2647.431961090341</v>
       </c>
       <c r="D76" t="n">
-        <v>2484.085913053408</v>
+        <v>2424.356097502591</v>
       </c>
       <c r="E76" t="n">
-        <v>3053.048489883477</v>
+        <v>3104.085964144844</v>
       </c>
       <c r="F76" t="n">
-        <v>2673.857642130031</v>
+        <v>2647.211803427472</v>
       </c>
       <c r="G76" t="n">
-        <v>2673.924215068971</v>
+        <v>2647.64081041287</v>
       </c>
       <c r="H76" t="n">
-        <v>99.26549435834355</v>
+        <v>114.4744018941443</v>
       </c>
       <c r="I76" t="n">
-        <v>99.26549435834355</v>
+        <v>114.4744018941443</v>
       </c>
       <c r="J76" t="n">
-        <v>99.26549435834355</v>
+        <v>114.4744018941443</v>
       </c>
       <c r="K76" t="n">
-        <v>99.26549435834355</v>
+        <v>114.4744018941443</v>
       </c>
       <c r="L76" t="n">
-        <v>99.26549435834355</v>
+        <v>114.4744018941443</v>
       </c>
       <c r="M76" t="n">
-        <v>99.26549435834355</v>
+        <v>114.4744018941443</v>
       </c>
       <c r="N76" t="n">
         <v>0</v>
@@ -4491,7 +4491,7 @@
         <v>0</v>
       </c>
       <c r="Q76" t="n">
-        <v>2773.154754138804</v>
+        <v>2761.906362984485</v>
       </c>
     </row>
     <row r="77">
@@ -4502,37 +4502,37 @@
         <v>45017</v>
       </c>
       <c r="C77" t="n">
-        <v>2669.798911680431</v>
+        <v>2642.447229315064</v>
       </c>
       <c r="D77" t="n">
-        <v>2465.023683417989</v>
+        <v>2403.169285867481</v>
       </c>
       <c r="E77" t="n">
-        <v>3029.317074796015</v>
+        <v>3026.517405104442</v>
       </c>
       <c r="F77" t="n">
-        <v>2669.761952839405</v>
+        <v>2642.193859957917</v>
       </c>
       <c r="G77" t="n">
-        <v>2669.838524066085</v>
+        <v>2642.694187354845</v>
       </c>
       <c r="H77" t="n">
-        <v>91.24298719174254</v>
+        <v>90.09951348500226</v>
       </c>
       <c r="I77" t="n">
-        <v>91.24298719174254</v>
+        <v>90.09951348500226</v>
       </c>
       <c r="J77" t="n">
-        <v>91.24298719174254</v>
+        <v>90.09951348500226</v>
       </c>
       <c r="K77" t="n">
-        <v>91.24298719174254</v>
+        <v>90.09951348500226</v>
       </c>
       <c r="L77" t="n">
-        <v>91.24298719174254</v>
+        <v>90.09951348500226</v>
       </c>
       <c r="M77" t="n">
-        <v>91.24298719174254</v>
+        <v>90.09951348500226</v>
       </c>
       <c r="N77" t="n">
         <v>0</v>
@@ -4544,7 +4544,7 @@
         <v>0</v>
       </c>
       <c r="Q77" t="n">
-        <v>2761.041898872174</v>
+        <v>2732.546742800067</v>
       </c>
     </row>
     <row r="78">
@@ -4555,37 +4555,37 @@
         <v>45047</v>
       </c>
       <c r="C78" t="n">
-        <v>2665.840510293307</v>
+        <v>2637.62329533899</v>
       </c>
       <c r="D78" t="n">
-        <v>2286.746839787169</v>
+        <v>2241.462401491995</v>
       </c>
       <c r="E78" t="n">
-        <v>2818.288003928684</v>
+        <v>2879.29952229902</v>
       </c>
       <c r="F78" t="n">
-        <v>2665.798702763369</v>
+        <v>2637.328048005773</v>
       </c>
       <c r="G78" t="n">
-        <v>2665.884164656378</v>
+        <v>2637.904394716652</v>
       </c>
       <c r="H78" t="n">
-        <v>-112.6137248227309</v>
+        <v>-89.00079250490559</v>
       </c>
       <c r="I78" t="n">
-        <v>-112.6137248227309</v>
+        <v>-89.00079250490559</v>
       </c>
       <c r="J78" t="n">
-        <v>-112.6137248227309</v>
+        <v>-89.00079250490559</v>
       </c>
       <c r="K78" t="n">
-        <v>-112.6137248227309</v>
+        <v>-89.00079250490559</v>
       </c>
       <c r="L78" t="n">
-        <v>-112.6137248227309</v>
+        <v>-89.00079250490559</v>
       </c>
       <c r="M78" t="n">
-        <v>-112.6137248227309</v>
+        <v>-89.00079250490559</v>
       </c>
       <c r="N78" t="n">
         <v>0</v>
@@ -4597,7 +4597,7 @@
         <v>0</v>
       </c>
       <c r="Q78" t="n">
-        <v>2553.226785470576</v>
+        <v>2548.622502834084</v>
       </c>
     </row>
     <row r="79">
@@ -4608,37 +4608,37 @@
         <v>45078</v>
       </c>
       <c r="C79" t="n">
-        <v>2661.750162193277</v>
+        <v>2632.638563563713</v>
       </c>
       <c r="D79" t="n">
-        <v>1957.783051297192</v>
+        <v>1805.077667586263</v>
       </c>
       <c r="E79" t="n">
-        <v>2499.456984336005</v>
+        <v>2433.19758403061</v>
       </c>
       <c r="F79" t="n">
-        <v>2661.702862126575</v>
+        <v>2632.305607150193</v>
       </c>
       <c r="G79" t="n">
-        <v>2661.800571441152</v>
+        <v>2632.961915918592</v>
       </c>
       <c r="H79" t="n">
-        <v>-431.6580117073976</v>
+        <v>-524.5385525918803</v>
       </c>
       <c r="I79" t="n">
-        <v>-431.6580117073976</v>
+        <v>-524.5385525918803</v>
       </c>
       <c r="J79" t="n">
-        <v>-431.6580117073976</v>
+        <v>-524.5385525918803</v>
       </c>
       <c r="K79" t="n">
-        <v>-431.6580117073976</v>
+        <v>-524.5385525918803</v>
       </c>
       <c r="L79" t="n">
-        <v>-431.6580117073976</v>
+        <v>-524.5385525918803</v>
       </c>
       <c r="M79" t="n">
-        <v>-431.6580117073976</v>
+        <v>-524.5385525918803</v>
       </c>
       <c r="N79" t="n">
         <v>0</v>
@@ -4650,7 +4650,7 @@
         <v>0</v>
       </c>
       <c r="Q79" t="n">
-        <v>2230.09215048588</v>
+        <v>2108.100010971832</v>
       </c>
     </row>
     <row r="80">
@@ -4661,37 +4661,37 @@
         <v>45108</v>
       </c>
       <c r="C80" t="n">
-        <v>2657.791760806153</v>
+        <v>2627.814629587639</v>
       </c>
       <c r="D80" t="n">
-        <v>2687.526702372692</v>
+        <v>2466.457150755777</v>
       </c>
       <c r="E80" t="n">
-        <v>3269.370429307749</v>
+        <v>3124.777596248171</v>
       </c>
       <c r="F80" t="n">
-        <v>2657.740058295945</v>
+        <v>2627.436925740926</v>
       </c>
       <c r="G80" t="n">
-        <v>2657.847940359707</v>
+        <v>2628.18226568502</v>
       </c>
       <c r="H80" t="n">
-        <v>329.404653829049</v>
+        <v>165.4213706451866</v>
       </c>
       <c r="I80" t="n">
-        <v>329.404653829049</v>
+        <v>165.4213706451866</v>
       </c>
       <c r="J80" t="n">
-        <v>329.404653829049</v>
+        <v>165.4213706451866</v>
       </c>
       <c r="K80" t="n">
-        <v>329.404653829049</v>
+        <v>165.4213706451866</v>
       </c>
       <c r="L80" t="n">
-        <v>329.404653829049</v>
+        <v>165.4213706451866</v>
       </c>
       <c r="M80" t="n">
-        <v>329.404653829049</v>
+        <v>165.4213706451866</v>
       </c>
       <c r="N80" t="n">
         <v>0</v>
@@ -4703,7 +4703,7 @@
         <v>0</v>
       </c>
       <c r="Q80" t="n">
-        <v>2987.196414635202</v>
+        <v>2793.236000232825</v>
       </c>
     </row>
     <row r="81">
@@ -4714,37 +4714,37 @@
         <v>45139</v>
       </c>
       <c r="C81" t="n">
-        <v>2653.701412706124</v>
+        <v>2622.829897812362</v>
       </c>
       <c r="D81" t="n">
-        <v>2298.090780645527</v>
+        <v>2406.432726446153</v>
       </c>
       <c r="E81" t="n">
-        <v>2897.368192236589</v>
+        <v>3055.758482576819</v>
       </c>
       <c r="F81" t="n">
-        <v>2653.644588929296</v>
+        <v>2622.41190952601</v>
       </c>
       <c r="G81" t="n">
-        <v>2653.763758953997</v>
+        <v>2623.235028308826</v>
       </c>
       <c r="H81" t="n">
-        <v>-71.61925025666376</v>
+        <v>92.1862332072623</v>
       </c>
       <c r="I81" t="n">
-        <v>-71.61925025666376</v>
+        <v>92.1862332072623</v>
       </c>
       <c r="J81" t="n">
-        <v>-71.61925025666376</v>
+        <v>92.1862332072623</v>
       </c>
       <c r="K81" t="n">
-        <v>-71.61925025666376</v>
+        <v>92.1862332072623</v>
       </c>
       <c r="L81" t="n">
-        <v>-71.61925025666376</v>
+        <v>92.1862332072623</v>
       </c>
       <c r="M81" t="n">
-        <v>-71.61925025666376</v>
+        <v>92.1862332072623</v>
       </c>
       <c r="N81" t="n">
         <v>0</v>
@@ -4756,7 +4756,7 @@
         <v>0</v>
       </c>
       <c r="Q81" t="n">
-        <v>2582.082162449461</v>
+        <v>2715.016131019624</v>
       </c>
     </row>
     <row r="82">
@@ -4767,37 +4767,37 @@
         <v>45170</v>
       </c>
       <c r="C82" t="n">
-        <v>2649.611064606095</v>
+        <v>2617.845166037085</v>
       </c>
       <c r="D82" t="n">
-        <v>2189.180907333881</v>
+        <v>2255.770019816648</v>
       </c>
       <c r="E82" t="n">
-        <v>2746.281035630696</v>
+        <v>2896.808932269496</v>
       </c>
       <c r="F82" t="n">
-        <v>2649.547998866223</v>
+        <v>2617.379816404896</v>
       </c>
       <c r="G82" t="n">
-        <v>2649.68058548303</v>
+        <v>2618.29406829272</v>
       </c>
       <c r="H82" t="n">
-        <v>-184.7128909301155</v>
+        <v>-42.71307409669382</v>
       </c>
       <c r="I82" t="n">
-        <v>-184.7128909301155</v>
+        <v>-42.71307409669382</v>
       </c>
       <c r="J82" t="n">
-        <v>-184.7128909301155</v>
+        <v>-42.71307409669382</v>
       </c>
       <c r="K82" t="n">
-        <v>-184.7128909301155</v>
+        <v>-42.71307409669382</v>
       </c>
       <c r="L82" t="n">
-        <v>-184.7128909301155</v>
+        <v>-42.71307409669382</v>
       </c>
       <c r="M82" t="n">
-        <v>-184.7128909301155</v>
+        <v>-42.71307409669382</v>
       </c>
       <c r="N82" t="n">
         <v>0</v>
@@ -4809,7 +4809,60 @@
         <v>0</v>
       </c>
       <c r="Q82" t="n">
-        <v>2464.89817367598</v>
+        <v>2575.132091940391</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" s="2" t="n">
+        <v>45200</v>
+      </c>
+      <c r="C83" t="n">
+        <v>2613.02123206101</v>
+      </c>
+      <c r="D83" t="n">
+        <v>2929.149969021788</v>
+      </c>
+      <c r="E83" t="n">
+        <v>3607.473953121937</v>
+      </c>
+      <c r="F83" t="n">
+        <v>2612.511402285244</v>
+      </c>
+      <c r="G83" t="n">
+        <v>2613.505120421399</v>
+      </c>
+      <c r="H83" t="n">
+        <v>656.0287705147176</v>
+      </c>
+      <c r="I83" t="n">
+        <v>656.0287705147176</v>
+      </c>
+      <c r="J83" t="n">
+        <v>656.0287705147176</v>
+      </c>
+      <c r="K83" t="n">
+        <v>656.0287705147176</v>
+      </c>
+      <c r="L83" t="n">
+        <v>656.0287705147176</v>
+      </c>
+      <c r="M83" t="n">
+        <v>656.0287705147176</v>
+      </c>
+      <c r="N83" t="n">
+        <v>0</v>
+      </c>
+      <c r="O83" t="n">
+        <v>0</v>
+      </c>
+      <c r="P83" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>3269.050002575728</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/fs_bus_monthly.xlsx
+++ b/outputs/fs_bus_monthly.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q83"/>
+  <dimension ref="A1:Q84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -527,37 +527,37 @@
         <v>42736</v>
       </c>
       <c r="C2" t="n">
-        <v>3002.766831880756</v>
+        <v>2994.747864348486</v>
       </c>
       <c r="D2" t="n">
-        <v>3049.253184812477</v>
+        <v>3030.350735040059</v>
       </c>
       <c r="E2" t="n">
-        <v>3687.705232183688</v>
+        <v>3678.380362514035</v>
       </c>
       <c r="F2" t="n">
-        <v>3002.766831880756</v>
+        <v>2994.747864348486</v>
       </c>
       <c r="G2" t="n">
-        <v>3002.766831880756</v>
+        <v>2994.747864348486</v>
       </c>
       <c r="H2" t="n">
-        <v>370.1886899879732</v>
+        <v>357.8903243862234</v>
       </c>
       <c r="I2" t="n">
-        <v>370.1886899879732</v>
+        <v>357.8903243862234</v>
       </c>
       <c r="J2" t="n">
-        <v>370.1886899879732</v>
+        <v>357.8903243862234</v>
       </c>
       <c r="K2" t="n">
-        <v>370.1886899879732</v>
+        <v>357.8903243862234</v>
       </c>
       <c r="L2" t="n">
-        <v>370.1886899879732</v>
+        <v>357.8903243862234</v>
       </c>
       <c r="M2" t="n">
-        <v>370.1886899879732</v>
+        <v>357.8903243862234</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -569,7 +569,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>3372.955521868729</v>
+        <v>3352.638188734709</v>
       </c>
     </row>
     <row r="3">
@@ -580,37 +580,37 @@
         <v>42767</v>
       </c>
       <c r="C3" t="n">
-        <v>2998.079278254243</v>
+        <v>2990.597445370609</v>
       </c>
       <c r="D3" t="n">
-        <v>2589.359668467968</v>
+        <v>2554.88325934395</v>
       </c>
       <c r="E3" t="n">
-        <v>3215.618272783615</v>
+        <v>3222.530388209034</v>
       </c>
       <c r="F3" t="n">
-        <v>2998.079278254243</v>
+        <v>2990.597445370609</v>
       </c>
       <c r="G3" t="n">
-        <v>2998.079278254243</v>
+        <v>2990.597445370609</v>
       </c>
       <c r="H3" t="n">
-        <v>-90.49359400107153</v>
+        <v>-101.4855792124044</v>
       </c>
       <c r="I3" t="n">
-        <v>-90.49359400107153</v>
+        <v>-101.4855792124044</v>
       </c>
       <c r="J3" t="n">
-        <v>-90.49359400107153</v>
+        <v>-101.4855792124044</v>
       </c>
       <c r="K3" t="n">
-        <v>-90.49359400107153</v>
+        <v>-101.4855792124044</v>
       </c>
       <c r="L3" t="n">
-        <v>-90.49359400107153</v>
+        <v>-101.4855792124044</v>
       </c>
       <c r="M3" t="n">
-        <v>-90.49359400107153</v>
+        <v>-101.4855792124044</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -622,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>2907.585684253172</v>
+        <v>2889.111866158205</v>
       </c>
     </row>
     <row r="4">
@@ -633,37 +633,37 @@
         <v>42795</v>
       </c>
       <c r="C4" t="n">
-        <v>2993.845358849651</v>
+        <v>2986.848679842205</v>
       </c>
       <c r="D4" t="n">
-        <v>2893.451487847012</v>
+        <v>2843.274199095132</v>
       </c>
       <c r="E4" t="n">
-        <v>3523.628698663123</v>
+        <v>3514.178290286346</v>
       </c>
       <c r="F4" t="n">
-        <v>2993.845358849651</v>
+        <v>2986.848679842205</v>
       </c>
       <c r="G4" t="n">
-        <v>2993.845358849651</v>
+        <v>2986.848679842205</v>
       </c>
       <c r="H4" t="n">
-        <v>217.2932060049534</v>
+        <v>206.5504752189963</v>
       </c>
       <c r="I4" t="n">
-        <v>217.2932060049534</v>
+        <v>206.5504752189963</v>
       </c>
       <c r="J4" t="n">
-        <v>217.2932060049534</v>
+        <v>206.5504752189963</v>
       </c>
       <c r="K4" t="n">
-        <v>217.2932060049534</v>
+        <v>206.5504752189963</v>
       </c>
       <c r="L4" t="n">
-        <v>217.2932060049534</v>
+        <v>206.5504752189963</v>
       </c>
       <c r="M4" t="n">
-        <v>217.2932060049534</v>
+        <v>206.5504752189963</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -675,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3211.138564854604</v>
+        <v>3193.399155061201</v>
       </c>
     </row>
     <row r="5">
@@ -686,37 +686,37 @@
         <v>42826</v>
       </c>
       <c r="C5" t="n">
-        <v>2989.157805224204</v>
+        <v>2982.698260903461</v>
       </c>
       <c r="D5" t="n">
-        <v>2300.48210070711</v>
+        <v>2296.479557378798</v>
       </c>
       <c r="E5" t="n">
-        <v>2928.550109313295</v>
+        <v>2954.202507172334</v>
       </c>
       <c r="F5" t="n">
-        <v>2989.157805224204</v>
+        <v>2982.698260903461</v>
       </c>
       <c r="G5" t="n">
-        <v>2989.157805224204</v>
+        <v>2982.698260903461</v>
       </c>
       <c r="H5" t="n">
-        <v>-360.9846094206139</v>
+        <v>-370.2109065384247</v>
       </c>
       <c r="I5" t="n">
-        <v>-360.9846094206139</v>
+        <v>-370.2109065384247</v>
       </c>
       <c r="J5" t="n">
-        <v>-360.9846094206139</v>
+        <v>-370.2109065384247</v>
       </c>
       <c r="K5" t="n">
-        <v>-360.9846094206139</v>
+        <v>-370.2109065384247</v>
       </c>
       <c r="L5" t="n">
-        <v>-360.9846094206139</v>
+        <v>-370.2109065384247</v>
       </c>
       <c r="M5" t="n">
-        <v>-360.9846094206139</v>
+        <v>-370.2109065384247</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -728,7 +728,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>2628.173195803591</v>
+        <v>2612.487354365036</v>
       </c>
     </row>
     <row r="6">
@@ -739,37 +739,37 @@
         <v>42856</v>
       </c>
       <c r="C6" t="n">
-        <v>2984.62146300603</v>
+        <v>2978.681726446614</v>
       </c>
       <c r="D6" t="n">
-        <v>2552.844618036914</v>
+        <v>2533.401637233837</v>
       </c>
       <c r="E6" t="n">
-        <v>3204.402397524923</v>
+        <v>3157.805177152589</v>
       </c>
       <c r="F6" t="n">
-        <v>2984.62146300603</v>
+        <v>2978.681726446614</v>
       </c>
       <c r="G6" t="n">
-        <v>2984.62146300603</v>
+        <v>2978.681726446614</v>
       </c>
       <c r="H6" t="n">
-        <v>-118.2711079717398</v>
+        <v>-126.6699811618279</v>
       </c>
       <c r="I6" t="n">
-        <v>-118.2711079717398</v>
+        <v>-126.6699811618279</v>
       </c>
       <c r="J6" t="n">
-        <v>-118.2711079717398</v>
+        <v>-126.6699811618279</v>
       </c>
       <c r="K6" t="n">
-        <v>-118.2711079717398</v>
+        <v>-126.6699811618279</v>
       </c>
       <c r="L6" t="n">
-        <v>-118.2711079717398</v>
+        <v>-126.6699811618279</v>
       </c>
       <c r="M6" t="n">
-        <v>-118.2711079717398</v>
+        <v>-126.6699811618279</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>2866.350355034291</v>
+        <v>2852.011745284786</v>
       </c>
     </row>
     <row r="7">
@@ -792,37 +792,37 @@
         <v>42887</v>
       </c>
       <c r="C7" t="n">
-        <v>2979.933909379943</v>
+        <v>2974.531307494431</v>
       </c>
       <c r="D7" t="n">
-        <v>2563.10330676526</v>
+        <v>2643.533175127157</v>
       </c>
       <c r="E7" t="n">
-        <v>3227.785310783166</v>
+        <v>3277.767015254877</v>
       </c>
       <c r="F7" t="n">
-        <v>2979.933909379943</v>
+        <v>2974.531307494431</v>
       </c>
       <c r="G7" t="n">
-        <v>2979.933909379943</v>
+        <v>2974.531307494431</v>
       </c>
       <c r="H7" t="n">
-        <v>-68.55542179188041</v>
+        <v>-8.370316803807635</v>
       </c>
       <c r="I7" t="n">
-        <v>-68.55542179188041</v>
+        <v>-8.370316803807635</v>
       </c>
       <c r="J7" t="n">
-        <v>-68.55542179188041</v>
+        <v>-8.370316803807635</v>
       </c>
       <c r="K7" t="n">
-        <v>-68.55542179188041</v>
+        <v>-8.370316803807635</v>
       </c>
       <c r="L7" t="n">
-        <v>-68.55542179188041</v>
+        <v>-8.370316803807635</v>
       </c>
       <c r="M7" t="n">
-        <v>-68.55542179188041</v>
+        <v>-8.370316803807635</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -834,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>2911.378487588062</v>
+        <v>2966.160990690623</v>
       </c>
     </row>
     <row r="8">
@@ -845,37 +845,37 @@
         <v>42917</v>
       </c>
       <c r="C8" t="n">
-        <v>2975.397567161147</v>
+        <v>2970.514773024578</v>
       </c>
       <c r="D8" t="n">
-        <v>2634.298988978767</v>
+        <v>2613.301851950644</v>
       </c>
       <c r="E8" t="n">
-        <v>3247.227694347878</v>
+        <v>3258.663176437274</v>
       </c>
       <c r="F8" t="n">
-        <v>2975.397567161147</v>
+        <v>2970.514773024578</v>
       </c>
       <c r="G8" t="n">
-        <v>2975.397567161147</v>
+        <v>2970.514773024578</v>
       </c>
       <c r="H8" t="n">
-        <v>-32.70888285404025</v>
+        <v>-38.36497428365897</v>
       </c>
       <c r="I8" t="n">
-        <v>-32.70888285404025</v>
+        <v>-38.36497428365897</v>
       </c>
       <c r="J8" t="n">
-        <v>-32.70888285404025</v>
+        <v>-38.36497428365897</v>
       </c>
       <c r="K8" t="n">
-        <v>-32.70888285404025</v>
+        <v>-38.36497428365897</v>
       </c>
       <c r="L8" t="n">
-        <v>-32.70888285404025</v>
+        <v>-38.36497428365897</v>
       </c>
       <c r="M8" t="n">
-        <v>-32.70888285404025</v>
+        <v>-38.36497428365897</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -887,7 +887,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>2942.688684307107</v>
+        <v>2932.149798740919</v>
       </c>
     </row>
     <row r="9">
@@ -898,37 +898,37 @@
         <v>42948</v>
       </c>
       <c r="C9" t="n">
-        <v>2970.71001352619</v>
+        <v>2966.364354099937</v>
       </c>
       <c r="D9" t="n">
-        <v>2900.818250550829</v>
+        <v>2862.301303596689</v>
       </c>
       <c r="E9" t="n">
-        <v>3539.370531576209</v>
+        <v>3496.645459797654</v>
       </c>
       <c r="F9" t="n">
-        <v>2970.71001352619</v>
+        <v>2966.364354099937</v>
       </c>
       <c r="G9" t="n">
-        <v>2970.71001352619</v>
+        <v>2966.364354099937</v>
       </c>
       <c r="H9" t="n">
-        <v>247.4410670104881</v>
+        <v>239.6278762427854</v>
       </c>
       <c r="I9" t="n">
-        <v>247.4410670104881</v>
+        <v>239.6278762427854</v>
       </c>
       <c r="J9" t="n">
-        <v>247.4410670104881</v>
+        <v>239.6278762427854</v>
       </c>
       <c r="K9" t="n">
-        <v>247.4410670104881</v>
+        <v>239.6278762427854</v>
       </c>
       <c r="L9" t="n">
-        <v>247.4410670104881</v>
+        <v>239.6278762427854</v>
       </c>
       <c r="M9" t="n">
-        <v>247.4410670104881</v>
+        <v>239.6278762427854</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -940,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>3218.151080536678</v>
+        <v>3205.992230342722</v>
       </c>
     </row>
     <row r="10">
@@ -951,37 +951,37 @@
         <v>42979</v>
       </c>
       <c r="C10" t="n">
-        <v>2966.022459891232</v>
+        <v>2962.213935175297</v>
       </c>
       <c r="D10" t="n">
-        <v>2673.228947528448</v>
+        <v>2643.395965663629</v>
       </c>
       <c r="E10" t="n">
-        <v>3307.377666576205</v>
+        <v>3292.143635354093</v>
       </c>
       <c r="F10" t="n">
-        <v>2966.022459891232</v>
+        <v>2962.213935175297</v>
       </c>
       <c r="G10" t="n">
-        <v>2966.022459891232</v>
+        <v>2962.213935175297</v>
       </c>
       <c r="H10" t="n">
-        <v>34.35427786720975</v>
+        <v>24.32836618741086</v>
       </c>
       <c r="I10" t="n">
-        <v>34.35427786720975</v>
+        <v>24.32836618741086</v>
       </c>
       <c r="J10" t="n">
-        <v>34.35427786720975</v>
+        <v>24.32836618741086</v>
       </c>
       <c r="K10" t="n">
-        <v>34.35427786720975</v>
+        <v>24.32836618741086</v>
       </c>
       <c r="L10" t="n">
-        <v>34.35427786720975</v>
+        <v>24.32836618741086</v>
       </c>
       <c r="M10" t="n">
-        <v>34.35427786720975</v>
+        <v>24.32836618741086</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>3000.376737758442</v>
+        <v>2986.542301362707</v>
       </c>
     </row>
     <row r="11">
@@ -1004,37 +1004,37 @@
         <v>43009</v>
       </c>
       <c r="C11" t="n">
-        <v>2961.48442196189</v>
+        <v>2958.19733672997</v>
       </c>
       <c r="D11" t="n">
-        <v>2790.830830856524</v>
+        <v>2762.301875910648</v>
       </c>
       <c r="E11" t="n">
-        <v>3425.999086423235</v>
+        <v>3451.217146124601</v>
       </c>
       <c r="F11" t="n">
-        <v>2961.48442196189</v>
+        <v>2958.19733672997</v>
       </c>
       <c r="G11" t="n">
-        <v>2961.48442196189</v>
+        <v>2958.19733672997</v>
       </c>
       <c r="H11" t="n">
-        <v>147.2222439272481</v>
+        <v>134.6823015344379</v>
       </c>
       <c r="I11" t="n">
-        <v>147.2222439272481</v>
+        <v>134.6823015344379</v>
       </c>
       <c r="J11" t="n">
-        <v>147.2222439272481</v>
+        <v>134.6823015344379</v>
       </c>
       <c r="K11" t="n">
-        <v>147.2222439272481</v>
+        <v>134.6823015344379</v>
       </c>
       <c r="L11" t="n">
-        <v>147.2222439272481</v>
+        <v>134.6823015344379</v>
       </c>
       <c r="M11" t="n">
-        <v>147.2222439272481</v>
+        <v>134.6823015344379</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -1046,7 +1046,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>3108.706665889138</v>
+        <v>3092.879638264408</v>
       </c>
     </row>
     <row r="12">
@@ -1057,37 +1057,37 @@
         <v>43040</v>
       </c>
       <c r="C12" t="n">
-        <v>2956.79511610157</v>
+        <v>2954.046851669801</v>
       </c>
       <c r="D12" t="n">
-        <v>2835.77742335491</v>
+        <v>2822.105262715525</v>
       </c>
       <c r="E12" t="n">
-        <v>3468.043657981537</v>
+        <v>3468.324987750668</v>
       </c>
       <c r="F12" t="n">
-        <v>2956.79511610157</v>
+        <v>2954.046851669801</v>
       </c>
       <c r="G12" t="n">
-        <v>2956.79511610157</v>
+        <v>2954.046851669801</v>
       </c>
       <c r="H12" t="n">
-        <v>201.598619412301</v>
+        <v>186.6814740468372</v>
       </c>
       <c r="I12" t="n">
-        <v>201.598619412301</v>
+        <v>186.6814740468372</v>
       </c>
       <c r="J12" t="n">
-        <v>201.598619412301</v>
+        <v>186.6814740468372</v>
       </c>
       <c r="K12" t="n">
-        <v>201.598619412301</v>
+        <v>186.6814740468372</v>
       </c>
       <c r="L12" t="n">
-        <v>201.598619412301</v>
+        <v>186.6814740468372</v>
       </c>
       <c r="M12" t="n">
-        <v>201.598619412301</v>
+        <v>186.6814740468372</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>3158.393735513871</v>
+        <v>3140.728325716638</v>
       </c>
     </row>
     <row r="13">
@@ -1110,37 +1110,37 @@
         <v>43070</v>
       </c>
       <c r="C13" t="n">
-        <v>2952.238136523686</v>
+        <v>2950.01833590796</v>
       </c>
       <c r="D13" t="n">
-        <v>2828.188526639899</v>
+        <v>2802.074074814263</v>
       </c>
       <c r="E13" t="n">
-        <v>3438.205388713474</v>
+        <v>3456.624562695002</v>
       </c>
       <c r="F13" t="n">
-        <v>2952.238136523686</v>
+        <v>2950.01833590796</v>
       </c>
       <c r="G13" t="n">
-        <v>2952.238136523686</v>
+        <v>2950.01833590796</v>
       </c>
       <c r="H13" t="n">
-        <v>191.0317219160831</v>
+        <v>174.5036888472422</v>
       </c>
       <c r="I13" t="n">
-        <v>191.0317219160831</v>
+        <v>174.5036888472422</v>
       </c>
       <c r="J13" t="n">
-        <v>191.0317219160831</v>
+        <v>174.5036888472422</v>
       </c>
       <c r="K13" t="n">
-        <v>191.0317219160831</v>
+        <v>174.5036888472422</v>
       </c>
       <c r="L13" t="n">
-        <v>191.0317219160831</v>
+        <v>174.5036888472422</v>
       </c>
       <c r="M13" t="n">
-        <v>191.0317219160831</v>
+        <v>174.5036888472422</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -1152,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>3143.269858439769</v>
+        <v>3124.522024755202</v>
       </c>
     </row>
     <row r="14">
@@ -1163,37 +1163,37 @@
         <v>43101</v>
       </c>
       <c r="C14" t="n">
-        <v>2947.529257626539</v>
+        <v>2945.855536287391</v>
       </c>
       <c r="D14" t="n">
-        <v>3025.195195160671</v>
+        <v>3009.38950250413</v>
       </c>
       <c r="E14" t="n">
-        <v>3656.466333105274</v>
+        <v>3633.312780987195</v>
       </c>
       <c r="F14" t="n">
-        <v>2947.529257626539</v>
+        <v>2945.855536287391</v>
       </c>
       <c r="G14" t="n">
-        <v>2947.529257626539</v>
+        <v>2945.855536287391</v>
       </c>
       <c r="H14" t="n">
-        <v>400.7142102533305</v>
+        <v>389.6740326879375</v>
       </c>
       <c r="I14" t="n">
-        <v>400.7142102533305</v>
+        <v>389.6740326879375</v>
       </c>
       <c r="J14" t="n">
-        <v>400.7142102533305</v>
+        <v>389.6740326879375</v>
       </c>
       <c r="K14" t="n">
-        <v>400.7142102533305</v>
+        <v>389.6740326879375</v>
       </c>
       <c r="L14" t="n">
-        <v>400.7142102533305</v>
+        <v>389.6740326879375</v>
       </c>
       <c r="M14" t="n">
-        <v>400.7142102533305</v>
+        <v>389.6740326879375</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -1205,7 +1205,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>3348.24346787987</v>
+        <v>3335.529568975328</v>
       </c>
     </row>
     <row r="15">
@@ -1216,37 +1216,37 @@
         <v>43132</v>
       </c>
       <c r="C15" t="n">
-        <v>2942.792981515172</v>
+        <v>2941.692646640734</v>
       </c>
       <c r="D15" t="n">
-        <v>2474.043330932516</v>
+        <v>2488.173254991103</v>
       </c>
       <c r="E15" t="n">
-        <v>3145.5801769055</v>
+        <v>3133.379443101813</v>
       </c>
       <c r="F15" t="n">
-        <v>2942.792981515172</v>
+        <v>2941.692646640734</v>
       </c>
       <c r="G15" t="n">
-        <v>2942.792981515172</v>
+        <v>2941.692646640734</v>
       </c>
       <c r="H15" t="n">
-        <v>-144.7771254472756</v>
+        <v>-156.2376143880343</v>
       </c>
       <c r="I15" t="n">
-        <v>-144.7771254472756</v>
+        <v>-156.2376143880343</v>
       </c>
       <c r="J15" t="n">
-        <v>-144.7771254472756</v>
+        <v>-156.2376143880343</v>
       </c>
       <c r="K15" t="n">
-        <v>-144.7771254472756</v>
+        <v>-156.2376143880343</v>
       </c>
       <c r="L15" t="n">
-        <v>-144.7771254472756</v>
+        <v>-156.2376143880343</v>
       </c>
       <c r="M15" t="n">
-        <v>-144.7771254472756</v>
+        <v>-156.2376143880343</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -1258,7 +1258,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>2798.015856067896</v>
+        <v>2785.455032252699</v>
       </c>
     </row>
     <row r="16">
@@ -1269,37 +1269,37 @@
         <v>43160</v>
       </c>
       <c r="C16" t="n">
-        <v>2938.515054704904</v>
+        <v>2937.932617282462</v>
       </c>
       <c r="D16" t="n">
-        <v>2760.796509403259</v>
+        <v>2775.57213074806</v>
       </c>
       <c r="E16" t="n">
-        <v>3416.199131636921</v>
+        <v>3429.986691631854</v>
       </c>
       <c r="F16" t="n">
-        <v>2938.515054704904</v>
+        <v>2937.932617282462</v>
       </c>
       <c r="G16" t="n">
-        <v>2938.515054704904</v>
+        <v>2937.932617282462</v>
       </c>
       <c r="H16" t="n">
-        <v>164.0450072901414</v>
+        <v>150.3837272806261</v>
       </c>
       <c r="I16" t="n">
-        <v>164.0450072901414</v>
+        <v>150.3837272806261</v>
       </c>
       <c r="J16" t="n">
-        <v>164.0450072901414</v>
+        <v>150.3837272806261</v>
       </c>
       <c r="K16" t="n">
-        <v>164.0450072901414</v>
+        <v>150.3837272806261</v>
       </c>
       <c r="L16" t="n">
-        <v>164.0450072901414</v>
+        <v>150.3837272806261</v>
       </c>
       <c r="M16" t="n">
-        <v>164.0450072901414</v>
+        <v>150.3837272806261</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>3102.560061995045</v>
+        <v>3088.316344563088</v>
       </c>
     </row>
     <row r="17">
@@ -1322,37 +1322,37 @@
         <v>43191</v>
       </c>
       <c r="C17" t="n">
-        <v>2933.757295249867</v>
+        <v>2933.768530230247</v>
       </c>
       <c r="D17" t="n">
-        <v>2471.95341241853</v>
+        <v>2454.576883187086</v>
       </c>
       <c r="E17" t="n">
-        <v>3127.724122902731</v>
+        <v>3112.798622974812</v>
       </c>
       <c r="F17" t="n">
-        <v>2933.757295249867</v>
+        <v>2933.768530230247</v>
       </c>
       <c r="G17" t="n">
-        <v>2933.757295249867</v>
+        <v>2933.768530230247</v>
       </c>
       <c r="H17" t="n">
-        <v>-135.6807821839752</v>
+        <v>-152.3648800531772</v>
       </c>
       <c r="I17" t="n">
-        <v>-135.6807821839752</v>
+        <v>-152.3648800531772</v>
       </c>
       <c r="J17" t="n">
-        <v>-135.6807821839752</v>
+        <v>-152.3648800531772</v>
       </c>
       <c r="K17" t="n">
-        <v>-135.6807821839752</v>
+        <v>-152.3648800531772</v>
       </c>
       <c r="L17" t="n">
-        <v>-135.6807821839752</v>
+        <v>-152.3648800531772</v>
       </c>
       <c r="M17" t="n">
-        <v>-135.6807821839752</v>
+        <v>-152.3648800531772</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -1364,7 +1364,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>2798.076513065892</v>
+        <v>2781.40365017707</v>
       </c>
     </row>
     <row r="18">
@@ -1375,37 +1375,37 @@
         <v>43221</v>
       </c>
       <c r="C18" t="n">
-        <v>2929.153011906283</v>
+        <v>2929.738768566813</v>
       </c>
       <c r="D18" t="n">
-        <v>2494.797395344032</v>
+        <v>2469.433228861739</v>
       </c>
       <c r="E18" t="n">
-        <v>3158.997291213809</v>
+        <v>3124.887546117958</v>
       </c>
       <c r="F18" t="n">
-        <v>2929.153011906283</v>
+        <v>2929.738768566813</v>
       </c>
       <c r="G18" t="n">
-        <v>2929.153011906283</v>
+        <v>2929.738768566813</v>
       </c>
       <c r="H18" t="n">
-        <v>-100.6165020036996</v>
+        <v>-119.8787935185774</v>
       </c>
       <c r="I18" t="n">
-        <v>-100.6165020036996</v>
+        <v>-119.8787935185774</v>
       </c>
       <c r="J18" t="n">
-        <v>-100.6165020036996</v>
+        <v>-119.8787935185774</v>
       </c>
       <c r="K18" t="n">
-        <v>-100.6165020036996</v>
+        <v>-119.8787935185774</v>
       </c>
       <c r="L18" t="n">
-        <v>-100.6165020036996</v>
+        <v>-119.8787935185774</v>
       </c>
       <c r="M18" t="n">
-        <v>-100.6165020036996</v>
+        <v>-119.8787935185774</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>2828.536509902583</v>
+        <v>2809.859975048235</v>
       </c>
     </row>
     <row r="19">
@@ -1428,37 +1428,37 @@
         <v>43252</v>
       </c>
       <c r="C19" t="n">
-        <v>2924.361354752808</v>
+        <v>2925.574679973975</v>
       </c>
       <c r="D19" t="n">
-        <v>2320.325346887802</v>
+        <v>2412.746729416013</v>
       </c>
       <c r="E19" t="n">
-        <v>2944.192169586981</v>
+        <v>3044.847464925835</v>
       </c>
       <c r="F19" t="n">
-        <v>2924.361354752808</v>
+        <v>2925.574679973975</v>
       </c>
       <c r="G19" t="n">
-        <v>2924.361354752808</v>
+        <v>2925.574679973975</v>
       </c>
       <c r="H19" t="n">
-        <v>-296.3781655460569</v>
+        <v>-198.7751558913257</v>
       </c>
       <c r="I19" t="n">
-        <v>-296.3781655460569</v>
+        <v>-198.7751558913257</v>
       </c>
       <c r="J19" t="n">
-        <v>-296.3781655460569</v>
+        <v>-198.7751558913257</v>
       </c>
       <c r="K19" t="n">
-        <v>-296.3781655460569</v>
+        <v>-198.7751558913257</v>
       </c>
       <c r="L19" t="n">
-        <v>-296.3781655460569</v>
+        <v>-198.7751558913257</v>
       </c>
       <c r="M19" t="n">
-        <v>-296.3781655460569</v>
+        <v>-198.7751558913257</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>2627.983189206751</v>
+        <v>2726.79952408265</v>
       </c>
     </row>
     <row r="20">
@@ -1481,37 +1481,37 @@
         <v>43282</v>
       </c>
       <c r="C20" t="n">
-        <v>2919.72426718493</v>
+        <v>2921.544916819617</v>
       </c>
       <c r="D20" t="n">
-        <v>2660.413587489099</v>
+        <v>2627.136251354359</v>
       </c>
       <c r="E20" t="n">
-        <v>3292.680998396348</v>
+        <v>3312.544497983364</v>
       </c>
       <c r="F20" t="n">
-        <v>2919.72426718493</v>
+        <v>2921.544916819617</v>
       </c>
       <c r="G20" t="n">
-        <v>2919.72426718493</v>
+        <v>2921.544916819617</v>
       </c>
       <c r="H20" t="n">
-        <v>65.38396280241871</v>
+        <v>47.91114525456644</v>
       </c>
       <c r="I20" t="n">
-        <v>65.38396280241871</v>
+        <v>47.91114525456644</v>
       </c>
       <c r="J20" t="n">
-        <v>65.38396280241871</v>
+        <v>47.91114525456644</v>
       </c>
       <c r="K20" t="n">
-        <v>65.38396280241871</v>
+        <v>47.91114525456644</v>
       </c>
       <c r="L20" t="n">
-        <v>65.38396280241871</v>
+        <v>47.91114525456644</v>
       </c>
       <c r="M20" t="n">
-        <v>65.38396280241871</v>
+        <v>47.91114525456644</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -1523,7 +1523,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>2985.108229987349</v>
+        <v>2969.456062074183</v>
       </c>
     </row>
     <row r="21">
@@ -1534,37 +1534,37 @@
         <v>43313</v>
       </c>
       <c r="C21" t="n">
-        <v>2914.93115681177</v>
+        <v>2917.380733233485</v>
       </c>
       <c r="D21" t="n">
-        <v>2796.431507875739</v>
+        <v>2757.946609301439</v>
       </c>
       <c r="E21" t="n">
-        <v>3415.445316252906</v>
+        <v>3408.659879786527</v>
       </c>
       <c r="F21" t="n">
-        <v>2914.93115681177</v>
+        <v>2917.380733233485</v>
       </c>
       <c r="G21" t="n">
-        <v>2914.93115681177</v>
+        <v>2917.380733233485</v>
       </c>
       <c r="H21" t="n">
-        <v>169.6887539732253</v>
+        <v>153.231955931903</v>
       </c>
       <c r="I21" t="n">
-        <v>169.6887539732253</v>
+        <v>153.231955931903</v>
       </c>
       <c r="J21" t="n">
-        <v>169.6887539732253</v>
+        <v>153.231955931903</v>
       </c>
       <c r="K21" t="n">
-        <v>169.6887539732253</v>
+        <v>153.231955931903</v>
       </c>
       <c r="L21" t="n">
-        <v>169.6887539732253</v>
+        <v>153.231955931903</v>
       </c>
       <c r="M21" t="n">
-        <v>169.6887539732253</v>
+        <v>153.231955931903</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>3084.619910784995</v>
+        <v>3070.612689165388</v>
       </c>
     </row>
     <row r="22">
@@ -1587,37 +1587,37 @@
         <v>43344</v>
       </c>
       <c r="C22" t="n">
-        <v>2910.138046438608</v>
+        <v>2913.216549647354</v>
       </c>
       <c r="D22" t="n">
-        <v>2587.672260831554</v>
+        <v>2544.749938355644</v>
       </c>
       <c r="E22" t="n">
-        <v>3227.1443892077</v>
+        <v>3217.662843643649</v>
       </c>
       <c r="F22" t="n">
-        <v>2910.138046438608</v>
+        <v>2913.216549647354</v>
       </c>
       <c r="G22" t="n">
-        <v>2910.138046438608</v>
+        <v>2913.216549647354</v>
       </c>
       <c r="H22" t="n">
-        <v>-6.31287301389471</v>
+        <v>-21.42295337841136</v>
       </c>
       <c r="I22" t="n">
-        <v>-6.31287301389471</v>
+        <v>-21.42295337841136</v>
       </c>
       <c r="J22" t="n">
-        <v>-6.31287301389471</v>
+        <v>-21.42295337841136</v>
       </c>
       <c r="K22" t="n">
-        <v>-6.31287301389471</v>
+        <v>-21.42295337841136</v>
       </c>
       <c r="L22" t="n">
-        <v>-6.31287301389471</v>
+        <v>-21.42295337841136</v>
       </c>
       <c r="M22" t="n">
-        <v>-6.31287301389471</v>
+        <v>-21.42295337841136</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -1629,7 +1629,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>2903.825173424714</v>
+        <v>2891.793596268942</v>
       </c>
     </row>
     <row r="23">
@@ -1640,37 +1640,37 @@
         <v>43374</v>
       </c>
       <c r="C23" t="n">
-        <v>2905.481823425189</v>
+        <v>2909.184694042138</v>
       </c>
       <c r="D23" t="n">
-        <v>2977.050205017786</v>
+        <v>2948.912627507415</v>
       </c>
       <c r="E23" t="n">
-        <v>3618.092958527528</v>
+        <v>3633.614260640304</v>
       </c>
       <c r="F23" t="n">
-        <v>2905.481823425189</v>
+        <v>2909.184694042138</v>
       </c>
       <c r="G23" t="n">
-        <v>2905.481823425189</v>
+        <v>2909.184694042138</v>
       </c>
       <c r="H23" t="n">
-        <v>402.325367067229</v>
+        <v>389.2197693373188</v>
       </c>
       <c r="I23" t="n">
-        <v>402.325367067229</v>
+        <v>389.2197693373188</v>
       </c>
       <c r="J23" t="n">
-        <v>402.325367067229</v>
+        <v>389.2197693373188</v>
       </c>
       <c r="K23" t="n">
-        <v>402.325367067229</v>
+        <v>389.2197693373188</v>
       </c>
       <c r="L23" t="n">
-        <v>402.325367067229</v>
+        <v>389.2197693373188</v>
       </c>
       <c r="M23" t="n">
-        <v>402.325367067229</v>
+        <v>389.2197693373188</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -1682,7 +1682,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>3307.807190492418</v>
+        <v>3298.404463379457</v>
       </c>
     </row>
     <row r="24">
@@ -1693,37 +1693,37 @@
         <v>43405</v>
       </c>
       <c r="C24" t="n">
-        <v>2900.670392977989</v>
+        <v>2905.018443250081</v>
       </c>
       <c r="D24" t="n">
-        <v>2703.28191163408</v>
+        <v>2691.098467877544</v>
       </c>
       <c r="E24" t="n">
-        <v>3325.991966264317</v>
+        <v>3310.079912569668</v>
       </c>
       <c r="F24" t="n">
-        <v>2900.670392977989</v>
+        <v>2905.018443250081</v>
       </c>
       <c r="G24" t="n">
-        <v>2900.670392977989</v>
+        <v>2905.018443250081</v>
       </c>
       <c r="H24" t="n">
-        <v>102.432243894892</v>
+        <v>91.20828561836294</v>
       </c>
       <c r="I24" t="n">
-        <v>102.432243894892</v>
+        <v>91.20828561836294</v>
       </c>
       <c r="J24" t="n">
-        <v>102.432243894892</v>
+        <v>91.20828561836294</v>
       </c>
       <c r="K24" t="n">
-        <v>102.432243894892</v>
+        <v>91.20828561836294</v>
       </c>
       <c r="L24" t="n">
-        <v>102.432243894892</v>
+        <v>91.20828561836294</v>
       </c>
       <c r="M24" t="n">
-        <v>102.432243894892</v>
+        <v>91.20828561836294</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -1735,7 +1735,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>3003.102636872881</v>
+        <v>2996.226728868444</v>
       </c>
     </row>
     <row r="25">
@@ -1746,37 +1746,37 @@
         <v>43435</v>
       </c>
       <c r="C25" t="n">
-        <v>2895.980953768953</v>
+        <v>2900.986067096369</v>
       </c>
       <c r="D25" t="n">
-        <v>2687.052874022015</v>
+        <v>2676.544253927792</v>
       </c>
       <c r="E25" t="n">
-        <v>3326.375828225145</v>
+        <v>3332.513782254649</v>
       </c>
       <c r="F25" t="n">
-        <v>2895.980953768953</v>
+        <v>2900.986067096369</v>
       </c>
       <c r="G25" t="n">
-        <v>2895.980953768953</v>
+        <v>2900.986067096369</v>
       </c>
       <c r="H25" t="n">
-        <v>117.6957684795023</v>
+        <v>107.4217716668494</v>
       </c>
       <c r="I25" t="n">
-        <v>117.6957684795023</v>
+        <v>107.4217716668494</v>
       </c>
       <c r="J25" t="n">
-        <v>117.6957684795023</v>
+        <v>107.4217716668494</v>
       </c>
       <c r="K25" t="n">
-        <v>117.6957684795023</v>
+        <v>107.4217716668494</v>
       </c>
       <c r="L25" t="n">
-        <v>117.6957684795023</v>
+        <v>107.4217716668494</v>
       </c>
       <c r="M25" t="n">
-        <v>117.6957684795023</v>
+        <v>107.4217716668494</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>3013.676722248455</v>
+        <v>3008.407838763219</v>
       </c>
     </row>
     <row r="26">
@@ -1799,37 +1799,37 @@
         <v>43466</v>
       </c>
       <c r="C26" t="n">
-        <v>2891.135199919615</v>
+        <v>2896.8192784042</v>
       </c>
       <c r="D26" t="n">
-        <v>3014.86560898763</v>
+        <v>3006.823404202998</v>
       </c>
       <c r="E26" t="n">
-        <v>3633.86463216202</v>
+        <v>3638.912244040754</v>
       </c>
       <c r="F26" t="n">
-        <v>2891.135199919615</v>
+        <v>2896.8192784042</v>
       </c>
       <c r="G26" t="n">
-        <v>2891.135199919615</v>
+        <v>2896.8192784042</v>
       </c>
       <c r="H26" t="n">
-        <v>431.4474137761153</v>
+        <v>421.508596304867</v>
       </c>
       <c r="I26" t="n">
-        <v>431.4474137761153</v>
+        <v>421.508596304867</v>
       </c>
       <c r="J26" t="n">
-        <v>431.4474137761153</v>
+        <v>421.508596304867</v>
       </c>
       <c r="K26" t="n">
-        <v>431.4474137761153</v>
+        <v>421.508596304867</v>
       </c>
       <c r="L26" t="n">
-        <v>431.4474137761153</v>
+        <v>421.508596304867</v>
       </c>
       <c r="M26" t="n">
-        <v>431.4474137761153</v>
+        <v>421.508596304867</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -1841,7 +1841,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>3322.58261369573</v>
+        <v>3318.327874709067</v>
       </c>
     </row>
     <row r="27">
@@ -1852,37 +1852,37 @@
         <v>43497</v>
       </c>
       <c r="C27" t="n">
-        <v>2886.27596991365</v>
+        <v>2892.634403301548</v>
       </c>
       <c r="D27" t="n">
-        <v>2344.042673631991</v>
+        <v>2332.322046035965</v>
       </c>
       <c r="E27" t="n">
-        <v>3005.494326444737</v>
+        <v>3011.53723111332</v>
       </c>
       <c r="F27" t="n">
-        <v>2886.27596991365</v>
+        <v>2892.634403301548</v>
       </c>
       <c r="G27" t="n">
-        <v>2886.27596991365</v>
+        <v>2892.634403301548</v>
       </c>
       <c r="H27" t="n">
-        <v>-198.9693132558232</v>
+        <v>-211.0391667714189</v>
       </c>
       <c r="I27" t="n">
-        <v>-198.9693132558232</v>
+        <v>-211.0391667714189</v>
       </c>
       <c r="J27" t="n">
-        <v>-198.9693132558232</v>
+        <v>-211.0391667714189</v>
       </c>
       <c r="K27" t="n">
-        <v>-198.9693132558232</v>
+        <v>-211.0391667714189</v>
       </c>
       <c r="L27" t="n">
-        <v>-198.9693132558232</v>
+        <v>-211.0391667714189</v>
       </c>
       <c r="M27" t="n">
-        <v>-198.9693132558232</v>
+        <v>-211.0391667714189</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>2687.306656657827</v>
+        <v>2681.595236530129</v>
       </c>
     </row>
     <row r="28">
@@ -1905,37 +1905,37 @@
         <v>43525</v>
       </c>
       <c r="C28" t="n">
-        <v>2881.886987972779</v>
+        <v>2888.854516112054</v>
       </c>
       <c r="D28" t="n">
-        <v>2673.59814643842</v>
+        <v>2654.919145042522</v>
       </c>
       <c r="E28" t="n">
-        <v>3304.702166291002</v>
+        <v>3297.022057438765</v>
       </c>
       <c r="F28" t="n">
-        <v>2881.886987972779</v>
+        <v>2888.854516112054</v>
       </c>
       <c r="G28" t="n">
-        <v>2881.886987972779</v>
+        <v>2888.854516112054</v>
       </c>
       <c r="H28" t="n">
-        <v>114.4744018953851</v>
+        <v>97.81215294714802</v>
       </c>
       <c r="I28" t="n">
-        <v>114.4744018953851</v>
+        <v>97.81215294714802</v>
       </c>
       <c r="J28" t="n">
-        <v>114.4744018953851</v>
+        <v>97.81215294714802</v>
       </c>
       <c r="K28" t="n">
-        <v>114.4744018953851</v>
+        <v>97.81215294714802</v>
       </c>
       <c r="L28" t="n">
-        <v>114.4744018953851</v>
+        <v>97.81215294714802</v>
       </c>
       <c r="M28" t="n">
-        <v>114.4744018953851</v>
+        <v>97.81215294714802</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -1947,7 +1947,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>2996.361389868164</v>
+        <v>2986.666669059202</v>
       </c>
     </row>
     <row r="29">
@@ -1958,37 +1958,37 @@
         <v>43556</v>
       </c>
       <c r="C29" t="n">
-        <v>2877.027757966813</v>
+        <v>2884.669641009401</v>
       </c>
       <c r="D29" t="n">
-        <v>2638.192268688193</v>
+        <v>2636.868398267735</v>
       </c>
       <c r="E29" t="n">
-        <v>3258.821950067508</v>
+        <v>3282.055093941633</v>
       </c>
       <c r="F29" t="n">
-        <v>2877.027757966813</v>
+        <v>2884.669641009401</v>
       </c>
       <c r="G29" t="n">
-        <v>2877.027757966813</v>
+        <v>2884.669641009401</v>
       </c>
       <c r="H29" t="n">
-        <v>90.09951348375327</v>
+        <v>66.01691079361223</v>
       </c>
       <c r="I29" t="n">
-        <v>90.09951348375327</v>
+        <v>66.01691079361223</v>
       </c>
       <c r="J29" t="n">
-        <v>90.09951348375327</v>
+        <v>66.01691079361223</v>
       </c>
       <c r="K29" t="n">
-        <v>90.09951348375327</v>
+        <v>66.01691079361223</v>
       </c>
       <c r="L29" t="n">
-        <v>90.09951348375327</v>
+        <v>66.01691079361223</v>
       </c>
       <c r="M29" t="n">
-        <v>90.09951348375327</v>
+        <v>66.01691079361223</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -2000,7 +2000,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>2967.127271450566</v>
+        <v>2950.686551803014</v>
       </c>
     </row>
     <row r="30">
@@ -2011,37 +2011,37 @@
         <v>43586</v>
       </c>
       <c r="C30" t="n">
-        <v>2872.283670838925</v>
+        <v>2880.602783978281</v>
       </c>
       <c r="D30" t="n">
-        <v>2466.056050037193</v>
+        <v>2425.660549611036</v>
       </c>
       <c r="E30" t="n">
-        <v>3116.092307453082</v>
+        <v>3070.231027685791</v>
       </c>
       <c r="F30" t="n">
-        <v>2872.283670838925</v>
+        <v>2880.602783978281</v>
       </c>
       <c r="G30" t="n">
-        <v>2872.283670838925</v>
+        <v>2880.602783978281</v>
       </c>
       <c r="H30" t="n">
-        <v>-89.0007925039541</v>
+        <v>-118.5036407667231</v>
       </c>
       <c r="I30" t="n">
-        <v>-89.0007925039541</v>
+        <v>-118.5036407667231</v>
       </c>
       <c r="J30" t="n">
-        <v>-89.0007925039541</v>
+        <v>-118.5036407667231</v>
       </c>
       <c r="K30" t="n">
-        <v>-89.0007925039541</v>
+        <v>-118.5036407667231</v>
       </c>
       <c r="L30" t="n">
-        <v>-89.0007925039541</v>
+        <v>-118.5036407667231</v>
       </c>
       <c r="M30" t="n">
-        <v>-89.0007925039541</v>
+        <v>-118.5036407667231</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -2053,7 +2053,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>2783.282878334971</v>
+        <v>2762.099143211557</v>
       </c>
     </row>
     <row r="31">
@@ -2064,37 +2064,37 @@
         <v>43617</v>
       </c>
       <c r="C31" t="n">
-        <v>2867.38144747344</v>
+        <v>2876.400365046122</v>
       </c>
       <c r="D31" t="n">
-        <v>2017.702267136564</v>
+        <v>2169.129750205001</v>
       </c>
       <c r="E31" t="n">
-        <v>2648.887846672811</v>
+        <v>2799.243480282603</v>
       </c>
       <c r="F31" t="n">
-        <v>2867.38144747344</v>
+        <v>2876.400365046122</v>
       </c>
       <c r="G31" t="n">
-        <v>2867.38144747344</v>
+        <v>2876.400365046122</v>
       </c>
       <c r="H31" t="n">
-        <v>-524.5385525921562</v>
+        <v>-389.5573041515296</v>
       </c>
       <c r="I31" t="n">
-        <v>-524.5385525921562</v>
+        <v>-389.5573041515296</v>
       </c>
       <c r="J31" t="n">
-        <v>-524.5385525921562</v>
+        <v>-389.5573041515296</v>
       </c>
       <c r="K31" t="n">
-        <v>-524.5385525921562</v>
+        <v>-389.5573041515296</v>
       </c>
       <c r="L31" t="n">
-        <v>-524.5385525921562</v>
+        <v>-389.5573041515296</v>
       </c>
       <c r="M31" t="n">
-        <v>-524.5385525921562</v>
+        <v>-389.5573041515296</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>2342.842894881284</v>
+        <v>2486.843060894593</v>
       </c>
     </row>
     <row r="32">
@@ -2117,37 +2117,37 @@
         <v>43647</v>
       </c>
       <c r="C32" t="n">
-        <v>2862.618081893838</v>
+        <v>2872.329506641965</v>
       </c>
       <c r="D32" t="n">
-        <v>2720.88379783559</v>
+        <v>2692.228377562364</v>
       </c>
       <c r="E32" t="n">
-        <v>3343.148821126721</v>
+        <v>3332.838135858502</v>
       </c>
       <c r="F32" t="n">
-        <v>2862.618081893838</v>
+        <v>2872.329506641965</v>
       </c>
       <c r="G32" t="n">
-        <v>2862.618081893838</v>
+        <v>2872.329506641965</v>
       </c>
       <c r="H32" t="n">
-        <v>165.4213706446986</v>
+        <v>135.5230735563309</v>
       </c>
       <c r="I32" t="n">
-        <v>165.4213706446986</v>
+        <v>135.5230735563309</v>
       </c>
       <c r="J32" t="n">
-        <v>165.4213706446986</v>
+        <v>135.5230735563309</v>
       </c>
       <c r="K32" t="n">
-        <v>165.4213706446986</v>
+        <v>135.5230735563309</v>
       </c>
       <c r="L32" t="n">
-        <v>165.4213706446986</v>
+        <v>135.5230735563309</v>
       </c>
       <c r="M32" t="n">
-        <v>165.4213706446986</v>
+        <v>135.5230735563309</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -2159,7 +2159,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>3028.039452538537</v>
+        <v>3007.852580198296</v>
       </c>
     </row>
     <row r="33">
@@ -2170,37 +2170,37 @@
         <v>43678</v>
       </c>
       <c r="C33" t="n">
-        <v>2857.695937461584</v>
+        <v>2868.122952957669</v>
       </c>
       <c r="D33" t="n">
-        <v>2610.987147911867</v>
+        <v>2613.19134312727</v>
       </c>
       <c r="E33" t="n">
-        <v>3272.019713289384</v>
+        <v>3267.36390427009</v>
       </c>
       <c r="F33" t="n">
-        <v>2857.695937461584</v>
+        <v>2868.122952957669</v>
       </c>
       <c r="G33" t="n">
-        <v>2857.695937461584</v>
+        <v>2868.122952957669</v>
       </c>
       <c r="H33" t="n">
-        <v>92.18623320692016</v>
+        <v>67.01683081993797</v>
       </c>
       <c r="I33" t="n">
-        <v>92.18623320692016</v>
+        <v>67.01683081993797</v>
       </c>
       <c r="J33" t="n">
-        <v>92.18623320692016</v>
+        <v>67.01683081993797</v>
       </c>
       <c r="K33" t="n">
-        <v>92.18623320692016</v>
+        <v>67.01683081993797</v>
       </c>
       <c r="L33" t="n">
-        <v>92.18623320692016</v>
+        <v>67.01683081993797</v>
       </c>
       <c r="M33" t="n">
-        <v>92.18623320692016</v>
+        <v>67.01683081993797</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -2212,7 +2212,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>2949.882170668503</v>
+        <v>2935.139783777607</v>
       </c>
     </row>
     <row r="34">
@@ -2223,37 +2223,37 @@
         <v>43709</v>
       </c>
       <c r="C34" t="n">
-        <v>2852.737939148793</v>
+        <v>2863.912011144452</v>
       </c>
       <c r="D34" t="n">
-        <v>2475.728409137458</v>
+        <v>2473.40983894932</v>
       </c>
       <c r="E34" t="n">
-        <v>3104.851758380867</v>
+        <v>3138.927425595064</v>
       </c>
       <c r="F34" t="n">
-        <v>2852.737939148793</v>
+        <v>2863.912011144452</v>
       </c>
       <c r="G34" t="n">
-        <v>2852.737939148793</v>
+        <v>2863.912011144452</v>
       </c>
       <c r="H34" t="n">
-        <v>-42.71307409731043</v>
+        <v>-62.77063366834146</v>
       </c>
       <c r="I34" t="n">
-        <v>-42.71307409731043</v>
+        <v>-62.77063366834146</v>
       </c>
       <c r="J34" t="n">
-        <v>-42.71307409731043</v>
+        <v>-62.77063366834146</v>
       </c>
       <c r="K34" t="n">
-        <v>-42.71307409731043</v>
+        <v>-62.77063366834146</v>
       </c>
       <c r="L34" t="n">
-        <v>-42.71307409731043</v>
+        <v>-62.77063366834146</v>
       </c>
       <c r="M34" t="n">
-        <v>-42.71307409731043</v>
+        <v>-62.77063366834146</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -2265,7 +2265,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>2810.024865051483</v>
+        <v>2801.14137747611</v>
       </c>
     </row>
     <row r="35">
@@ -2276,37 +2276,37 @@
         <v>43739</v>
       </c>
       <c r="C35" t="n">
-        <v>2847.939876265449</v>
+        <v>2859.83690616392</v>
       </c>
       <c r="D35" t="n">
-        <v>3175.881109916618</v>
+        <v>3185.505361782671</v>
       </c>
       <c r="E35" t="n">
-        <v>3845.894671248339</v>
+        <v>3832.918455869362</v>
       </c>
       <c r="F35" t="n">
-        <v>2847.939876265449</v>
+        <v>2859.83690616392</v>
       </c>
       <c r="G35" t="n">
-        <v>2847.939876265449</v>
+        <v>2859.83690616392</v>
       </c>
       <c r="H35" t="n">
-        <v>656.0287705168172</v>
+        <v>642.5752067638764</v>
       </c>
       <c r="I35" t="n">
-        <v>656.0287705168172</v>
+        <v>642.5752067638764</v>
       </c>
       <c r="J35" t="n">
-        <v>656.0287705168172</v>
+        <v>642.5752067638764</v>
       </c>
       <c r="K35" t="n">
-        <v>656.0287705168172</v>
+        <v>642.5752067638764</v>
       </c>
       <c r="L35" t="n">
-        <v>656.0287705168172</v>
+        <v>642.5752067638764</v>
       </c>
       <c r="M35" t="n">
-        <v>656.0287705168172</v>
+        <v>642.5752067638764</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -2318,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>3503.968646782266</v>
+        <v>3502.412112927796</v>
       </c>
     </row>
     <row r="36">
@@ -2329,37 +2329,37 @@
         <v>43770</v>
       </c>
       <c r="C36" t="n">
-        <v>2842.95867150322</v>
+        <v>2855.625964332726</v>
       </c>
       <c r="D36" t="n">
-        <v>2531.978066068797</v>
+        <v>2519.389173063778</v>
       </c>
       <c r="E36" t="n">
-        <v>3160.974399001071</v>
+        <v>3171.058148448459</v>
       </c>
       <c r="F36" t="n">
-        <v>2842.95867150322</v>
+        <v>2855.625964332726</v>
       </c>
       <c r="G36" t="n">
-        <v>2842.95867150322</v>
+        <v>2855.625964332726</v>
       </c>
       <c r="H36" t="n">
-        <v>-1.312984850012128</v>
+        <v>-8.685816709678946</v>
       </c>
       <c r="I36" t="n">
-        <v>-1.312984850012128</v>
+        <v>-8.685816709678946</v>
       </c>
       <c r="J36" t="n">
-        <v>-1.312984850012128</v>
+        <v>-8.685816709678946</v>
       </c>
       <c r="K36" t="n">
-        <v>-1.312984850012128</v>
+        <v>-8.685816709678946</v>
       </c>
       <c r="L36" t="n">
-        <v>-1.312984850012128</v>
+        <v>-8.685816709678946</v>
       </c>
       <c r="M36" t="n">
-        <v>-1.312984850012128</v>
+        <v>-8.685816709678946</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>2841.645686653208</v>
+        <v>2846.940147623047</v>
       </c>
     </row>
     <row r="37">
@@ -2382,37 +2382,37 @@
         <v>43800</v>
       </c>
       <c r="C37" t="n">
-        <v>2838.138150765579</v>
+        <v>2851.550859334797</v>
       </c>
       <c r="D37" t="n">
-        <v>2570.838310299614</v>
+        <v>2565.155910643186</v>
       </c>
       <c r="E37" t="n">
-        <v>3217.238793254357</v>
+        <v>3230.389405773926</v>
       </c>
       <c r="F37" t="n">
-        <v>2838.138150765579</v>
+        <v>2851.550859334797</v>
       </c>
       <c r="G37" t="n">
-        <v>2838.138150765579</v>
+        <v>2851.550859334797</v>
       </c>
       <c r="H37" t="n">
-        <v>44.86610962591639</v>
+        <v>40.79774003380454</v>
       </c>
       <c r="I37" t="n">
-        <v>44.86610962591639</v>
+        <v>40.79774003380454</v>
       </c>
       <c r="J37" t="n">
-        <v>44.86610962591639</v>
+        <v>40.79774003380454</v>
       </c>
       <c r="K37" t="n">
-        <v>44.86610962591639</v>
+        <v>40.79774003380454</v>
       </c>
       <c r="L37" t="n">
-        <v>44.86610962591639</v>
+        <v>40.79774003380454</v>
       </c>
       <c r="M37" t="n">
-        <v>44.86610962591639</v>
+        <v>40.79774003380454</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -2424,7 +2424,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>2883.004260391496</v>
+        <v>2892.348599368602</v>
       </c>
     </row>
     <row r="38">
@@ -2435,37 +2435,37 @@
         <v>43831</v>
       </c>
       <c r="C38" t="n">
-        <v>2833.153419009707</v>
+        <v>2847.339917510025</v>
       </c>
       <c r="D38" t="n">
-        <v>2990.691587652983</v>
+        <v>2948.862356918684</v>
       </c>
       <c r="E38" t="n">
-        <v>3623.888709839382</v>
+        <v>3631.802192696575</v>
       </c>
       <c r="F38" t="n">
-        <v>2833.153419009707</v>
+        <v>2847.339917510025</v>
       </c>
       <c r="G38" t="n">
-        <v>2833.153419009707</v>
+        <v>2847.339917510025</v>
       </c>
       <c r="H38" t="n">
-        <v>462.402982014717</v>
+        <v>453.4052923112651</v>
       </c>
       <c r="I38" t="n">
-        <v>462.402982014717</v>
+        <v>453.4052923112651</v>
       </c>
       <c r="J38" t="n">
-        <v>462.402982014717</v>
+        <v>453.4052923112651</v>
       </c>
       <c r="K38" t="n">
-        <v>462.402982014717</v>
+        <v>453.4052923112651</v>
       </c>
       <c r="L38" t="n">
-        <v>462.402982014717</v>
+        <v>453.4052923112651</v>
       </c>
       <c r="M38" t="n">
-        <v>462.402982014717</v>
+        <v>453.4052923112651</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -2477,7 +2477,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>3295.556401024424</v>
+        <v>3300.74520982129</v>
       </c>
     </row>
     <row r="39">
@@ -2488,37 +2488,37 @@
         <v>43862</v>
       </c>
       <c r="C39" t="n">
-        <v>2828.168687253835</v>
+        <v>2843.128975685254</v>
       </c>
       <c r="D39" t="n">
-        <v>2255.951230609598</v>
+        <v>2245.989804534625</v>
       </c>
       <c r="E39" t="n">
-        <v>2901.602275975643</v>
+        <v>2906.080309204336</v>
       </c>
       <c r="F39" t="n">
-        <v>2828.168687253835</v>
+        <v>2843.128975685254</v>
       </c>
       <c r="G39" t="n">
-        <v>2828.168687253835</v>
+        <v>2843.128975685254</v>
       </c>
       <c r="H39" t="n">
-        <v>-252.9907645251102</v>
+        <v>-265.8099516050862</v>
       </c>
       <c r="I39" t="n">
-        <v>-252.9907645251102</v>
+        <v>-265.8099516050862</v>
       </c>
       <c r="J39" t="n">
-        <v>-252.9907645251102</v>
+        <v>-265.8099516050862</v>
       </c>
       <c r="K39" t="n">
-        <v>-252.9907645251102</v>
+        <v>-265.8099516050862</v>
       </c>
       <c r="L39" t="n">
-        <v>-252.9907645251102</v>
+        <v>-265.8099516050862</v>
       </c>
       <c r="M39" t="n">
-        <v>-252.9907645251102</v>
+        <v>-265.8099516050862</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>2575.177922728725</v>
+        <v>2577.319024080168</v>
       </c>
     </row>
     <row r="40">
@@ -2541,37 +2541,37 @@
         <v>43891</v>
       </c>
       <c r="C40" t="n">
-        <v>2823.50555109763</v>
+        <v>2839.189707492979</v>
       </c>
       <c r="D40" t="n">
-        <v>2784.129272851629</v>
+        <v>2786.77464894133</v>
       </c>
       <c r="E40" t="n">
-        <v>3400.457918892111</v>
+        <v>3433.273363507982</v>
       </c>
       <c r="F40" t="n">
-        <v>2823.50555109763</v>
+        <v>2839.189707492979</v>
       </c>
       <c r="G40" t="n">
-        <v>2823.50555109763</v>
+        <v>2839.189707492979</v>
       </c>
       <c r="H40" t="n">
-        <v>274.2179556848583</v>
+        <v>266.304224434558</v>
       </c>
       <c r="I40" t="n">
-        <v>274.2179556848583</v>
+        <v>266.304224434558</v>
       </c>
       <c r="J40" t="n">
-        <v>274.2179556848583</v>
+        <v>266.304224434558</v>
       </c>
       <c r="K40" t="n">
-        <v>274.2179556848583</v>
+        <v>266.304224434558</v>
       </c>
       <c r="L40" t="n">
-        <v>274.2179556848583</v>
+        <v>266.304224434558</v>
       </c>
       <c r="M40" t="n">
-        <v>274.2179556848583</v>
+        <v>266.304224434558</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -2583,7 +2583,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>3097.723506782489</v>
+        <v>3105.493931927537</v>
       </c>
     </row>
     <row r="41">
@@ -2594,37 +2594,37 @@
         <v>43922</v>
       </c>
       <c r="C41" t="n">
-        <v>2818.520819344445</v>
+        <v>2834.978765632272</v>
       </c>
       <c r="D41" t="n">
-        <v>1903.372796089237</v>
+        <v>1946.778759691205</v>
       </c>
       <c r="E41" t="n">
-        <v>2556.686635238739</v>
+        <v>2579.968764623022</v>
       </c>
       <c r="F41" t="n">
-        <v>2818.520819344445</v>
+        <v>2834.978765632272</v>
       </c>
       <c r="G41" t="n">
-        <v>2818.520819344445</v>
+        <v>2834.978765632272</v>
       </c>
       <c r="H41" t="n">
-        <v>-585.5535082401137</v>
+        <v>-587.27531778069</v>
       </c>
       <c r="I41" t="n">
-        <v>-585.5535082401137</v>
+        <v>-587.27531778069</v>
       </c>
       <c r="J41" t="n">
-        <v>-585.5535082401137</v>
+        <v>-587.27531778069</v>
       </c>
       <c r="K41" t="n">
-        <v>-585.5535082401137</v>
+        <v>-587.27531778069</v>
       </c>
       <c r="L41" t="n">
-        <v>-585.5535082401137</v>
+        <v>-587.27531778069</v>
       </c>
       <c r="M41" t="n">
-        <v>-585.5535082401137</v>
+        <v>-587.27531778069</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -2636,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>2232.967311104332</v>
+        <v>2247.703447851582</v>
       </c>
     </row>
     <row r="42">
@@ -2647,37 +2647,37 @@
         <v>43952</v>
       </c>
       <c r="C42" t="n">
-        <v>2813.696885395178</v>
+        <v>2830.903660644199</v>
       </c>
       <c r="D42" t="n">
-        <v>2358.896042323866</v>
+        <v>2340.440486806994</v>
       </c>
       <c r="E42" t="n">
-        <v>3000.565590776428</v>
+        <v>3018.375059382941</v>
       </c>
       <c r="F42" t="n">
-        <v>2813.696885395178</v>
+        <v>2830.903660644199</v>
       </c>
       <c r="G42" t="n">
-        <v>2813.696885395178</v>
+        <v>2830.903660644199</v>
       </c>
       <c r="H42" t="n">
-        <v>-141.9473170486197</v>
+        <v>-138.8629349754095</v>
       </c>
       <c r="I42" t="n">
-        <v>-141.9473170486197</v>
+        <v>-138.8629349754095</v>
       </c>
       <c r="J42" t="n">
-        <v>-141.9473170486197</v>
+        <v>-138.8629349754095</v>
       </c>
       <c r="K42" t="n">
-        <v>-141.9473170486197</v>
+        <v>-138.8629349754095</v>
       </c>
       <c r="L42" t="n">
-        <v>-141.9473170486197</v>
+        <v>-138.8629349754095</v>
       </c>
       <c r="M42" t="n">
-        <v>-141.9473170486197</v>
+        <v>-138.8629349754095</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -2689,7 +2689,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>2671.749568346558</v>
+        <v>2692.040725668789</v>
       </c>
     </row>
     <row r="43">
@@ -2700,37 +2700,37 @@
         <v>43983</v>
       </c>
       <c r="C43" t="n">
-        <v>2808.712153647602</v>
+        <v>2826.69271882319</v>
       </c>
       <c r="D43" t="n">
-        <v>2654.281078678348</v>
+        <v>2692.410741473681</v>
       </c>
       <c r="E43" t="n">
-        <v>3268.069319909237</v>
+        <v>3319.346712209991</v>
       </c>
       <c r="F43" t="n">
-        <v>2808.712153647602</v>
+        <v>2826.69271882319</v>
       </c>
       <c r="G43" t="n">
-        <v>2808.712153647602</v>
+        <v>2826.69271882319</v>
       </c>
       <c r="H43" t="n">
-        <v>158.6910282159252</v>
+        <v>181.4572192752269</v>
       </c>
       <c r="I43" t="n">
-        <v>158.6910282159252</v>
+        <v>181.4572192752269</v>
       </c>
       <c r="J43" t="n">
-        <v>158.6910282159252</v>
+        <v>181.4572192752269</v>
       </c>
       <c r="K43" t="n">
-        <v>158.6910282159252</v>
+        <v>181.4572192752269</v>
       </c>
       <c r="L43" t="n">
-        <v>158.6910282159252</v>
+        <v>181.4572192752269</v>
       </c>
       <c r="M43" t="n">
-        <v>158.6910282159252</v>
+        <v>181.4572192752269</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -2742,7 +2742,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>2967.403181863527</v>
+        <v>3008.149938098417</v>
       </c>
     </row>
     <row r="44">
@@ -2753,37 +2753,37 @@
         <v>44013</v>
       </c>
       <c r="C44" t="n">
-        <v>2803.888219688401</v>
+        <v>2822.61761378992</v>
       </c>
       <c r="D44" t="n">
-        <v>2349.782102605218</v>
+        <v>2404.717049665832</v>
       </c>
       <c r="E44" t="n">
-        <v>2967.934252709103</v>
+        <v>3046.276050936653</v>
       </c>
       <c r="F44" t="n">
-        <v>2803.888219688401</v>
+        <v>2822.61761378992</v>
       </c>
       <c r="G44" t="n">
-        <v>2803.888219688401</v>
+        <v>2822.61761378992</v>
       </c>
       <c r="H44" t="n">
-        <v>-128.8308166258442</v>
+        <v>-123.2860854142211</v>
       </c>
       <c r="I44" t="n">
-        <v>-128.8308166258442</v>
+        <v>-123.2860854142211</v>
       </c>
       <c r="J44" t="n">
-        <v>-128.8308166258442</v>
+        <v>-123.2860854142211</v>
       </c>
       <c r="K44" t="n">
-        <v>-128.8308166258442</v>
+        <v>-123.2860854142211</v>
       </c>
       <c r="L44" t="n">
-        <v>-128.8308166258442</v>
+        <v>-123.2860854142211</v>
       </c>
       <c r="M44" t="n">
-        <v>-128.8308166258442</v>
+        <v>-123.2860854142211</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -2795,7 +2795,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>2675.057403062557</v>
+        <v>2699.331528375699</v>
       </c>
     </row>
     <row r="45">
@@ -2806,37 +2806,37 @@
         <v>44044</v>
       </c>
       <c r="C45" t="n">
-        <v>2798.903487930561</v>
+        <v>2818.406671922207</v>
       </c>
       <c r="D45" t="n">
-        <v>2807.932184478912</v>
+        <v>2811.625643188919</v>
       </c>
       <c r="E45" t="n">
-        <v>3451.199443517516</v>
+        <v>3472.648970320648</v>
       </c>
       <c r="F45" t="n">
-        <v>2798.903487930561</v>
+        <v>2818.406671922207</v>
       </c>
       <c r="G45" t="n">
-        <v>2798.903487930561</v>
+        <v>2818.406671922207</v>
       </c>
       <c r="H45" t="n">
-        <v>325.3680059262517</v>
+        <v>326.1147226197962</v>
       </c>
       <c r="I45" t="n">
-        <v>325.3680059262517</v>
+        <v>326.1147226197962</v>
       </c>
       <c r="J45" t="n">
-        <v>325.3680059262517</v>
+        <v>326.1147226197962</v>
       </c>
       <c r="K45" t="n">
-        <v>325.3680059262517</v>
+        <v>326.1147226197962</v>
       </c>
       <c r="L45" t="n">
-        <v>325.3680059262517</v>
+        <v>326.1147226197962</v>
       </c>
       <c r="M45" t="n">
-        <v>325.3680059262517</v>
+        <v>326.1147226197962</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>3124.271493856812</v>
+        <v>3144.521394542003</v>
       </c>
     </row>
     <row r="46">
@@ -2859,37 +2859,37 @@
         <v>44075</v>
       </c>
       <c r="C46" t="n">
-        <v>2793.918756161909</v>
+        <v>2814.195730067756</v>
       </c>
       <c r="D46" t="n">
-        <v>2557.597632533591</v>
+        <v>2557.556376212533</v>
       </c>
       <c r="E46" t="n">
-        <v>3199.81262128452</v>
+        <v>3195.574226841576</v>
       </c>
       <c r="F46" t="n">
-        <v>2793.918756161909</v>
+        <v>2814.195730067756</v>
       </c>
       <c r="G46" t="n">
-        <v>2793.918756161909</v>
+        <v>2814.195730067756</v>
       </c>
       <c r="H46" t="n">
-        <v>79.2925631059793</v>
+        <v>74.47768102064866</v>
       </c>
       <c r="I46" t="n">
-        <v>79.2925631059793</v>
+        <v>74.47768102064866</v>
       </c>
       <c r="J46" t="n">
-        <v>79.2925631059793</v>
+        <v>74.47768102064866</v>
       </c>
       <c r="K46" t="n">
-        <v>79.2925631059793</v>
+        <v>74.47768102064866</v>
       </c>
       <c r="L46" t="n">
-        <v>79.2925631059793</v>
+        <v>74.47768102064866</v>
       </c>
       <c r="M46" t="n">
-        <v>79.2925631059793</v>
+        <v>74.47768102064866</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -2901,7 +2901,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>2873.211319267888</v>
+        <v>2888.673411088404</v>
       </c>
     </row>
     <row r="47">
@@ -2912,37 +2912,37 @@
         <v>44105</v>
       </c>
       <c r="C47" t="n">
-        <v>2789.094822192246</v>
+        <v>2810.120625047319</v>
       </c>
       <c r="D47" t="n">
-        <v>2353.340064921099</v>
+        <v>2341.294247708227</v>
       </c>
       <c r="E47" t="n">
-        <v>3014.73089545977</v>
+        <v>3014.650990755417</v>
       </c>
       <c r="F47" t="n">
-        <v>2789.094822192246</v>
+        <v>2810.120625047319</v>
       </c>
       <c r="G47" t="n">
-        <v>2789.094822192246</v>
+        <v>2810.120625047319</v>
       </c>
       <c r="H47" t="n">
-        <v>-109.0126625934123</v>
+        <v>-120.7703705378618</v>
       </c>
       <c r="I47" t="n">
-        <v>-109.0126625934123</v>
+        <v>-120.7703705378618</v>
       </c>
       <c r="J47" t="n">
-        <v>-109.0126625934123</v>
+        <v>-120.7703705378618</v>
       </c>
       <c r="K47" t="n">
-        <v>-109.0126625934123</v>
+        <v>-120.7703705378618</v>
       </c>
       <c r="L47" t="n">
-        <v>-109.0126625934123</v>
+        <v>-120.7703705378618</v>
       </c>
       <c r="M47" t="n">
-        <v>-109.0126625934123</v>
+        <v>-120.7703705378618</v>
       </c>
       <c r="N47" t="n">
         <v>0</v>
@@ -2954,7 +2954,7 @@
         <v>0</v>
       </c>
       <c r="Q47" t="n">
-        <v>2680.082159598834</v>
+        <v>2689.350254509457</v>
       </c>
     </row>
     <row r="48">
@@ -2965,37 +2965,37 @@
         <v>44136</v>
       </c>
       <c r="C48" t="n">
-        <v>2784.110090412608</v>
+        <v>2805.909683219769</v>
       </c>
       <c r="D48" t="n">
-        <v>2749.675595298283</v>
+        <v>2768.386847125391</v>
       </c>
       <c r="E48" t="n">
-        <v>3410.998704722498</v>
+        <v>3421.25150501607</v>
       </c>
       <c r="F48" t="n">
-        <v>2784.110090412608</v>
+        <v>2805.909683219769</v>
       </c>
       <c r="G48" t="n">
-        <v>2784.110090412608</v>
+        <v>2805.909683219769</v>
       </c>
       <c r="H48" t="n">
-        <v>296.1262970607257</v>
+        <v>277.6800452846426</v>
       </c>
       <c r="I48" t="n">
-        <v>296.1262970607257</v>
+        <v>277.6800452846426</v>
       </c>
       <c r="J48" t="n">
-        <v>296.1262970607257</v>
+        <v>277.6800452846426</v>
       </c>
       <c r="K48" t="n">
-        <v>296.1262970607257</v>
+        <v>277.6800452846426</v>
       </c>
       <c r="L48" t="n">
-        <v>296.1262970607257</v>
+        <v>277.6800452846426</v>
       </c>
       <c r="M48" t="n">
-        <v>296.1262970607257</v>
+        <v>277.6800452846426</v>
       </c>
       <c r="N48" t="n">
         <v>0</v>
@@ -3007,7 +3007,7 @@
         <v>0</v>
       </c>
       <c r="Q48" t="n">
-        <v>3080.236387473334</v>
+        <v>3083.589728504412</v>
       </c>
     </row>
     <row r="49">
@@ -3018,37 +3018,37 @@
         <v>44166</v>
       </c>
       <c r="C49" t="n">
-        <v>2779.286156432314</v>
+        <v>2801.834578225365</v>
       </c>
       <c r="D49" t="n">
-        <v>2749.023273183351</v>
+        <v>2736.170414328755</v>
       </c>
       <c r="E49" t="n">
-        <v>3352.548617256948</v>
+        <v>3365.899372303786</v>
       </c>
       <c r="F49" t="n">
-        <v>2779.286156432314</v>
+        <v>2801.834578225365</v>
       </c>
       <c r="G49" t="n">
-        <v>2779.286156432314</v>
+        <v>2801.834578225365</v>
       </c>
       <c r="H49" t="n">
-        <v>264.7669495557945</v>
+        <v>241.9459297419045</v>
       </c>
       <c r="I49" t="n">
-        <v>264.7669495557945</v>
+        <v>241.9459297419045</v>
       </c>
       <c r="J49" t="n">
-        <v>264.7669495557945</v>
+        <v>241.9459297419045</v>
       </c>
       <c r="K49" t="n">
-        <v>264.7669495557945</v>
+        <v>241.9459297419045</v>
       </c>
       <c r="L49" t="n">
-        <v>264.7669495557945</v>
+        <v>241.9459297419045</v>
       </c>
       <c r="M49" t="n">
-        <v>264.7669495557945</v>
+        <v>241.9459297419045</v>
       </c>
       <c r="N49" t="n">
         <v>0</v>
@@ -3060,7 +3060,7 @@
         <v>0</v>
       </c>
       <c r="Q49" t="n">
-        <v>3044.053105988109</v>
+        <v>3043.78050796727</v>
       </c>
     </row>
     <row r="50">
@@ -3071,37 +3071,37 @@
         <v>44197</v>
       </c>
       <c r="C50" t="n">
-        <v>2774.301424661817</v>
+        <v>2797.623636422674</v>
       </c>
       <c r="D50" t="n">
-        <v>2822.367366903858</v>
+        <v>2849.503681554387</v>
       </c>
       <c r="E50" t="n">
-        <v>3459.483175016831</v>
+        <v>3477.774980240359</v>
       </c>
       <c r="F50" t="n">
-        <v>2774.301424661817</v>
+        <v>2797.623636422674</v>
       </c>
       <c r="G50" t="n">
-        <v>2774.301424661817</v>
+        <v>2797.623636422674</v>
       </c>
       <c r="H50" t="n">
-        <v>370.188689986068</v>
+        <v>357.8903243844208</v>
       </c>
       <c r="I50" t="n">
-        <v>370.188689986068</v>
+        <v>357.8903243844208</v>
       </c>
       <c r="J50" t="n">
-        <v>370.188689986068</v>
+        <v>357.8903243844208</v>
       </c>
       <c r="K50" t="n">
-        <v>370.188689986068</v>
+        <v>357.8903243844208</v>
       </c>
       <c r="L50" t="n">
-        <v>370.188689986068</v>
+        <v>357.8903243844208</v>
       </c>
       <c r="M50" t="n">
-        <v>370.188689986068</v>
+        <v>357.8903243844208</v>
       </c>
       <c r="N50" t="n">
         <v>0</v>
@@ -3113,7 +3113,7 @@
         <v>0</v>
       </c>
       <c r="Q50" t="n">
-        <v>3144.490114647885</v>
+        <v>3155.513960807094</v>
       </c>
     </row>
     <row r="51">
@@ -3124,37 +3124,37 @@
         <v>44228</v>
       </c>
       <c r="C51" t="n">
-        <v>2769.316692891319</v>
+        <v>2793.412694619982</v>
       </c>
       <c r="D51" t="n">
-        <v>2384.245409516837</v>
+        <v>2355.790639546647</v>
       </c>
       <c r="E51" t="n">
-        <v>3029.609647254817</v>
+        <v>3020.099842367614</v>
       </c>
       <c r="F51" t="n">
-        <v>2769.316692891319</v>
+        <v>2793.412694619982</v>
       </c>
       <c r="G51" t="n">
-        <v>2769.316692891319</v>
+        <v>2793.412694619982</v>
       </c>
       <c r="H51" t="n">
-        <v>-90.49359400120289</v>
+        <v>-101.4855792125846</v>
       </c>
       <c r="I51" t="n">
-        <v>-90.49359400120289</v>
+        <v>-101.4855792125846</v>
       </c>
       <c r="J51" t="n">
-        <v>-90.49359400120289</v>
+        <v>-101.4855792125846</v>
       </c>
       <c r="K51" t="n">
-        <v>-90.49359400120289</v>
+        <v>-101.4855792125846</v>
       </c>
       <c r="L51" t="n">
-        <v>-90.49359400120289</v>
+        <v>-101.4855792125846</v>
       </c>
       <c r="M51" t="n">
-        <v>-90.49359400120289</v>
+        <v>-101.4855792125846</v>
       </c>
       <c r="N51" t="n">
         <v>0</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="Q51" t="n">
-        <v>2678.823098890116</v>
+        <v>2691.927115407398</v>
       </c>
     </row>
     <row r="52">
@@ -3177,37 +3177,37 @@
         <v>44256</v>
       </c>
       <c r="C52" t="n">
-        <v>2764.814354511041</v>
+        <v>2789.609263309581</v>
       </c>
       <c r="D52" t="n">
-        <v>2677.379842066931</v>
+        <v>2663.479373056276</v>
       </c>
       <c r="E52" t="n">
-        <v>3312.023359173268</v>
+        <v>3338.588299342995</v>
       </c>
       <c r="F52" t="n">
-        <v>2764.814354511041</v>
+        <v>2789.609263309581</v>
       </c>
       <c r="G52" t="n">
-        <v>2764.814354511041</v>
+        <v>2789.609263309581</v>
       </c>
       <c r="H52" t="n">
-        <v>217.2932060052911</v>
+        <v>206.5504752192841</v>
       </c>
       <c r="I52" t="n">
-        <v>217.2932060052911</v>
+        <v>206.5504752192841</v>
       </c>
       <c r="J52" t="n">
-        <v>217.2932060052911</v>
+        <v>206.5504752192841</v>
       </c>
       <c r="K52" t="n">
-        <v>217.2932060052911</v>
+        <v>206.5504752192841</v>
       </c>
       <c r="L52" t="n">
-        <v>217.2932060052911</v>
+        <v>206.5504752192841</v>
       </c>
       <c r="M52" t="n">
-        <v>217.2932060052911</v>
+        <v>206.5504752192841</v>
       </c>
       <c r="N52" t="n">
         <v>0</v>
@@ -3219,7 +3219,7 @@
         <v>0</v>
       </c>
       <c r="Q52" t="n">
-        <v>2982.107560516332</v>
+        <v>2996.159738528866</v>
       </c>
     </row>
     <row r="53">
@@ -3230,37 +3230,37 @@
         <v>44287</v>
       </c>
       <c r="C53" t="n">
-        <v>2759.829622732876</v>
+        <v>2785.398321501637</v>
       </c>
       <c r="D53" t="n">
-        <v>2071.319934305875</v>
+        <v>2088.954845306983</v>
       </c>
       <c r="E53" t="n">
-        <v>2716.664441293314</v>
+        <v>2768.584556709471</v>
       </c>
       <c r="F53" t="n">
-        <v>2759.829622732876</v>
+        <v>2785.398321501637</v>
       </c>
       <c r="G53" t="n">
-        <v>2759.829622732876</v>
+        <v>2785.398321501637</v>
       </c>
       <c r="H53" t="n">
-        <v>-360.9846094224393</v>
+        <v>-370.2109065401668</v>
       </c>
       <c r="I53" t="n">
-        <v>-360.9846094224393</v>
+        <v>-370.2109065401668</v>
       </c>
       <c r="J53" t="n">
-        <v>-360.9846094224393</v>
+        <v>-370.2109065401668</v>
       </c>
       <c r="K53" t="n">
-        <v>-360.9846094224393</v>
+        <v>-370.2109065401668</v>
       </c>
       <c r="L53" t="n">
-        <v>-360.9846094224393</v>
+        <v>-370.2109065401668</v>
       </c>
       <c r="M53" t="n">
-        <v>-360.9846094224393</v>
+        <v>-370.2109065401668</v>
       </c>
       <c r="N53" t="n">
         <v>0</v>
@@ -3272,7 +3272,7 @@
         <v>0</v>
       </c>
       <c r="Q53" t="n">
-        <v>2398.845013310436</v>
+        <v>2415.18741496147</v>
       </c>
     </row>
     <row r="54">
@@ -3283,37 +3283,37 @@
         <v>44317</v>
       </c>
       <c r="C54" t="n">
-        <v>2755.005688756801</v>
+        <v>2781.323216505273</v>
       </c>
       <c r="D54" t="n">
-        <v>2304.288061502257</v>
+        <v>2333.36356626966</v>
       </c>
       <c r="E54" t="n">
-        <v>2966.424864079333</v>
+        <v>3000.034615832125</v>
       </c>
       <c r="F54" t="n">
-        <v>2755.005688756801</v>
+        <v>2781.323216505273</v>
       </c>
       <c r="G54" t="n">
-        <v>2755.005688756801</v>
+        <v>2781.323216505273</v>
       </c>
       <c r="H54" t="n">
-        <v>-118.2711079708448</v>
+        <v>-126.6699811609276</v>
       </c>
       <c r="I54" t="n">
-        <v>-118.2711079708448</v>
+        <v>-126.6699811609276</v>
       </c>
       <c r="J54" t="n">
-        <v>-118.2711079708448</v>
+        <v>-126.6699811609276</v>
       </c>
       <c r="K54" t="n">
-        <v>-118.2711079708448</v>
+        <v>-126.6699811609276</v>
       </c>
       <c r="L54" t="n">
-        <v>-118.2711079708448</v>
+        <v>-126.6699811609276</v>
       </c>
       <c r="M54" t="n">
-        <v>-118.2711079708448</v>
+        <v>-126.6699811609276</v>
       </c>
       <c r="N54" t="n">
         <v>0</v>
@@ -3325,7 +3325,7 @@
         <v>0</v>
       </c>
       <c r="Q54" t="n">
-        <v>2636.734580785956</v>
+        <v>2654.653235344345</v>
       </c>
     </row>
     <row r="55">
@@ -3336,37 +3336,37 @@
         <v>44348</v>
       </c>
       <c r="C55" t="n">
-        <v>2750.020956981524</v>
+        <v>2777.112274675697</v>
       </c>
       <c r="D55" t="n">
-        <v>2354.945008970081</v>
+        <v>2428.032160672199</v>
       </c>
       <c r="E55" t="n">
-        <v>2985.365038406521</v>
+        <v>3100.874780386679</v>
       </c>
       <c r="F55" t="n">
-        <v>2750.020956981524</v>
+        <v>2777.112274675697</v>
       </c>
       <c r="G55" t="n">
-        <v>2750.020956981524</v>
+        <v>2777.112274675697</v>
       </c>
       <c r="H55" t="n">
-        <v>-68.55542179196283</v>
+        <v>-8.370316803921538</v>
       </c>
       <c r="I55" t="n">
-        <v>-68.55542179196283</v>
+        <v>-8.370316803921538</v>
       </c>
       <c r="J55" t="n">
-        <v>-68.55542179196283</v>
+        <v>-8.370316803921538</v>
       </c>
       <c r="K55" t="n">
-        <v>-68.55542179196283</v>
+        <v>-8.370316803921538</v>
       </c>
       <c r="L55" t="n">
-        <v>-68.55542179196283</v>
+        <v>-8.370316803921538</v>
       </c>
       <c r="M55" t="n">
-        <v>-68.55542179196283</v>
+        <v>-8.370316803921538</v>
       </c>
       <c r="N55" t="n">
         <v>0</v>
@@ -3378,7 +3378,7 @@
         <v>0</v>
       </c>
       <c r="Q55" t="n">
-        <v>2681.465535189561</v>
+        <v>2768.741957871775</v>
       </c>
     </row>
     <row r="56">
@@ -3389,37 +3389,37 @@
         <v>44378</v>
       </c>
       <c r="C56" t="n">
-        <v>2745.197023005449</v>
+        <v>2773.037169679333</v>
       </c>
       <c r="D56" t="n">
-        <v>2365.300328824561</v>
+        <v>2421.926800477106</v>
       </c>
       <c r="E56" t="n">
-        <v>3019.113637793411</v>
+        <v>3074.934326372539</v>
       </c>
       <c r="F56" t="n">
-        <v>2745.197023005449</v>
+        <v>2773.037169679333</v>
       </c>
       <c r="G56" t="n">
-        <v>2745.197023005449</v>
+        <v>2773.037169679333</v>
       </c>
       <c r="H56" t="n">
-        <v>-32.70888285501551</v>
+        <v>-38.36497428464911</v>
       </c>
       <c r="I56" t="n">
-        <v>-32.70888285501551</v>
+        <v>-38.36497428464911</v>
       </c>
       <c r="J56" t="n">
-        <v>-32.70888285501551</v>
+        <v>-38.36497428464911</v>
       </c>
       <c r="K56" t="n">
-        <v>-32.70888285501551</v>
+        <v>-38.36497428464911</v>
       </c>
       <c r="L56" t="n">
-        <v>-32.70888285501551</v>
+        <v>-38.36497428464911</v>
       </c>
       <c r="M56" t="n">
-        <v>-32.70888285501551</v>
+        <v>-38.36497428464911</v>
       </c>
       <c r="N56" t="n">
         <v>0</v>
@@ -3431,7 +3431,7 @@
         <v>0</v>
       </c>
       <c r="Q56" t="n">
-        <v>2712.488140150434</v>
+        <v>2734.672195394684</v>
       </c>
     </row>
     <row r="57">
@@ -3442,37 +3442,37 @@
         <v>44409</v>
       </c>
       <c r="C57" t="n">
-        <v>2740.212291230173</v>
+        <v>2768.826227849756</v>
       </c>
       <c r="D57" t="n">
-        <v>2670.901591464886</v>
+        <v>2681.964282048486</v>
       </c>
       <c r="E57" t="n">
-        <v>3287.728545530114</v>
+        <v>3319.195142862913</v>
       </c>
       <c r="F57" t="n">
-        <v>2740.212291230173</v>
+        <v>2768.826227849756</v>
       </c>
       <c r="G57" t="n">
-        <v>2740.212291230173</v>
+        <v>2768.826227849756</v>
       </c>
       <c r="H57" t="n">
-        <v>247.4410670101922</v>
+        <v>239.6278762424244</v>
       </c>
       <c r="I57" t="n">
-        <v>247.4410670101922</v>
+        <v>239.6278762424244</v>
       </c>
       <c r="J57" t="n">
-        <v>247.4410670101922</v>
+        <v>239.6278762424244</v>
       </c>
       <c r="K57" t="n">
-        <v>247.4410670101922</v>
+        <v>239.6278762424244</v>
       </c>
       <c r="L57" t="n">
-        <v>247.4410670101922</v>
+        <v>239.6278762424244</v>
       </c>
       <c r="M57" t="n">
-        <v>247.4410670101922</v>
+        <v>239.6278762424244</v>
       </c>
       <c r="N57" t="n">
         <v>0</v>
@@ -3484,7 +3484,7 @@
         <v>0</v>
       </c>
       <c r="Q57" t="n">
-        <v>2987.653358240365</v>
+        <v>3008.454104092181</v>
       </c>
     </row>
     <row r="58">
@@ -3495,37 +3495,37 @@
         <v>44440</v>
       </c>
       <c r="C58" t="n">
-        <v>2735.227559454896</v>
+        <v>2764.615286020181</v>
       </c>
       <c r="D58" t="n">
-        <v>2443.918125976485</v>
+        <v>2472.987678239558</v>
       </c>
       <c r="E58" t="n">
-        <v>3091.632972999367</v>
+        <v>3106.39175593861</v>
       </c>
       <c r="F58" t="n">
-        <v>2735.227559454896</v>
+        <v>2764.615286020181</v>
       </c>
       <c r="G58" t="n">
-        <v>2735.227559454896</v>
+        <v>2764.615286020181</v>
       </c>
       <c r="H58" t="n">
-        <v>34.35427786711105</v>
+        <v>24.32836618731623</v>
       </c>
       <c r="I58" t="n">
-        <v>34.35427786711105</v>
+        <v>24.32836618731623</v>
       </c>
       <c r="J58" t="n">
-        <v>34.35427786711105</v>
+        <v>24.32836618731623</v>
       </c>
       <c r="K58" t="n">
-        <v>34.35427786711105</v>
+        <v>24.32836618731623</v>
       </c>
       <c r="L58" t="n">
-        <v>34.35427786711105</v>
+        <v>24.32836618731623</v>
       </c>
       <c r="M58" t="n">
-        <v>34.35427786711105</v>
+        <v>24.32836618731623</v>
       </c>
       <c r="N58" t="n">
         <v>0</v>
@@ -3537,7 +3537,7 @@
         <v>0</v>
       </c>
       <c r="Q58" t="n">
-        <v>2769.581837322007</v>
+        <v>2788.943652207497</v>
       </c>
     </row>
     <row r="59">
@@ -3548,37 +3548,37 @@
         <v>44470</v>
       </c>
       <c r="C59" t="n">
-        <v>2730.403625478821</v>
+        <v>2760.540181023816</v>
       </c>
       <c r="D59" t="n">
-        <v>2576.552106617039</v>
+        <v>2558.358067359309</v>
       </c>
       <c r="E59" t="n">
-        <v>3183.942661920118</v>
+        <v>3202.274840154893</v>
       </c>
       <c r="F59" t="n">
-        <v>2730.403625478821</v>
+        <v>2760.540181023816</v>
       </c>
       <c r="G59" t="n">
-        <v>2730.403625478821</v>
+        <v>2760.540181023816</v>
       </c>
       <c r="H59" t="n">
-        <v>147.2222439259409</v>
+        <v>134.6823015331881</v>
       </c>
       <c r="I59" t="n">
-        <v>147.2222439259409</v>
+        <v>134.6823015331881</v>
       </c>
       <c r="J59" t="n">
-        <v>147.2222439259409</v>
+        <v>134.6823015331881</v>
       </c>
       <c r="K59" t="n">
-        <v>147.2222439259409</v>
+        <v>134.6823015331881</v>
       </c>
       <c r="L59" t="n">
-        <v>147.2222439259409</v>
+        <v>134.6823015331881</v>
       </c>
       <c r="M59" t="n">
-        <v>147.2222439259409</v>
+        <v>134.6823015331881</v>
       </c>
       <c r="N59" t="n">
         <v>0</v>
@@ -3590,7 +3590,7 @@
         <v>0</v>
       </c>
       <c r="Q59" t="n">
-        <v>2877.625869404762</v>
+        <v>2895.222482557004</v>
       </c>
     </row>
     <row r="60">
@@ -3601,37 +3601,37 @@
         <v>44501</v>
       </c>
       <c r="C60" t="n">
-        <v>2725.418893703545</v>
+        <v>2756.32923919424</v>
       </c>
       <c r="D60" t="n">
-        <v>2604.433386859994</v>
+        <v>2597.783428118699</v>
       </c>
       <c r="E60" t="n">
-        <v>3242.830015453294</v>
+        <v>3281.940109054128</v>
       </c>
       <c r="F60" t="n">
-        <v>2725.418893703545</v>
+        <v>2756.32923919424</v>
       </c>
       <c r="G60" t="n">
-        <v>2725.418893703545</v>
+        <v>2756.32923919424</v>
       </c>
       <c r="H60" t="n">
-        <v>201.5986194123244</v>
+        <v>186.681474046849</v>
       </c>
       <c r="I60" t="n">
-        <v>201.5986194123244</v>
+        <v>186.681474046849</v>
       </c>
       <c r="J60" t="n">
-        <v>201.5986194123244</v>
+        <v>186.681474046849</v>
       </c>
       <c r="K60" t="n">
-        <v>201.5986194123244</v>
+        <v>186.681474046849</v>
       </c>
       <c r="L60" t="n">
-        <v>201.5986194123244</v>
+        <v>186.681474046849</v>
       </c>
       <c r="M60" t="n">
-        <v>201.5986194123244</v>
+        <v>186.681474046849</v>
       </c>
       <c r="N60" t="n">
         <v>0</v>
@@ -3643,7 +3643,7 @@
         <v>0</v>
       </c>
       <c r="Q60" t="n">
-        <v>2927.017513115869</v>
+        <v>2943.010713241089</v>
       </c>
     </row>
     <row r="61">
@@ -3654,37 +3654,37 @@
         <v>44531</v>
       </c>
       <c r="C61" t="n">
-        <v>2720.59495972747</v>
+        <v>2752.254134197876</v>
       </c>
       <c r="D61" t="n">
-        <v>2599.788637928193</v>
+        <v>2593.17050823197</v>
       </c>
       <c r="E61" t="n">
-        <v>3254.049069090833</v>
+        <v>3243.860439515537</v>
       </c>
       <c r="F61" t="n">
-        <v>2720.59495972747</v>
+        <v>2752.254134197876</v>
       </c>
       <c r="G61" t="n">
-        <v>2720.59495972747</v>
+        <v>2752.254134197876</v>
       </c>
       <c r="H61" t="n">
-        <v>191.03172191678</v>
+        <v>174.5036888478231</v>
       </c>
       <c r="I61" t="n">
-        <v>191.03172191678</v>
+        <v>174.5036888478231</v>
       </c>
       <c r="J61" t="n">
-        <v>191.03172191678</v>
+        <v>174.5036888478231</v>
       </c>
       <c r="K61" t="n">
-        <v>191.03172191678</v>
+        <v>174.5036888478231</v>
       </c>
       <c r="L61" t="n">
-        <v>191.03172191678</v>
+        <v>174.5036888478231</v>
       </c>
       <c r="M61" t="n">
-        <v>191.03172191678</v>
+        <v>174.5036888478231</v>
       </c>
       <c r="N61" t="n">
         <v>0</v>
@@ -3696,7 +3696,7 @@
         <v>0</v>
       </c>
       <c r="Q61" t="n">
-        <v>2911.62668164425</v>
+        <v>2926.757823045699</v>
       </c>
     </row>
     <row r="62">
@@ -3707,37 +3707,37 @@
         <v>44562</v>
       </c>
       <c r="C62" t="n">
-        <v>2715.610227952193</v>
+        <v>2748.0431923683</v>
       </c>
       <c r="D62" t="n">
-        <v>2775.225817783676</v>
+        <v>2827.143582146249</v>
       </c>
       <c r="E62" t="n">
-        <v>3429.364430593671</v>
+        <v>3462.266604067474</v>
       </c>
       <c r="F62" t="n">
-        <v>2715.610227952193</v>
+        <v>2748.0431923683</v>
       </c>
       <c r="G62" t="n">
-        <v>2715.610227952193</v>
+        <v>2748.0431923683</v>
       </c>
       <c r="H62" t="n">
-        <v>400.7142102530472</v>
+        <v>389.6740326877722</v>
       </c>
       <c r="I62" t="n">
-        <v>400.7142102530472</v>
+        <v>389.6740326877722</v>
       </c>
       <c r="J62" t="n">
-        <v>400.7142102530472</v>
+        <v>389.6740326877722</v>
       </c>
       <c r="K62" t="n">
-        <v>400.7142102530472</v>
+        <v>389.6740326877722</v>
       </c>
       <c r="L62" t="n">
-        <v>400.7142102530472</v>
+        <v>389.6740326877722</v>
       </c>
       <c r="M62" t="n">
-        <v>400.7142102530472</v>
+        <v>389.6740326877722</v>
       </c>
       <c r="N62" t="n">
         <v>0</v>
@@ -3749,7 +3749,7 @@
         <v>0</v>
       </c>
       <c r="Q62" t="n">
-        <v>3116.32443820524</v>
+        <v>3137.717225056072</v>
       </c>
     </row>
     <row r="63">
@@ -3760,37 +3760,37 @@
         <v>44593</v>
       </c>
       <c r="C63" t="n">
-        <v>2710.625496176916</v>
+        <v>2743.832250538724</v>
       </c>
       <c r="D63" t="n">
-        <v>2247.214047445725</v>
+        <v>2269.327169898694</v>
       </c>
       <c r="E63" t="n">
-        <v>2880.267501178941</v>
+        <v>2920.842777986338</v>
       </c>
       <c r="F63" t="n">
-        <v>2710.625496176916</v>
+        <v>2743.832250538724</v>
       </c>
       <c r="G63" t="n">
-        <v>2710.625496176916</v>
+        <v>2743.832250538724</v>
       </c>
       <c r="H63" t="n">
-        <v>-144.7771254472978</v>
+        <v>-156.2376143879958</v>
       </c>
       <c r="I63" t="n">
-        <v>-144.7771254472978</v>
+        <v>-156.2376143879958</v>
       </c>
       <c r="J63" t="n">
-        <v>-144.7771254472978</v>
+        <v>-156.2376143879958</v>
       </c>
       <c r="K63" t="n">
-        <v>-144.7771254472978</v>
+        <v>-156.2376143879958</v>
       </c>
       <c r="L63" t="n">
-        <v>-144.7771254472978</v>
+        <v>-156.2376143879958</v>
       </c>
       <c r="M63" t="n">
-        <v>-144.7771254472978</v>
+        <v>-156.2376143879958</v>
       </c>
       <c r="N63" t="n">
         <v>0</v>
@@ -3802,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="Q63" t="n">
-        <v>2565.848370729619</v>
+        <v>2587.594636150729</v>
       </c>
     </row>
     <row r="64">
@@ -3813,37 +3813,37 @@
         <v>44621</v>
       </c>
       <c r="C64" t="n">
-        <v>2706.123157799247</v>
+        <v>2740.028819208785</v>
       </c>
       <c r="D64" t="n">
-        <v>2537.883918690713</v>
+        <v>2556.057868065847</v>
       </c>
       <c r="E64" t="n">
-        <v>3173.509694148571</v>
+        <v>3197.882170224395</v>
       </c>
       <c r="F64" t="n">
-        <v>2706.123157799247</v>
+        <v>2740.028819208785</v>
       </c>
       <c r="G64" t="n">
-        <v>2706.123157799247</v>
+        <v>2740.028819208785</v>
       </c>
       <c r="H64" t="n">
-        <v>164.0450072913175</v>
+        <v>150.3837272817125</v>
       </c>
       <c r="I64" t="n">
-        <v>164.0450072913175</v>
+        <v>150.3837272817125</v>
       </c>
       <c r="J64" t="n">
-        <v>164.0450072913175</v>
+        <v>150.3837272817125</v>
       </c>
       <c r="K64" t="n">
-        <v>164.0450072913175</v>
+        <v>150.3837272817125</v>
       </c>
       <c r="L64" t="n">
-        <v>164.0450072913175</v>
+        <v>150.3837272817125</v>
       </c>
       <c r="M64" t="n">
-        <v>164.0450072913175</v>
+        <v>150.3837272817125</v>
       </c>
       <c r="N64" t="n">
         <v>0</v>
@@ -3855,7 +3855,7 @@
         <v>0</v>
       </c>
       <c r="Q64" t="n">
-        <v>2870.168165090564</v>
+        <v>2890.412546490497</v>
       </c>
     </row>
     <row r="65">
@@ -3866,37 +3866,37 @@
         <v>44652</v>
       </c>
       <c r="C65" t="n">
-        <v>2701.13842602397</v>
+        <v>2735.817877379208</v>
       </c>
       <c r="D65" t="n">
-        <v>2275.44574691049</v>
+        <v>2244.541122162514</v>
       </c>
       <c r="E65" t="n">
-        <v>2885.481041922839</v>
+        <v>2913.178104170961</v>
       </c>
       <c r="F65" t="n">
-        <v>2701.13842602397</v>
+        <v>2735.817877379208</v>
       </c>
       <c r="G65" t="n">
-        <v>2701.13842602397</v>
+        <v>2735.817877379208</v>
       </c>
       <c r="H65" t="n">
-        <v>-135.6807821856251</v>
+        <v>-152.3648800548151</v>
       </c>
       <c r="I65" t="n">
-        <v>-135.6807821856251</v>
+        <v>-152.3648800548151</v>
       </c>
       <c r="J65" t="n">
-        <v>-135.6807821856251</v>
+        <v>-152.3648800548151</v>
       </c>
       <c r="K65" t="n">
-        <v>-135.6807821856251</v>
+        <v>-152.3648800548151</v>
       </c>
       <c r="L65" t="n">
-        <v>-135.6807821856251</v>
+        <v>-152.3648800548151</v>
       </c>
       <c r="M65" t="n">
-        <v>-135.6807821856251</v>
+        <v>-152.3648800548151</v>
       </c>
       <c r="N65" t="n">
         <v>0</v>
@@ -3908,7 +3908,7 @@
         <v>0</v>
       </c>
       <c r="Q65" t="n">
-        <v>2565.457643838345</v>
+        <v>2583.452997324393</v>
       </c>
     </row>
     <row r="66">
@@ -3919,37 +3919,37 @@
         <v>44682</v>
       </c>
       <c r="C66" t="n">
-        <v>2696.314492047895</v>
+        <v>2731.742772382845</v>
       </c>
       <c r="D66" t="n">
-        <v>2271.984684837048</v>
+        <v>2295.465056537948</v>
       </c>
       <c r="E66" t="n">
-        <v>2905.475807996665</v>
+        <v>2933.479417708168</v>
       </c>
       <c r="F66" t="n">
-        <v>2696.314492047895</v>
+        <v>2731.742772382845</v>
       </c>
       <c r="G66" t="n">
-        <v>2696.314492047895</v>
+        <v>2731.742772382845</v>
       </c>
       <c r="H66" t="n">
-        <v>-100.616502002889</v>
+        <v>-119.8787935178507</v>
       </c>
       <c r="I66" t="n">
-        <v>-100.616502002889</v>
+        <v>-119.8787935178507</v>
       </c>
       <c r="J66" t="n">
-        <v>-100.616502002889</v>
+        <v>-119.8787935178507</v>
       </c>
       <c r="K66" t="n">
-        <v>-100.616502002889</v>
+        <v>-119.8787935178507</v>
       </c>
       <c r="L66" t="n">
-        <v>-100.616502002889</v>
+        <v>-119.8787935178507</v>
       </c>
       <c r="M66" t="n">
-        <v>-100.616502002889</v>
+        <v>-119.8787935178507</v>
       </c>
       <c r="N66" t="n">
         <v>0</v>
@@ -3961,7 +3961,7 @@
         <v>0</v>
       </c>
       <c r="Q66" t="n">
-        <v>2595.697990045006</v>
+        <v>2611.863978864994</v>
       </c>
     </row>
     <row r="67">
@@ -3972,37 +3972,37 @@
         <v>44713</v>
       </c>
       <c r="C67" t="n">
-        <v>2691.329760272618</v>
+        <v>2727.531830553268</v>
       </c>
       <c r="D67" t="n">
-        <v>2061.304102247915</v>
+        <v>2184.18126209478</v>
       </c>
       <c r="E67" t="n">
-        <v>2717.677424958208</v>
+        <v>2848.160031016908</v>
       </c>
       <c r="F67" t="n">
-        <v>2691.326865301931</v>
+        <v>2727.531830553268</v>
       </c>
       <c r="G67" t="n">
-        <v>2691.331571833924</v>
+        <v>2727.531830553268</v>
       </c>
       <c r="H67" t="n">
-        <v>-296.378165545065</v>
+        <v>-198.7751558905044</v>
       </c>
       <c r="I67" t="n">
-        <v>-296.378165545065</v>
+        <v>-198.7751558905044</v>
       </c>
       <c r="J67" t="n">
-        <v>-296.378165545065</v>
+        <v>-198.7751558905044</v>
       </c>
       <c r="K67" t="n">
-        <v>-296.378165545065</v>
+        <v>-198.7751558905044</v>
       </c>
       <c r="L67" t="n">
-        <v>-296.378165545065</v>
+        <v>-198.7751558905044</v>
       </c>
       <c r="M67" t="n">
-        <v>-296.378165545065</v>
+        <v>-198.7751558905044</v>
       </c>
       <c r="N67" t="n">
         <v>0</v>
@@ -4014,7 +4014,7 @@
         <v>0</v>
       </c>
       <c r="Q67" t="n">
-        <v>2394.951594727554</v>
+        <v>2528.756674662764</v>
       </c>
     </row>
     <row r="68">
@@ -4025,37 +4025,37 @@
         <v>44743</v>
       </c>
       <c r="C68" t="n">
-        <v>2686.505826296544</v>
+        <v>2723.456725556904</v>
       </c>
       <c r="D68" t="n">
-        <v>2427.819108723452</v>
+        <v>2453.470089862313</v>
       </c>
       <c r="E68" t="n">
-        <v>3075.492975663655</v>
+        <v>3081.271831628908</v>
       </c>
       <c r="F68" t="n">
-        <v>2686.492481366114</v>
+        <v>2723.456449715173</v>
       </c>
       <c r="G68" t="n">
-        <v>2686.517670251121</v>
+        <v>2723.45703548452</v>
       </c>
       <c r="H68" t="n">
-        <v>65.38396280178239</v>
+        <v>47.91114525392434</v>
       </c>
       <c r="I68" t="n">
-        <v>65.38396280178239</v>
+        <v>47.91114525392434</v>
       </c>
       <c r="J68" t="n">
-        <v>65.38396280178239</v>
+        <v>47.91114525392434</v>
       </c>
       <c r="K68" t="n">
-        <v>65.38396280178239</v>
+        <v>47.91114525392434</v>
       </c>
       <c r="L68" t="n">
-        <v>65.38396280178239</v>
+        <v>47.91114525392434</v>
       </c>
       <c r="M68" t="n">
-        <v>65.38396280178239</v>
+        <v>47.91114525392434</v>
       </c>
       <c r="N68" t="n">
         <v>0</v>
@@ -4067,7 +4067,7 @@
         <v>0</v>
       </c>
       <c r="Q68" t="n">
-        <v>2751.889789098326</v>
+        <v>2771.367870810828</v>
       </c>
     </row>
     <row r="69">
@@ -4078,37 +4078,37 @@
         <v>44774</v>
       </c>
       <c r="C69" t="n">
-        <v>2681.521094521268</v>
+        <v>2719.245783727328</v>
       </c>
       <c r="D69" t="n">
-        <v>2569.211342024053</v>
+        <v>2550.386676695033</v>
       </c>
       <c r="E69" t="n">
-        <v>3155.649819263247</v>
+        <v>3201.813428373636</v>
       </c>
       <c r="F69" t="n">
-        <v>2681.48996349261</v>
+        <v>2719.243484410934</v>
       </c>
       <c r="G69" t="n">
-        <v>2681.546121932658</v>
+        <v>2719.24808411089</v>
       </c>
       <c r="H69" t="n">
-        <v>169.6887539735131</v>
+        <v>153.2319559322004</v>
       </c>
       <c r="I69" t="n">
-        <v>169.6887539735131</v>
+        <v>153.2319559322004</v>
       </c>
       <c r="J69" t="n">
-        <v>169.6887539735131</v>
+        <v>153.2319559322004</v>
       </c>
       <c r="K69" t="n">
-        <v>169.6887539735131</v>
+        <v>153.2319559322004</v>
       </c>
       <c r="L69" t="n">
-        <v>169.6887539735131</v>
+        <v>153.2319559322004</v>
       </c>
       <c r="M69" t="n">
-        <v>169.6887539735131</v>
+        <v>153.2319559322004</v>
       </c>
       <c r="N69" t="n">
         <v>0</v>
@@ -4120,7 +4120,7 @@
         <v>0</v>
       </c>
       <c r="Q69" t="n">
-        <v>2851.209848494781</v>
+        <v>2872.477739659529</v>
       </c>
     </row>
     <row r="70">
@@ -4131,37 +4131,37 @@
         <v>44805</v>
       </c>
       <c r="C70" t="n">
-        <v>2676.53636274599</v>
+        <v>2715.034841897752</v>
       </c>
       <c r="D70" t="n">
-        <v>2325.912922642246</v>
+        <v>2374.280137421574</v>
       </c>
       <c r="E70" t="n">
-        <v>2984.90379555124</v>
+        <v>3044.481389976676</v>
       </c>
       <c r="F70" t="n">
-        <v>2676.482611627642</v>
+        <v>2715.028981097376</v>
       </c>
       <c r="G70" t="n">
-        <v>2676.584556215259</v>
+        <v>2715.040538249634</v>
       </c>
       <c r="H70" t="n">
-        <v>-6.312873014659284</v>
+        <v>-21.42295337912219</v>
       </c>
       <c r="I70" t="n">
-        <v>-6.312873014659284</v>
+        <v>-21.42295337912219</v>
       </c>
       <c r="J70" t="n">
-        <v>-6.312873014659284</v>
+        <v>-21.42295337912219</v>
       </c>
       <c r="K70" t="n">
-        <v>-6.312873014659284</v>
+        <v>-21.42295337912219</v>
       </c>
       <c r="L70" t="n">
-        <v>-6.312873014659284</v>
+        <v>-21.42295337912219</v>
       </c>
       <c r="M70" t="n">
-        <v>-6.312873014659284</v>
+        <v>-21.42295337912219</v>
       </c>
       <c r="N70" t="n">
         <v>0</v>
@@ -4173,7 +4173,7 @@
         <v>0</v>
       </c>
       <c r="Q70" t="n">
-        <v>2670.223489731331</v>
+        <v>2693.61188851863</v>
       </c>
     </row>
     <row r="71">
@@ -4184,37 +4184,37 @@
         <v>44835</v>
       </c>
       <c r="C71" t="n">
-        <v>2671.712428769916</v>
+        <v>2710.959736901388</v>
       </c>
       <c r="D71" t="n">
-        <v>2749.068984147543</v>
+        <v>2765.075576978373</v>
       </c>
       <c r="E71" t="n">
-        <v>3386.003036584493</v>
+        <v>3421.494884018092</v>
       </c>
       <c r="F71" t="n">
-        <v>2671.636072400136</v>
+        <v>2710.950298722768</v>
       </c>
       <c r="G71" t="n">
-        <v>2671.780569034553</v>
+        <v>2710.969610029875</v>
       </c>
       <c r="H71" t="n">
-        <v>402.3253670667447</v>
+        <v>389.2197693368399</v>
       </c>
       <c r="I71" t="n">
-        <v>402.3253670667447</v>
+        <v>389.2197693368399</v>
       </c>
       <c r="J71" t="n">
-        <v>402.3253670667447</v>
+        <v>389.2197693368399</v>
       </c>
       <c r="K71" t="n">
-        <v>402.3253670667447</v>
+        <v>389.2197693368399</v>
       </c>
       <c r="L71" t="n">
-        <v>402.3253670667447</v>
+        <v>389.2197693368399</v>
       </c>
       <c r="M71" t="n">
-        <v>402.3253670667447</v>
+        <v>389.2197693368399</v>
       </c>
       <c r="N71" t="n">
         <v>0</v>
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="Q71" t="n">
-        <v>3074.03779583666</v>
+        <v>3100.179506238228</v>
       </c>
     </row>
     <row r="72">
@@ -4237,37 +4237,37 @@
         <v>44866</v>
       </c>
       <c r="C72" t="n">
-        <v>2666.727696994639</v>
+        <v>2706.748795071812</v>
       </c>
       <c r="D72" t="n">
-        <v>2444.134280096906</v>
+        <v>2470.724340507886</v>
       </c>
       <c r="E72" t="n">
-        <v>3091.675293245255</v>
+        <v>3129.634092247014</v>
       </c>
       <c r="F72" t="n">
-        <v>2666.626243627202</v>
+        <v>2706.73566815666</v>
       </c>
       <c r="G72" t="n">
-        <v>2666.819140105966</v>
+        <v>2706.763050202776</v>
       </c>
       <c r="H72" t="n">
-        <v>102.4322438942464</v>
+        <v>91.20828561770414</v>
       </c>
       <c r="I72" t="n">
-        <v>102.4322438942464</v>
+        <v>91.20828561770414</v>
       </c>
       <c r="J72" t="n">
-        <v>102.4322438942464</v>
+        <v>91.20828561770414</v>
       </c>
       <c r="K72" t="n">
-        <v>102.4322438942464</v>
+        <v>91.20828561770414</v>
       </c>
       <c r="L72" t="n">
-        <v>102.4322438942464</v>
+        <v>91.20828561770414</v>
       </c>
       <c r="M72" t="n">
-        <v>102.4322438942464</v>
+        <v>91.20828561770414</v>
       </c>
       <c r="N72" t="n">
         <v>0</v>
@@ -4279,7 +4279,7 @@
         <v>0</v>
       </c>
       <c r="Q72" t="n">
-        <v>2769.159940888886</v>
+        <v>2797.957080689516</v>
       </c>
     </row>
     <row r="73">
@@ -4290,37 +4290,37 @@
         <v>44896</v>
       </c>
       <c r="C73" t="n">
-        <v>2661.903763018564</v>
+        <v>2702.673690075448</v>
       </c>
       <c r="D73" t="n">
-        <v>2478.856856155623</v>
+        <v>2461.19914888363</v>
       </c>
       <c r="E73" t="n">
-        <v>3114.457999027936</v>
+        <v>3118.287631548953</v>
       </c>
       <c r="F73" t="n">
-        <v>2661.775574160824</v>
+        <v>2702.655843332058</v>
       </c>
       <c r="G73" t="n">
-        <v>2662.018855671091</v>
+        <v>2702.693423517206</v>
       </c>
       <c r="H73" t="n">
-        <v>117.6957684804164</v>
+        <v>107.4217716676945</v>
       </c>
       <c r="I73" t="n">
-        <v>117.6957684804164</v>
+        <v>107.4217716676945</v>
       </c>
       <c r="J73" t="n">
-        <v>117.6957684804164</v>
+        <v>107.4217716676945</v>
       </c>
       <c r="K73" t="n">
-        <v>117.6957684804164</v>
+        <v>107.4217716676945</v>
       </c>
       <c r="L73" t="n">
-        <v>117.6957684804164</v>
+        <v>107.4217716676945</v>
       </c>
       <c r="M73" t="n">
-        <v>117.6957684804164</v>
+        <v>107.4217716676945</v>
       </c>
       <c r="N73" t="n">
         <v>0</v>
@@ -4332,7 +4332,7 @@
         <v>0</v>
       </c>
       <c r="Q73" t="n">
-        <v>2779.599531498981</v>
+        <v>2810.095461743142</v>
       </c>
     </row>
     <row r="74">
@@ -4343,37 +4343,37 @@
         <v>44927</v>
       </c>
       <c r="C74" t="n">
-        <v>2656.919031243287</v>
+        <v>2698.462748245872</v>
       </c>
       <c r="D74" t="n">
-        <v>2764.410614837074</v>
+        <v>2803.23663988285</v>
       </c>
       <c r="E74" t="n">
-        <v>3401.601158442381</v>
+        <v>3432.811941742461</v>
       </c>
       <c r="F74" t="n">
-        <v>2656.757265668044</v>
+        <v>2698.438590135374</v>
       </c>
       <c r="G74" t="n">
-        <v>2657.059922195098</v>
+        <v>2698.487519822953</v>
       </c>
       <c r="H74" t="n">
-        <v>431.4474137778412</v>
+        <v>421.5085963065038</v>
       </c>
       <c r="I74" t="n">
-        <v>431.4474137778412</v>
+        <v>421.5085963065038</v>
       </c>
       <c r="J74" t="n">
-        <v>431.4474137778412</v>
+        <v>421.5085963065038</v>
       </c>
       <c r="K74" t="n">
-        <v>431.4474137778412</v>
+        <v>421.5085963065038</v>
       </c>
       <c r="L74" t="n">
-        <v>431.4474137778412</v>
+        <v>421.5085963065038</v>
       </c>
       <c r="M74" t="n">
-        <v>431.4474137778412</v>
+        <v>421.5085963065038</v>
       </c>
       <c r="N74" t="n">
         <v>0</v>
@@ -4385,7 +4385,7 @@
         <v>0</v>
       </c>
       <c r="Q74" t="n">
-        <v>3088.366445021129</v>
+        <v>3119.971344552376</v>
       </c>
     </row>
     <row r="75">
@@ -4396,37 +4396,37 @@
         <v>44958</v>
       </c>
       <c r="C75" t="n">
-        <v>2651.934299468011</v>
+        <v>2694.251806416295</v>
       </c>
       <c r="D75" t="n">
-        <v>2135.376320331795</v>
+        <v>2151.13289524025</v>
       </c>
       <c r="E75" t="n">
-        <v>2782.120092796243</v>
+        <v>2778.217827017537</v>
       </c>
       <c r="F75" t="n">
-        <v>2651.741590725104</v>
+        <v>2694.222381418994</v>
       </c>
       <c r="G75" t="n">
-        <v>2652.107576197543</v>
+        <v>2694.283194016791</v>
       </c>
       <c r="H75" t="n">
-        <v>-198.9693132560557</v>
+        <v>-211.0391667715151</v>
       </c>
       <c r="I75" t="n">
-        <v>-198.9693132560557</v>
+        <v>-211.0391667715151</v>
       </c>
       <c r="J75" t="n">
-        <v>-198.9693132560557</v>
+        <v>-211.0391667715151</v>
       </c>
       <c r="K75" t="n">
-        <v>-198.9693132560557</v>
+        <v>-211.0391667715151</v>
       </c>
       <c r="L75" t="n">
-        <v>-198.9693132560557</v>
+        <v>-211.0391667715151</v>
       </c>
       <c r="M75" t="n">
-        <v>-198.9693132560557</v>
+        <v>-211.0391667715151</v>
       </c>
       <c r="N75" t="n">
         <v>0</v>
@@ -4438,7 +4438,7 @@
         <v>0</v>
       </c>
       <c r="Q75" t="n">
-        <v>2452.964986211955</v>
+        <v>2483.21263964478</v>
       </c>
     </row>
     <row r="76">
@@ -4449,37 +4449,37 @@
         <v>44986</v>
       </c>
       <c r="C76" t="n">
-        <v>2647.431961090341</v>
+        <v>2690.448375086356</v>
       </c>
       <c r="D76" t="n">
-        <v>2424.356097502591</v>
+        <v>2450.903657796773</v>
       </c>
       <c r="E76" t="n">
-        <v>3104.085964144844</v>
+        <v>3114.605283538937</v>
       </c>
       <c r="F76" t="n">
-        <v>2647.211803427472</v>
+        <v>2690.41105385756</v>
       </c>
       <c r="G76" t="n">
-        <v>2647.64081041287</v>
+        <v>2690.485507189842</v>
       </c>
       <c r="H76" t="n">
-        <v>114.4744018941443</v>
+        <v>97.81215294603746</v>
       </c>
       <c r="I76" t="n">
-        <v>114.4744018941443</v>
+        <v>97.81215294603746</v>
       </c>
       <c r="J76" t="n">
-        <v>114.4744018941443</v>
+        <v>97.81215294603746</v>
       </c>
       <c r="K76" t="n">
-        <v>114.4744018941443</v>
+        <v>97.81215294603746</v>
       </c>
       <c r="L76" t="n">
-        <v>114.4744018941443</v>
+        <v>97.81215294603746</v>
       </c>
       <c r="M76" t="n">
-        <v>114.4744018941443</v>
+        <v>97.81215294603746</v>
       </c>
       <c r="N76" t="n">
         <v>0</v>
@@ -4491,7 +4491,7 @@
         <v>0</v>
       </c>
       <c r="Q76" t="n">
-        <v>2761.906362984485</v>
+        <v>2788.260528032393</v>
       </c>
     </row>
     <row r="77">
@@ -4502,37 +4502,37 @@
         <v>45017</v>
       </c>
       <c r="C77" t="n">
-        <v>2642.447229315064</v>
+        <v>2686.23743325678</v>
       </c>
       <c r="D77" t="n">
-        <v>2403.169285867481</v>
+        <v>2418.134031869714</v>
       </c>
       <c r="E77" t="n">
-        <v>3026.517405104442</v>
+        <v>3091.069518017915</v>
       </c>
       <c r="F77" t="n">
-        <v>2642.193859957917</v>
+        <v>2686.193599711338</v>
       </c>
       <c r="G77" t="n">
-        <v>2642.694187354845</v>
+        <v>2686.281726585167</v>
       </c>
       <c r="H77" t="n">
-        <v>90.09951348500226</v>
+        <v>66.0169107948285</v>
       </c>
       <c r="I77" t="n">
-        <v>90.09951348500226</v>
+        <v>66.0169107948285</v>
       </c>
       <c r="J77" t="n">
-        <v>90.09951348500226</v>
+        <v>66.0169107948285</v>
       </c>
       <c r="K77" t="n">
-        <v>90.09951348500226</v>
+        <v>66.0169107948285</v>
       </c>
       <c r="L77" t="n">
-        <v>90.09951348500226</v>
+        <v>66.0169107948285</v>
       </c>
       <c r="M77" t="n">
-        <v>90.09951348500226</v>
+        <v>66.0169107948285</v>
       </c>
       <c r="N77" t="n">
         <v>0</v>
@@ -4544,7 +4544,7 @@
         <v>0</v>
       </c>
       <c r="Q77" t="n">
-        <v>2732.546742800067</v>
+        <v>2752.254344051608</v>
       </c>
     </row>
     <row r="78">
@@ -4555,37 +4555,37 @@
         <v>45047</v>
       </c>
       <c r="C78" t="n">
-        <v>2637.62329533899</v>
+        <v>2682.162328260416</v>
       </c>
       <c r="D78" t="n">
-        <v>2241.462401491995</v>
+        <v>2252.004563792646</v>
       </c>
       <c r="E78" t="n">
-        <v>2879.29952229902</v>
+        <v>2883.108279065738</v>
       </c>
       <c r="F78" t="n">
-        <v>2637.328048005773</v>
+        <v>2682.110864846915</v>
       </c>
       <c r="G78" t="n">
-        <v>2637.904394716652</v>
+        <v>2682.213701815864</v>
       </c>
       <c r="H78" t="n">
-        <v>-89.00079250490559</v>
+        <v>-118.5036407676753</v>
       </c>
       <c r="I78" t="n">
-        <v>-89.00079250490559</v>
+        <v>-118.5036407676753</v>
       </c>
       <c r="J78" t="n">
-        <v>-89.00079250490559</v>
+        <v>-118.5036407676753</v>
       </c>
       <c r="K78" t="n">
-        <v>-89.00079250490559</v>
+        <v>-118.5036407676753</v>
       </c>
       <c r="L78" t="n">
-        <v>-89.00079250490559</v>
+        <v>-118.5036407676753</v>
       </c>
       <c r="M78" t="n">
-        <v>-89.00079250490559</v>
+        <v>-118.5036407676753</v>
       </c>
       <c r="N78" t="n">
         <v>0</v>
@@ -4597,7 +4597,7 @@
         <v>0</v>
       </c>
       <c r="Q78" t="n">
-        <v>2548.622502834084</v>
+        <v>2563.65868749274</v>
       </c>
     </row>
     <row r="79">
@@ -4608,37 +4608,37 @@
         <v>45078</v>
       </c>
       <c r="C79" t="n">
-        <v>2632.638563563713</v>
+        <v>2677.95138643084</v>
       </c>
       <c r="D79" t="n">
-        <v>1805.077667586263</v>
+        <v>1943.234396479969</v>
       </c>
       <c r="E79" t="n">
-        <v>2433.19758403061</v>
+        <v>2592.71749724351</v>
       </c>
       <c r="F79" t="n">
-        <v>2632.305607150193</v>
+        <v>2677.891727848957</v>
       </c>
       <c r="G79" t="n">
-        <v>2632.961915918592</v>
+        <v>2678.010008715069</v>
       </c>
       <c r="H79" t="n">
-        <v>-524.5385525918803</v>
+        <v>-389.5573041512067</v>
       </c>
       <c r="I79" t="n">
-        <v>-524.5385525918803</v>
+        <v>-389.5573041512067</v>
       </c>
       <c r="J79" t="n">
-        <v>-524.5385525918803</v>
+        <v>-389.5573041512067</v>
       </c>
       <c r="K79" t="n">
-        <v>-524.5385525918803</v>
+        <v>-389.5573041512067</v>
       </c>
       <c r="L79" t="n">
-        <v>-524.5385525918803</v>
+        <v>-389.5573041512067</v>
       </c>
       <c r="M79" t="n">
-        <v>-524.5385525918803</v>
+        <v>-389.5573041512067</v>
       </c>
       <c r="N79" t="n">
         <v>0</v>
@@ -4650,7 +4650,7 @@
         <v>0</v>
       </c>
       <c r="Q79" t="n">
-        <v>2108.100010971832</v>
+        <v>2288.394082279633</v>
       </c>
     </row>
     <row r="80">
@@ -4661,37 +4661,37 @@
         <v>45108</v>
       </c>
       <c r="C80" t="n">
-        <v>2627.814629587639</v>
+        <v>2673.876281434475</v>
       </c>
       <c r="D80" t="n">
-        <v>2466.457150755777</v>
+        <v>2454.123598750822</v>
       </c>
       <c r="E80" t="n">
-        <v>3124.777596248171</v>
+        <v>3144.909571478681</v>
       </c>
       <c r="F80" t="n">
-        <v>2627.436925740926</v>
+        <v>2673.807339377193</v>
       </c>
       <c r="G80" t="n">
-        <v>2628.18226568502</v>
+        <v>2673.941812467836</v>
       </c>
       <c r="H80" t="n">
-        <v>165.4213706451866</v>
+        <v>135.5230735568262</v>
       </c>
       <c r="I80" t="n">
-        <v>165.4213706451866</v>
+        <v>135.5230735568262</v>
       </c>
       <c r="J80" t="n">
-        <v>165.4213706451866</v>
+        <v>135.5230735568262</v>
       </c>
       <c r="K80" t="n">
-        <v>165.4213706451866</v>
+        <v>135.5230735568262</v>
       </c>
       <c r="L80" t="n">
-        <v>165.4213706451866</v>
+        <v>135.5230735568262</v>
       </c>
       <c r="M80" t="n">
-        <v>165.4213706451866</v>
+        <v>135.5230735568262</v>
       </c>
       <c r="N80" t="n">
         <v>0</v>
@@ -4703,7 +4703,7 @@
         <v>0</v>
       </c>
       <c r="Q80" t="n">
-        <v>2793.236000232825</v>
+        <v>2809.399354991302</v>
       </c>
     </row>
     <row r="81">
@@ -4714,37 +4714,37 @@
         <v>45139</v>
       </c>
       <c r="C81" t="n">
-        <v>2622.829897812362</v>
+        <v>2669.6653396049</v>
       </c>
       <c r="D81" t="n">
-        <v>2406.432726446153</v>
+        <v>2404.469550387093</v>
       </c>
       <c r="E81" t="n">
-        <v>3055.758482576819</v>
+        <v>3075.695528472717</v>
       </c>
       <c r="F81" t="n">
-        <v>2622.41190952601</v>
+        <v>2669.587007105374</v>
       </c>
       <c r="G81" t="n">
-        <v>2623.235028308826</v>
+        <v>2669.73830167647</v>
       </c>
       <c r="H81" t="n">
-        <v>92.1862332072623</v>
+        <v>67.01683082028568</v>
       </c>
       <c r="I81" t="n">
-        <v>92.1862332072623</v>
+        <v>67.01683082028568</v>
       </c>
       <c r="J81" t="n">
-        <v>92.1862332072623</v>
+        <v>67.01683082028568</v>
       </c>
       <c r="K81" t="n">
-        <v>92.1862332072623</v>
+        <v>67.01683082028568</v>
       </c>
       <c r="L81" t="n">
-        <v>92.1862332072623</v>
+        <v>67.01683082028568</v>
       </c>
       <c r="M81" t="n">
-        <v>92.1862332072623</v>
+        <v>67.01683082028568</v>
       </c>
       <c r="N81" t="n">
         <v>0</v>
@@ -4756,7 +4756,7 @@
         <v>0</v>
       </c>
       <c r="Q81" t="n">
-        <v>2715.016131019624</v>
+        <v>2736.682170425185</v>
       </c>
     </row>
     <row r="82">
@@ -4767,37 +4767,37 @@
         <v>45170</v>
       </c>
       <c r="C82" t="n">
-        <v>2617.845166037085</v>
+        <v>2665.454397775323</v>
       </c>
       <c r="D82" t="n">
-        <v>2255.770019816648</v>
+        <v>2275.855003299428</v>
       </c>
       <c r="E82" t="n">
-        <v>2896.808932269496</v>
+        <v>2948.76935024799</v>
       </c>
       <c r="F82" t="n">
-        <v>2617.379816404896</v>
+        <v>2665.367697863438</v>
       </c>
       <c r="G82" t="n">
-        <v>2618.29406829272</v>
+        <v>2665.535744283899</v>
       </c>
       <c r="H82" t="n">
-        <v>-42.71307409669382</v>
+        <v>-62.77063366774287</v>
       </c>
       <c r="I82" t="n">
-        <v>-42.71307409669382</v>
+        <v>-62.77063366774287</v>
       </c>
       <c r="J82" t="n">
-        <v>-42.71307409669382</v>
+        <v>-62.77063366774287</v>
       </c>
       <c r="K82" t="n">
-        <v>-42.71307409669382</v>
+        <v>-62.77063366774287</v>
       </c>
       <c r="L82" t="n">
-        <v>-42.71307409669382</v>
+        <v>-62.77063366774287</v>
       </c>
       <c r="M82" t="n">
-        <v>-42.71307409669382</v>
+        <v>-62.77063366774287</v>
       </c>
       <c r="N82" t="n">
         <v>0</v>
@@ -4809,7 +4809,7 @@
         <v>0</v>
       </c>
       <c r="Q82" t="n">
-        <v>2575.132091940391</v>
+        <v>2602.68376410758</v>
       </c>
     </row>
     <row r="83">
@@ -4820,37 +4820,37 @@
         <v>45200</v>
       </c>
       <c r="C83" t="n">
-        <v>2613.02123206101</v>
+        <v>2661.37929277896</v>
       </c>
       <c r="D83" t="n">
-        <v>2929.149969021788</v>
+        <v>2979.40904150455</v>
       </c>
       <c r="E83" t="n">
-        <v>3607.473953121937</v>
+        <v>3634.433956110605</v>
       </c>
       <c r="F83" t="n">
-        <v>2612.511402285244</v>
+        <v>2661.285617905428</v>
       </c>
       <c r="G83" t="n">
-        <v>2613.505120421399</v>
+        <v>2661.46959083466</v>
       </c>
       <c r="H83" t="n">
-        <v>656.0287705147176</v>
+        <v>642.5752067619843</v>
       </c>
       <c r="I83" t="n">
-        <v>656.0287705147176</v>
+        <v>642.5752067619843</v>
       </c>
       <c r="J83" t="n">
-        <v>656.0287705147176</v>
+        <v>642.5752067619843</v>
       </c>
       <c r="K83" t="n">
-        <v>656.0287705147176</v>
+        <v>642.5752067619843</v>
       </c>
       <c r="L83" t="n">
-        <v>656.0287705147176</v>
+        <v>642.5752067619843</v>
       </c>
       <c r="M83" t="n">
-        <v>656.0287705147176</v>
+        <v>642.5752067619843</v>
       </c>
       <c r="N83" t="n">
         <v>0</v>
@@ -4862,7 +4862,60 @@
         <v>0</v>
       </c>
       <c r="Q83" t="n">
-        <v>3269.050002575728</v>
+        <v>3303.954499540944</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" s="2" t="n">
+        <v>45231</v>
+      </c>
+      <c r="C84" t="n">
+        <v>2657.168350949384</v>
+      </c>
+      <c r="D84" t="n">
+        <v>2332.747681252915</v>
+      </c>
+      <c r="E84" t="n">
+        <v>2975.850113654795</v>
+      </c>
+      <c r="F84" t="n">
+        <v>2657.0649928984</v>
+      </c>
+      <c r="G84" t="n">
+        <v>2657.266729402093</v>
+      </c>
+      <c r="H84" t="n">
+        <v>-8.68581671012017</v>
+      </c>
+      <c r="I84" t="n">
+        <v>-8.68581671012017</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-8.68581671012017</v>
+      </c>
+      <c r="K84" t="n">
+        <v>-8.68581671012017</v>
+      </c>
+      <c r="L84" t="n">
+        <v>-8.68581671012017</v>
+      </c>
+      <c r="M84" t="n">
+        <v>-8.68581671012017</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0</v>
+      </c>
+      <c r="O84" t="n">
+        <v>0</v>
+      </c>
+      <c r="P84" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>2648.482534239264</v>
       </c>
     </row>
   </sheetData>
